--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A4E87-8B95-4ABF-9333-2226FDD4DEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC01D2-F6B5-4961-A8FA-4944899D12D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="3090" windowWidth="33060" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="5235" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,11 +179,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>400/480/100/20</t>
+    <t>200/680/100/20</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>300/250/250/200</t>
+    <t>200/350/250/200</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -922,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1011,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -1100,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
@@ -1189,7 +1189,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -1278,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="1">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
@@ -1367,7 +1367,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>

--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC01D2-F6B5-4961-A8FA-4944899D12D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0691D66-D12C-4794-9C79-F9BD40BAF7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="5235" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>200/350/250/200</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -571,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR1000"/>
+  <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -586,63 +590,63 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="92.140625" style="14" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="16" width="21.42578125" customWidth="1"/>
-    <col min="17" max="19" width="8.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="21.42578125" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" customWidth="1"/>
-    <col min="32" max="32" width="20.5703125" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" customWidth="1"/>
-    <col min="38" max="38" width="20.5703125" customWidth="1"/>
-    <col min="39" max="39" width="21.42578125" customWidth="1"/>
-    <col min="40" max="40" width="20.5703125" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" customWidth="1"/>
-    <col min="42" max="42" width="19.7109375" customWidth="1"/>
-    <col min="43" max="43" width="20.42578125" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" customWidth="1"/>
-    <col min="47" max="47" width="20.42578125" customWidth="1"/>
-    <col min="48" max="48" width="19.7109375" customWidth="1"/>
-    <col min="49" max="49" width="20.42578125" customWidth="1"/>
-    <col min="50" max="50" width="19.7109375" customWidth="1"/>
-    <col min="51" max="52" width="20.42578125" customWidth="1"/>
-    <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="12.5703125" customWidth="1"/>
-    <col min="55" max="55" width="13" customWidth="1"/>
-    <col min="56" max="56" width="12.5703125" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" customWidth="1"/>
-    <col min="59" max="59" width="13" customWidth="1"/>
-    <col min="60" max="60" width="12.5703125" customWidth="1"/>
-    <col min="61" max="61" width="17.42578125" customWidth="1"/>
-    <col min="62" max="62" width="18.140625" customWidth="1"/>
-    <col min="63" max="63" width="17.42578125" customWidth="1"/>
-    <col min="64" max="64" width="18.140625" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" customWidth="1"/>
-    <col min="67" max="67" width="17.42578125" customWidth="1"/>
-    <col min="68" max="68" width="18.140625" customWidth="1"/>
-    <col min="69" max="69" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="92.140625" style="14" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="21.42578125" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.5703125" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" customWidth="1"/>
+    <col min="37" max="37" width="20.5703125" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" customWidth="1"/>
+    <col min="41" max="41" width="20.5703125" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" customWidth="1"/>
+    <col min="44" max="44" width="20.42578125" customWidth="1"/>
+    <col min="45" max="45" width="19.7109375" customWidth="1"/>
+    <col min="46" max="46" width="20.42578125" customWidth="1"/>
+    <col min="47" max="47" width="19.7109375" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" customWidth="1"/>
+    <col min="50" max="50" width="20.42578125" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="52" max="53" width="20.42578125" customWidth="1"/>
+    <col min="54" max="54" width="13" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" customWidth="1"/>
+    <col min="56" max="56" width="13" customWidth="1"/>
+    <col min="57" max="57" width="12.5703125" customWidth="1"/>
+    <col min="58" max="58" width="13" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" customWidth="1"/>
+    <col min="60" max="60" width="13" customWidth="1"/>
+    <col min="61" max="61" width="12.5703125" customWidth="1"/>
+    <col min="62" max="62" width="17.42578125" customWidth="1"/>
+    <col min="63" max="63" width="18.140625" customWidth="1"/>
+    <col min="64" max="64" width="17.42578125" customWidth="1"/>
+    <col min="65" max="65" width="18.140625" customWidth="1"/>
+    <col min="66" max="66" width="17.42578125" customWidth="1"/>
+    <col min="67" max="67" width="18.140625" customWidth="1"/>
+    <col min="68" max="68" width="17.42578125" customWidth="1"/>
+    <col min="69" max="69" width="18.140625" customWidth="1"/>
+    <col min="70" max="70" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="12.75" customHeight="1">
+    <row r="1" spans="1:71" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,15 +663,17 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -689,7 +695,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="3"/>
+      <c r="AE1" s="1"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
@@ -711,7 +717,7 @@
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
-      <c r="BA1" s="4"/>
+      <c r="BA1" s="3"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
@@ -727,10 +733,11 @@
       <c r="BN1" s="4"/>
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="4"/>
-    </row>
-    <row r="2" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="4"/>
+    </row>
+    <row r="2" spans="1:71" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,15 +754,17 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -799,7 +808,7 @@
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
-      <c r="BA2" s="7"/>
+      <c r="BA2" s="6"/>
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
@@ -815,10 +824,11 @@
       <c r="BN2" s="7"/>
       <c r="BO2" s="7"/>
       <c r="BP2" s="7"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="7"/>
-    </row>
-    <row r="3" spans="1:70" ht="16.5">
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="7"/>
+    </row>
+    <row r="3" spans="1:71" ht="16.5">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
         <v>1</v>
@@ -835,20 +845,22 @@
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -888,7 +900,7 @@
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
-      <c r="BA3" s="10"/>
+      <c r="BA3" s="1"/>
       <c r="BB3" s="10"/>
       <c r="BC3" s="10"/>
       <c r="BD3" s="10"/>
@@ -904,10 +916,11 @@
       <c r="BN3" s="10"/>
       <c r="BO3" s="10"/>
       <c r="BP3" s="10"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="10"/>
-    </row>
-    <row r="4" spans="1:70" ht="16.5">
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="10"/>
+    </row>
+    <row r="4" spans="1:71" ht="16.5">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -924,20 +937,22 @@
       <c r="E4" s="1">
         <v>0.7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -977,7 +992,7 @@
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
-      <c r="BA4" s="10"/>
+      <c r="BA4" s="1"/>
       <c r="BB4" s="10"/>
       <c r="BC4" s="10"/>
       <c r="BD4" s="10"/>
@@ -993,10 +1008,11 @@
       <c r="BN4" s="10"/>
       <c r="BO4" s="10"/>
       <c r="BP4" s="10"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="10"/>
-    </row>
-    <row r="5" spans="1:70" ht="16.5">
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="10"/>
+    </row>
+    <row r="5" spans="1:71" ht="16.5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1013,20 +1029,22 @@
       <c r="E5" s="1">
         <v>0.7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1066,7 +1084,7 @@
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
-      <c r="BA5" s="10"/>
+      <c r="BA5" s="1"/>
       <c r="BB5" s="10"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
@@ -1082,10 +1100,11 @@
       <c r="BN5" s="10"/>
       <c r="BO5" s="10"/>
       <c r="BP5" s="10"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="10"/>
-    </row>
-    <row r="6" spans="1:70" ht="16.5">
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="10"/>
+    </row>
+    <row r="6" spans="1:71" ht="16.5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1102,20 +1121,22 @@
       <c r="E6" s="1">
         <v>0.7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1155,7 +1176,7 @@
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
-      <c r="BA6" s="10"/>
+      <c r="BA6" s="1"/>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
@@ -1171,10 +1192,11 @@
       <c r="BN6" s="10"/>
       <c r="BO6" s="10"/>
       <c r="BP6" s="10"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="10"/>
-    </row>
-    <row r="7" spans="1:70" ht="16.5">
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="10"/>
+    </row>
+    <row r="7" spans="1:71" ht="16.5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1191,20 +1213,22 @@
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1244,7 +1268,7 @@
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="10"/>
+      <c r="BA7" s="1"/>
       <c r="BB7" s="10"/>
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
@@ -1260,10 +1284,11 @@
       <c r="BN7" s="10"/>
       <c r="BO7" s="10"/>
       <c r="BP7" s="10"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="10"/>
-    </row>
-    <row r="8" spans="1:70" ht="16.5">
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="10"/>
+    </row>
+    <row r="8" spans="1:71" ht="16.5">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1280,20 +1305,22 @@
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1333,7 +1360,7 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
-      <c r="BA8" s="10"/>
+      <c r="BA8" s="1"/>
       <c r="BB8" s="10"/>
       <c r="BC8" s="10"/>
       <c r="BD8" s="10"/>
@@ -1349,10 +1376,11 @@
       <c r="BN8" s="10"/>
       <c r="BO8" s="10"/>
       <c r="BP8" s="10"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="10"/>
-    </row>
-    <row r="9" spans="1:70" ht="16.5">
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="10"/>
+    </row>
+    <row r="9" spans="1:71" ht="16.5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1369,20 +1397,22 @@
       <c r="E9" s="1">
         <v>0.9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1422,7 +1452,7 @@
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
-      <c r="BA9" s="10"/>
+      <c r="BA9" s="1"/>
       <c r="BB9" s="10"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
@@ -1438,10 +1468,11 @@
       <c r="BN9" s="10"/>
       <c r="BO9" s="10"/>
       <c r="BP9" s="10"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="10"/>
-    </row>
-    <row r="10" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="10"/>
+    </row>
+    <row r="10" spans="1:71" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1453,8 +1484,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1494,7 +1525,7 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
-      <c r="BA10" s="10"/>
+      <c r="BA10" s="1"/>
       <c r="BB10" s="10"/>
       <c r="BC10" s="10"/>
       <c r="BD10" s="10"/>
@@ -1510,10 +1541,11 @@
       <c r="BN10" s="10"/>
       <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="10"/>
-    </row>
-    <row r="11" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="10"/>
+    </row>
+    <row r="11" spans="1:71" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1525,8 +1557,8 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1566,7 +1598,7 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
-      <c r="BA11" s="10"/>
+      <c r="BA11" s="1"/>
       <c r="BB11" s="10"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
@@ -1582,10 +1614,11 @@
       <c r="BN11" s="10"/>
       <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="10"/>
-    </row>
-    <row r="12" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="10"/>
+    </row>
+    <row r="12" spans="1:71" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1597,8 +1630,8 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1638,7 +1671,7 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
-      <c r="BA12" s="10"/>
+      <c r="BA12" s="1"/>
       <c r="BB12" s="10"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
@@ -1654,10 +1687,11 @@
       <c r="BN12" s="10"/>
       <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="10"/>
-    </row>
-    <row r="13" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="10"/>
+    </row>
+    <row r="13" spans="1:71" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1669,8 +1703,8 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1710,7 +1744,7 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
-      <c r="BA13" s="10"/>
+      <c r="BA13" s="1"/>
       <c r="BB13" s="10"/>
       <c r="BC13" s="10"/>
       <c r="BD13" s="10"/>
@@ -1726,10 +1760,11 @@
       <c r="BN13" s="10"/>
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="10"/>
-    </row>
-    <row r="14" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="10"/>
+    </row>
+    <row r="14" spans="1:71" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1741,8 +1776,8 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1782,7 +1817,7 @@
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
-      <c r="BA14" s="10"/>
+      <c r="BA14" s="1"/>
       <c r="BB14" s="10"/>
       <c r="BC14" s="10"/>
       <c r="BD14" s="10"/>
@@ -1798,10 +1833,11 @@
       <c r="BN14" s="10"/>
       <c r="BO14" s="10"/>
       <c r="BP14" s="10"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="10"/>
-    </row>
-    <row r="15" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="10"/>
+    </row>
+    <row r="15" spans="1:71" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1813,8 +1849,8 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1854,7 +1890,7 @@
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
-      <c r="BA15" s="10"/>
+      <c r="BA15" s="1"/>
       <c r="BB15" s="10"/>
       <c r="BC15" s="10"/>
       <c r="BD15" s="10"/>
@@ -1870,10 +1906,11 @@
       <c r="BN15" s="10"/>
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="10"/>
-    </row>
-    <row r="16" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="10"/>
+    </row>
+    <row r="16" spans="1:71" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1885,8 +1922,8 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1926,7 +1963,7 @@
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
-      <c r="BA16" s="10"/>
+      <c r="BA16" s="1"/>
       <c r="BB16" s="10"/>
       <c r="BC16" s="10"/>
       <c r="BD16" s="10"/>
@@ -1942,10 +1979,11 @@
       <c r="BN16" s="10"/>
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="10"/>
-    </row>
-    <row r="17" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="10"/>
+    </row>
+    <row r="17" spans="1:71" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1957,8 +1995,8 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1998,7 +2036,7 @@
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
-      <c r="BA17" s="10"/>
+      <c r="BA17" s="1"/>
       <c r="BB17" s="10"/>
       <c r="BC17" s="10"/>
       <c r="BD17" s="10"/>
@@ -2014,10 +2052,11 @@
       <c r="BN17" s="10"/>
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="10"/>
-    </row>
-    <row r="18" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="10"/>
+    </row>
+    <row r="18" spans="1:71" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -2029,8 +2068,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2070,7 +2109,7 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
-      <c r="BA18" s="10"/>
+      <c r="BA18" s="1"/>
       <c r="BB18" s="10"/>
       <c r="BC18" s="10"/>
       <c r="BD18" s="10"/>
@@ -2086,10 +2125,11 @@
       <c r="BN18" s="10"/>
       <c r="BO18" s="10"/>
       <c r="BP18" s="10"/>
-      <c r="BQ18" s="1"/>
-      <c r="BR18" s="10"/>
-    </row>
-    <row r="19" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="10"/>
+    </row>
+    <row r="19" spans="1:71" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -2101,8 +2141,8 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2142,7 +2182,7 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
-      <c r="BA19" s="10"/>
+      <c r="BA19" s="1"/>
       <c r="BB19" s="10"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
@@ -2158,10 +2198,11 @@
       <c r="BN19" s="10"/>
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="10"/>
-    </row>
-    <row r="20" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="10"/>
+    </row>
+    <row r="20" spans="1:71" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -2173,8 +2214,8 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2214,7 +2255,7 @@
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
-      <c r="BA20" s="10"/>
+      <c r="BA20" s="1"/>
       <c r="BB20" s="10"/>
       <c r="BC20" s="10"/>
       <c r="BD20" s="10"/>
@@ -2230,10 +2271,11 @@
       <c r="BN20" s="10"/>
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="10"/>
-    </row>
-    <row r="21" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ20" s="10"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="10"/>
+    </row>
+    <row r="21" spans="1:71" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2245,8 +2287,8 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2286,7 +2328,7 @@
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
-      <c r="BA21" s="10"/>
+      <c r="BA21" s="1"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="10"/>
       <c r="BD21" s="10"/>
@@ -2302,10 +2344,11 @@
       <c r="BN21" s="10"/>
       <c r="BO21" s="10"/>
       <c r="BP21" s="10"/>
-      <c r="BQ21" s="1"/>
-      <c r="BR21" s="10"/>
-    </row>
-    <row r="22" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ21" s="10"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="10"/>
+    </row>
+    <row r="22" spans="1:71" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -2317,8 +2360,8 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2358,7 +2401,7 @@
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
-      <c r="BA22" s="10"/>
+      <c r="BA22" s="1"/>
       <c r="BB22" s="10"/>
       <c r="BC22" s="10"/>
       <c r="BD22" s="10"/>
@@ -2374,10 +2417,11 @@
       <c r="BN22" s="10"/>
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="10"/>
-    </row>
-    <row r="23" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ22" s="10"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="10"/>
+    </row>
+    <row r="23" spans="1:71" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2389,8 +2433,8 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2430,7 +2474,7 @@
       <c r="AX23" s="1"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
-      <c r="BA23" s="10"/>
+      <c r="BA23" s="1"/>
       <c r="BB23" s="10"/>
       <c r="BC23" s="10"/>
       <c r="BD23" s="10"/>
@@ -2446,10 +2490,11 @@
       <c r="BN23" s="10"/>
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="10"/>
-    </row>
-    <row r="24" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="10"/>
+    </row>
+    <row r="24" spans="1:71" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2461,8 +2506,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="13"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2502,7 +2547,7 @@
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
-      <c r="BA24" s="10"/>
+      <c r="BA24" s="1"/>
       <c r="BB24" s="10"/>
       <c r="BC24" s="10"/>
       <c r="BD24" s="10"/>
@@ -2518,10 +2563,11 @@
       <c r="BN24" s="10"/>
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="10"/>
-    </row>
-    <row r="25" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="10"/>
+    </row>
+    <row r="25" spans="1:71" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -2533,8 +2579,8 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2574,7 +2620,7 @@
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
-      <c r="BA25" s="10"/>
+      <c r="BA25" s="1"/>
       <c r="BB25" s="10"/>
       <c r="BC25" s="10"/>
       <c r="BD25" s="10"/>
@@ -2590,10 +2636,11 @@
       <c r="BN25" s="10"/>
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="10"/>
-    </row>
-    <row r="26" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="10"/>
+    </row>
+    <row r="26" spans="1:71" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -2605,8 +2652,8 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2646,7 +2693,7 @@
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
-      <c r="BA26" s="10"/>
+      <c r="BA26" s="1"/>
       <c r="BB26" s="10"/>
       <c r="BC26" s="10"/>
       <c r="BD26" s="10"/>
@@ -2662,10 +2709,11 @@
       <c r="BN26" s="10"/>
       <c r="BO26" s="10"/>
       <c r="BP26" s="10"/>
-      <c r="BQ26" s="1"/>
-      <c r="BR26" s="10"/>
-    </row>
-    <row r="27" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ26" s="10"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="10"/>
+    </row>
+    <row r="27" spans="1:71" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -2677,8 +2725,8 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2718,7 +2766,7 @@
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
-      <c r="BA27" s="10"/>
+      <c r="BA27" s="1"/>
       <c r="BB27" s="10"/>
       <c r="BC27" s="10"/>
       <c r="BD27" s="10"/>
@@ -2734,10 +2782,11 @@
       <c r="BN27" s="10"/>
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
-      <c r="BQ27" s="1"/>
-      <c r="BR27" s="10"/>
-    </row>
-    <row r="28" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="10"/>
+    </row>
+    <row r="28" spans="1:71" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -2749,8 +2798,8 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2790,7 +2839,7 @@
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
-      <c r="BA28" s="10"/>
+      <c r="BA28" s="1"/>
       <c r="BB28" s="10"/>
       <c r="BC28" s="10"/>
       <c r="BD28" s="10"/>
@@ -2806,10 +2855,11 @@
       <c r="BN28" s="10"/>
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
-      <c r="BQ28" s="1"/>
-      <c r="BR28" s="10"/>
-    </row>
-    <row r="29" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ28" s="10"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="10"/>
+    </row>
+    <row r="29" spans="1:71" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -2821,8 +2871,8 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2862,7 +2912,7 @@
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
-      <c r="BA29" s="10"/>
+      <c r="BA29" s="1"/>
       <c r="BB29" s="10"/>
       <c r="BC29" s="10"/>
       <c r="BD29" s="10"/>
@@ -2878,10 +2928,11 @@
       <c r="BN29" s="10"/>
       <c r="BO29" s="10"/>
       <c r="BP29" s="10"/>
-      <c r="BQ29" s="1"/>
-      <c r="BR29" s="10"/>
-    </row>
-    <row r="30" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ29" s="10"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="10"/>
+    </row>
+    <row r="30" spans="1:71" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -2893,8 +2944,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2934,7 +2985,7 @@
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
-      <c r="BA30" s="10"/>
+      <c r="BA30" s="1"/>
       <c r="BB30" s="10"/>
       <c r="BC30" s="10"/>
       <c r="BD30" s="10"/>
@@ -2950,10 +3001,11 @@
       <c r="BN30" s="10"/>
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
-      <c r="BQ30" s="1"/>
-      <c r="BR30" s="10"/>
-    </row>
-    <row r="31" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="10"/>
+    </row>
+    <row r="31" spans="1:71" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -2965,8 +3017,8 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="13"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3006,7 +3058,7 @@
       <c r="AX31" s="1"/>
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
-      <c r="BA31" s="10"/>
+      <c r="BA31" s="1"/>
       <c r="BB31" s="10"/>
       <c r="BC31" s="10"/>
       <c r="BD31" s="10"/>
@@ -3022,10 +3074,11 @@
       <c r="BN31" s="10"/>
       <c r="BO31" s="10"/>
       <c r="BP31" s="10"/>
-      <c r="BQ31" s="1"/>
-      <c r="BR31" s="10"/>
-    </row>
-    <row r="32" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="10"/>
+    </row>
+    <row r="32" spans="1:71" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -3037,8 +3090,8 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="13"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3078,7 +3131,7 @@
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
-      <c r="BA32" s="10"/>
+      <c r="BA32" s="1"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="10"/>
       <c r="BD32" s="10"/>
@@ -3094,10 +3147,11 @@
       <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
-      <c r="BQ32" s="1"/>
-      <c r="BR32" s="10"/>
-    </row>
-    <row r="33" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="10"/>
+    </row>
+    <row r="33" spans="1:71" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -3109,8 +3163,8 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="13"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3150,7 +3204,7 @@
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
-      <c r="BA33" s="10"/>
+      <c r="BA33" s="1"/>
       <c r="BB33" s="10"/>
       <c r="BC33" s="10"/>
       <c r="BD33" s="10"/>
@@ -3166,10 +3220,11 @@
       <c r="BN33" s="10"/>
       <c r="BO33" s="10"/>
       <c r="BP33" s="10"/>
-      <c r="BQ33" s="1"/>
-      <c r="BR33" s="10"/>
-    </row>
-    <row r="34" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="10"/>
+    </row>
+    <row r="34" spans="1:71" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -3181,8 +3236,8 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="13"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3222,7 +3277,7 @@
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
-      <c r="BA34" s="10"/>
+      <c r="BA34" s="1"/>
       <c r="BB34" s="10"/>
       <c r="BC34" s="10"/>
       <c r="BD34" s="10"/>
@@ -3238,10 +3293,11 @@
       <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
       <c r="BP34" s="10"/>
-      <c r="BQ34" s="1"/>
-      <c r="BR34" s="10"/>
-    </row>
-    <row r="35" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="10"/>
+    </row>
+    <row r="35" spans="1:71" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -3253,8 +3309,8 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="13"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3294,7 +3350,7 @@
       <c r="AX35" s="1"/>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
-      <c r="BA35" s="10"/>
+      <c r="BA35" s="1"/>
       <c r="BB35" s="10"/>
       <c r="BC35" s="10"/>
       <c r="BD35" s="10"/>
@@ -3310,10 +3366,11 @@
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
       <c r="BP35" s="10"/>
-      <c r="BQ35" s="1"/>
-      <c r="BR35" s="10"/>
-    </row>
-    <row r="36" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="10"/>
+    </row>
+    <row r="36" spans="1:71" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -3325,8 +3382,8 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="13"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3366,7 +3423,7 @@
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
-      <c r="BA36" s="10"/>
+      <c r="BA36" s="1"/>
       <c r="BB36" s="10"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
@@ -3382,10 +3439,11 @@
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
       <c r="BP36" s="10"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="10"/>
-    </row>
-    <row r="37" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ36" s="10"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="10"/>
+    </row>
+    <row r="37" spans="1:71" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -3397,8 +3455,8 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="13"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3438,7 +3496,7 @@
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
-      <c r="BA37" s="10"/>
+      <c r="BA37" s="1"/>
       <c r="BB37" s="10"/>
       <c r="BC37" s="10"/>
       <c r="BD37" s="10"/>
@@ -3454,10 +3512,11 @@
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="10"/>
-    </row>
-    <row r="38" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ37" s="10"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="10"/>
+    </row>
+    <row r="38" spans="1:71" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -3469,8 +3528,8 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="13"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3510,7 +3569,7 @@
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
-      <c r="BA38" s="10"/>
+      <c r="BA38" s="1"/>
       <c r="BB38" s="10"/>
       <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
@@ -3526,10 +3585,11 @@
       <c r="BN38" s="10"/>
       <c r="BO38" s="10"/>
       <c r="BP38" s="10"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="10"/>
-    </row>
-    <row r="39" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ38" s="10"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="10"/>
+    </row>
+    <row r="39" spans="1:71" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -3541,8 +3601,8 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="13"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3582,7 +3642,7 @@
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
-      <c r="BA39" s="10"/>
+      <c r="BA39" s="1"/>
       <c r="BB39" s="10"/>
       <c r="BC39" s="10"/>
       <c r="BD39" s="10"/>
@@ -3598,10 +3658,11 @@
       <c r="BN39" s="10"/>
       <c r="BO39" s="10"/>
       <c r="BP39" s="10"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="10"/>
-    </row>
-    <row r="40" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ39" s="10"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="10"/>
+    </row>
+    <row r="40" spans="1:71" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -3613,8 +3674,8 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="13"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3654,7 +3715,7 @@
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
-      <c r="BA40" s="10"/>
+      <c r="BA40" s="1"/>
       <c r="BB40" s="10"/>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
@@ -3670,10 +3731,11 @@
       <c r="BN40" s="10"/>
       <c r="BO40" s="10"/>
       <c r="BP40" s="10"/>
-      <c r="BQ40" s="1"/>
-      <c r="BR40" s="10"/>
-    </row>
-    <row r="41" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ40" s="10"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="10"/>
+    </row>
+    <row r="41" spans="1:71" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -3685,8 +3747,8 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="13"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3726,7 +3788,7 @@
       <c r="AX41" s="1"/>
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
-      <c r="BA41" s="10"/>
+      <c r="BA41" s="1"/>
       <c r="BB41" s="10"/>
       <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
@@ -3742,10 +3804,11 @@
       <c r="BN41" s="10"/>
       <c r="BO41" s="10"/>
       <c r="BP41" s="10"/>
-      <c r="BQ41" s="1"/>
-      <c r="BR41" s="10"/>
-    </row>
-    <row r="42" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ41" s="10"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="10"/>
+    </row>
+    <row r="42" spans="1:71" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -3757,8 +3820,8 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="13"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3798,7 +3861,7 @@
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
-      <c r="BA42" s="10"/>
+      <c r="BA42" s="1"/>
       <c r="BB42" s="10"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
@@ -3814,10 +3877,11 @@
       <c r="BN42" s="10"/>
       <c r="BO42" s="10"/>
       <c r="BP42" s="10"/>
-      <c r="BQ42" s="1"/>
-      <c r="BR42" s="10"/>
-    </row>
-    <row r="43" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ42" s="10"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="10"/>
+    </row>
+    <row r="43" spans="1:71" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -3829,8 +3893,8 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="13"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3870,7 +3934,7 @@
       <c r="AX43" s="1"/>
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
-      <c r="BA43" s="10"/>
+      <c r="BA43" s="1"/>
       <c r="BB43" s="10"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
@@ -3886,10 +3950,11 @@
       <c r="BN43" s="10"/>
       <c r="BO43" s="10"/>
       <c r="BP43" s="10"/>
-      <c r="BQ43" s="1"/>
-      <c r="BR43" s="10"/>
-    </row>
-    <row r="44" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ43" s="10"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="10"/>
+    </row>
+    <row r="44" spans="1:71" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -3901,8 +3966,8 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="13"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -3942,7 +4007,7 @@
       <c r="AX44" s="1"/>
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
-      <c r="BA44" s="10"/>
+      <c r="BA44" s="1"/>
       <c r="BB44" s="10"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
@@ -3958,10 +4023,11 @@
       <c r="BN44" s="10"/>
       <c r="BO44" s="10"/>
       <c r="BP44" s="10"/>
-      <c r="BQ44" s="1"/>
-      <c r="BR44" s="10"/>
-    </row>
-    <row r="45" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ44" s="10"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="10"/>
+    </row>
+    <row r="45" spans="1:71" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -3973,8 +4039,8 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="13"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4014,7 +4080,7 @@
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
-      <c r="BA45" s="10"/>
+      <c r="BA45" s="1"/>
       <c r="BB45" s="10"/>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
@@ -4030,10 +4096,11 @@
       <c r="BN45" s="10"/>
       <c r="BO45" s="10"/>
       <c r="BP45" s="10"/>
-      <c r="BQ45" s="1"/>
-      <c r="BR45" s="10"/>
-    </row>
-    <row r="46" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ45" s="10"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="10"/>
+    </row>
+    <row r="46" spans="1:71" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -4045,8 +4112,8 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="13"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4086,7 +4153,7 @@
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
-      <c r="BA46" s="10"/>
+      <c r="BA46" s="1"/>
       <c r="BB46" s="10"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10"/>
@@ -4102,10 +4169,11 @@
       <c r="BN46" s="10"/>
       <c r="BO46" s="10"/>
       <c r="BP46" s="10"/>
-      <c r="BQ46" s="1"/>
-      <c r="BR46" s="10"/>
-    </row>
-    <row r="47" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ46" s="10"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="10"/>
+    </row>
+    <row r="47" spans="1:71" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -4117,8 +4185,8 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="13"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4158,7 +4226,7 @@
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
-      <c r="BA47" s="10"/>
+      <c r="BA47" s="1"/>
       <c r="BB47" s="10"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
@@ -4174,10 +4242,11 @@
       <c r="BN47" s="10"/>
       <c r="BO47" s="10"/>
       <c r="BP47" s="10"/>
-      <c r="BQ47" s="1"/>
-      <c r="BR47" s="10"/>
-    </row>
-    <row r="48" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ47" s="10"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="10"/>
+    </row>
+    <row r="48" spans="1:71" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -4189,8 +4258,8 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="13"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -4230,7 +4299,7 @@
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
-      <c r="BA48" s="10"/>
+      <c r="BA48" s="1"/>
       <c r="BB48" s="10"/>
       <c r="BC48" s="10"/>
       <c r="BD48" s="10"/>
@@ -4246,10 +4315,11 @@
       <c r="BN48" s="10"/>
       <c r="BO48" s="10"/>
       <c r="BP48" s="10"/>
-      <c r="BQ48" s="1"/>
-      <c r="BR48" s="10"/>
-    </row>
-    <row r="49" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ48" s="10"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="10"/>
+    </row>
+    <row r="49" spans="1:71" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -4261,8 +4331,8 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="13"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -4302,7 +4372,7 @@
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
-      <c r="BA49" s="10"/>
+      <c r="BA49" s="1"/>
       <c r="BB49" s="10"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
@@ -4318,10 +4388,11 @@
       <c r="BN49" s="10"/>
       <c r="BO49" s="10"/>
       <c r="BP49" s="10"/>
-      <c r="BQ49" s="1"/>
-      <c r="BR49" s="10"/>
-    </row>
-    <row r="50" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ49" s="10"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="10"/>
+    </row>
+    <row r="50" spans="1:71" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4333,8 +4404,8 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="13"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4374,7 +4445,7 @@
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
-      <c r="BA50" s="10"/>
+      <c r="BA50" s="1"/>
       <c r="BB50" s="10"/>
       <c r="BC50" s="10"/>
       <c r="BD50" s="10"/>
@@ -4390,10 +4461,11 @@
       <c r="BN50" s="10"/>
       <c r="BO50" s="10"/>
       <c r="BP50" s="10"/>
-      <c r="BQ50" s="1"/>
-      <c r="BR50" s="10"/>
-    </row>
-    <row r="51" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ50" s="10"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="10"/>
+    </row>
+    <row r="51" spans="1:71" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4405,8 +4477,8 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="13"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -4446,7 +4518,7 @@
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
-      <c r="BA51" s="10"/>
+      <c r="BA51" s="1"/>
       <c r="BB51" s="10"/>
       <c r="BC51" s="10"/>
       <c r="BD51" s="10"/>
@@ -4462,10 +4534,11 @@
       <c r="BN51" s="10"/>
       <c r="BO51" s="10"/>
       <c r="BP51" s="10"/>
-      <c r="BQ51" s="1"/>
-      <c r="BR51" s="10"/>
-    </row>
-    <row r="52" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ51" s="10"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="10"/>
+    </row>
+    <row r="52" spans="1:71" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4477,8 +4550,8 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="13"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4518,7 +4591,7 @@
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
-      <c r="BA52" s="10"/>
+      <c r="BA52" s="1"/>
       <c r="BB52" s="10"/>
       <c r="BC52" s="10"/>
       <c r="BD52" s="10"/>
@@ -4534,10 +4607,11 @@
       <c r="BN52" s="10"/>
       <c r="BO52" s="10"/>
       <c r="BP52" s="10"/>
-      <c r="BQ52" s="1"/>
-      <c r="BR52" s="10"/>
-    </row>
-    <row r="53" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ52" s="10"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="10"/>
+    </row>
+    <row r="53" spans="1:71" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -4549,8 +4623,8 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="13"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4590,7 +4664,7 @@
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
-      <c r="BA53" s="10"/>
+      <c r="BA53" s="1"/>
       <c r="BB53" s="10"/>
       <c r="BC53" s="10"/>
       <c r="BD53" s="10"/>
@@ -4606,10 +4680,11 @@
       <c r="BN53" s="10"/>
       <c r="BO53" s="10"/>
       <c r="BP53" s="10"/>
-      <c r="BQ53" s="1"/>
-      <c r="BR53" s="10"/>
-    </row>
-    <row r="54" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ53" s="10"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="10"/>
+    </row>
+    <row r="54" spans="1:71" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -4621,8 +4696,8 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="13"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4662,7 +4737,7 @@
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
-      <c r="BA54" s="10"/>
+      <c r="BA54" s="1"/>
       <c r="BB54" s="10"/>
       <c r="BC54" s="10"/>
       <c r="BD54" s="10"/>
@@ -4678,10 +4753,11 @@
       <c r="BN54" s="10"/>
       <c r="BO54" s="10"/>
       <c r="BP54" s="10"/>
-      <c r="BQ54" s="1"/>
-      <c r="BR54" s="10"/>
-    </row>
-    <row r="55" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ54" s="10"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="10"/>
+    </row>
+    <row r="55" spans="1:71" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -4693,8 +4769,8 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="13"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4734,7 +4810,7 @@
       <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
-      <c r="BA55" s="10"/>
+      <c r="BA55" s="1"/>
       <c r="BB55" s="10"/>
       <c r="BC55" s="10"/>
       <c r="BD55" s="10"/>
@@ -4750,10 +4826,11 @@
       <c r="BN55" s="10"/>
       <c r="BO55" s="10"/>
       <c r="BP55" s="10"/>
-      <c r="BQ55" s="1"/>
-      <c r="BR55" s="10"/>
-    </row>
-    <row r="56" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ55" s="10"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="10"/>
+    </row>
+    <row r="56" spans="1:71" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -4765,8 +4842,8 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="13"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4806,7 +4883,7 @@
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
-      <c r="BA56" s="10"/>
+      <c r="BA56" s="1"/>
       <c r="BB56" s="10"/>
       <c r="BC56" s="10"/>
       <c r="BD56" s="10"/>
@@ -4822,10 +4899,11 @@
       <c r="BN56" s="10"/>
       <c r="BO56" s="10"/>
       <c r="BP56" s="10"/>
-      <c r="BQ56" s="1"/>
-      <c r="BR56" s="10"/>
-    </row>
-    <row r="57" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ56" s="10"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="10"/>
+    </row>
+    <row r="57" spans="1:71" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -4837,8 +4915,8 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="13"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4878,7 +4956,7 @@
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
-      <c r="BA57" s="10"/>
+      <c r="BA57" s="1"/>
       <c r="BB57" s="10"/>
       <c r="BC57" s="10"/>
       <c r="BD57" s="10"/>
@@ -4894,10 +4972,11 @@
       <c r="BN57" s="10"/>
       <c r="BO57" s="10"/>
       <c r="BP57" s="10"/>
-      <c r="BQ57" s="1"/>
-      <c r="BR57" s="10"/>
-    </row>
-    <row r="58" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ57" s="10"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="10"/>
+    </row>
+    <row r="58" spans="1:71" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -4909,8 +4988,8 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="13"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4950,7 +5029,7 @@
       <c r="AX58" s="1"/>
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
-      <c r="BA58" s="10"/>
+      <c r="BA58" s="1"/>
       <c r="BB58" s="10"/>
       <c r="BC58" s="10"/>
       <c r="BD58" s="10"/>
@@ -4966,10 +5045,11 @@
       <c r="BN58" s="10"/>
       <c r="BO58" s="10"/>
       <c r="BP58" s="10"/>
-      <c r="BQ58" s="1"/>
-      <c r="BR58" s="10"/>
-    </row>
-    <row r="59" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ58" s="10"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="10"/>
+    </row>
+    <row r="59" spans="1:71" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -4981,8 +5061,8 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="13"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -5022,7 +5102,7 @@
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
-      <c r="BA59" s="10"/>
+      <c r="BA59" s="1"/>
       <c r="BB59" s="10"/>
       <c r="BC59" s="10"/>
       <c r="BD59" s="10"/>
@@ -5038,10 +5118,11 @@
       <c r="BN59" s="10"/>
       <c r="BO59" s="10"/>
       <c r="BP59" s="10"/>
-      <c r="BQ59" s="1"/>
-      <c r="BR59" s="10"/>
-    </row>
-    <row r="60" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ59" s="10"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="10"/>
+    </row>
+    <row r="60" spans="1:71" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -5053,8 +5134,8 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="13"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -5094,7 +5175,7 @@
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
-      <c r="BA60" s="10"/>
+      <c r="BA60" s="1"/>
       <c r="BB60" s="10"/>
       <c r="BC60" s="10"/>
       <c r="BD60" s="10"/>
@@ -5110,10 +5191,11 @@
       <c r="BN60" s="10"/>
       <c r="BO60" s="10"/>
       <c r="BP60" s="10"/>
-      <c r="BQ60" s="1"/>
-      <c r="BR60" s="10"/>
-    </row>
-    <row r="61" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ60" s="10"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="10"/>
+    </row>
+    <row r="61" spans="1:71" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -5125,8 +5207,8 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="13"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -5166,7 +5248,7 @@
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
-      <c r="BA61" s="10"/>
+      <c r="BA61" s="1"/>
       <c r="BB61" s="10"/>
       <c r="BC61" s="10"/>
       <c r="BD61" s="10"/>
@@ -5182,10 +5264,11 @@
       <c r="BN61" s="10"/>
       <c r="BO61" s="10"/>
       <c r="BP61" s="10"/>
-      <c r="BQ61" s="1"/>
-      <c r="BR61" s="10"/>
-    </row>
-    <row r="62" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ61" s="10"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="10"/>
+    </row>
+    <row r="62" spans="1:71" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -5197,8 +5280,8 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="13"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -5238,7 +5321,7 @@
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
-      <c r="BA62" s="10"/>
+      <c r="BA62" s="1"/>
       <c r="BB62" s="10"/>
       <c r="BC62" s="10"/>
       <c r="BD62" s="10"/>
@@ -5254,10 +5337,11 @@
       <c r="BN62" s="10"/>
       <c r="BO62" s="10"/>
       <c r="BP62" s="10"/>
-      <c r="BQ62" s="1"/>
-      <c r="BR62" s="10"/>
-    </row>
-    <row r="63" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ62" s="10"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="10"/>
+    </row>
+    <row r="63" spans="1:71" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -5269,8 +5353,8 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="13"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -5310,7 +5394,7 @@
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
-      <c r="BA63" s="10"/>
+      <c r="BA63" s="1"/>
       <c r="BB63" s="10"/>
       <c r="BC63" s="10"/>
       <c r="BD63" s="10"/>
@@ -5326,10 +5410,11 @@
       <c r="BN63" s="10"/>
       <c r="BO63" s="10"/>
       <c r="BP63" s="10"/>
-      <c r="BQ63" s="1"/>
-      <c r="BR63" s="10"/>
-    </row>
-    <row r="64" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ63" s="10"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="10"/>
+    </row>
+    <row r="64" spans="1:71" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -5341,8 +5426,8 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="13"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -5382,7 +5467,7 @@
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
-      <c r="BA64" s="10"/>
+      <c r="BA64" s="1"/>
       <c r="BB64" s="10"/>
       <c r="BC64" s="10"/>
       <c r="BD64" s="10"/>
@@ -5398,10 +5483,11 @@
       <c r="BN64" s="10"/>
       <c r="BO64" s="10"/>
       <c r="BP64" s="10"/>
-      <c r="BQ64" s="1"/>
-      <c r="BR64" s="10"/>
-    </row>
-    <row r="65" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ64" s="10"/>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="10"/>
+    </row>
+    <row r="65" spans="1:71" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -5413,8 +5499,8 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="13"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -5454,7 +5540,7 @@
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
-      <c r="BA65" s="10"/>
+      <c r="BA65" s="1"/>
       <c r="BB65" s="10"/>
       <c r="BC65" s="10"/>
       <c r="BD65" s="10"/>
@@ -5470,10 +5556,11 @@
       <c r="BN65" s="10"/>
       <c r="BO65" s="10"/>
       <c r="BP65" s="10"/>
-      <c r="BQ65" s="1"/>
-      <c r="BR65" s="10"/>
-    </row>
-    <row r="66" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ65" s="10"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="10"/>
+    </row>
+    <row r="66" spans="1:71" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5485,8 +5572,8 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="13"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -5526,7 +5613,7 @@
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
-      <c r="BA66" s="10"/>
+      <c r="BA66" s="1"/>
       <c r="BB66" s="10"/>
       <c r="BC66" s="10"/>
       <c r="BD66" s="10"/>
@@ -5542,10 +5629,11 @@
       <c r="BN66" s="10"/>
       <c r="BO66" s="10"/>
       <c r="BP66" s="10"/>
-      <c r="BQ66" s="1"/>
-      <c r="BR66" s="10"/>
-    </row>
-    <row r="67" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ66" s="10"/>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="10"/>
+    </row>
+    <row r="67" spans="1:71" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -5557,8 +5645,8 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="13"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5598,7 +5686,7 @@
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
-      <c r="BA67" s="10"/>
+      <c r="BA67" s="1"/>
       <c r="BB67" s="10"/>
       <c r="BC67" s="10"/>
       <c r="BD67" s="10"/>
@@ -5614,10 +5702,11 @@
       <c r="BN67" s="10"/>
       <c r="BO67" s="10"/>
       <c r="BP67" s="10"/>
-      <c r="BQ67" s="1"/>
-      <c r="BR67" s="10"/>
-    </row>
-    <row r="68" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ67" s="10"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="10"/>
+    </row>
+    <row r="68" spans="1:71" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -5629,8 +5718,8 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="13"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5670,7 +5759,7 @@
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
-      <c r="BA68" s="10"/>
+      <c r="BA68" s="1"/>
       <c r="BB68" s="10"/>
       <c r="BC68" s="10"/>
       <c r="BD68" s="10"/>
@@ -5686,10 +5775,11 @@
       <c r="BN68" s="10"/>
       <c r="BO68" s="10"/>
       <c r="BP68" s="10"/>
-      <c r="BQ68" s="1"/>
-      <c r="BR68" s="10"/>
-    </row>
-    <row r="69" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ68" s="10"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="10"/>
+    </row>
+    <row r="69" spans="1:71" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -5701,8 +5791,8 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="13"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5742,7 +5832,7 @@
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
-      <c r="BA69" s="10"/>
+      <c r="BA69" s="1"/>
       <c r="BB69" s="10"/>
       <c r="BC69" s="10"/>
       <c r="BD69" s="10"/>
@@ -5758,10 +5848,11 @@
       <c r="BN69" s="10"/>
       <c r="BO69" s="10"/>
       <c r="BP69" s="10"/>
-      <c r="BQ69" s="1"/>
-      <c r="BR69" s="10"/>
-    </row>
-    <row r="70" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ69" s="10"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="10"/>
+    </row>
+    <row r="70" spans="1:71" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -5773,8 +5864,8 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="13"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5814,7 +5905,7 @@
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
-      <c r="BA70" s="10"/>
+      <c r="BA70" s="1"/>
       <c r="BB70" s="10"/>
       <c r="BC70" s="10"/>
       <c r="BD70" s="10"/>
@@ -5830,10 +5921,11 @@
       <c r="BN70" s="10"/>
       <c r="BO70" s="10"/>
       <c r="BP70" s="10"/>
-      <c r="BQ70" s="1"/>
-      <c r="BR70" s="10"/>
-    </row>
-    <row r="71" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ70" s="10"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="10"/>
+    </row>
+    <row r="71" spans="1:71" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -5845,8 +5937,8 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="13"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5886,7 +5978,7 @@
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
-      <c r="BA71" s="10"/>
+      <c r="BA71" s="1"/>
       <c r="BB71" s="10"/>
       <c r="BC71" s="10"/>
       <c r="BD71" s="10"/>
@@ -5902,10 +5994,11 @@
       <c r="BN71" s="10"/>
       <c r="BO71" s="10"/>
       <c r="BP71" s="10"/>
-      <c r="BQ71" s="1"/>
-      <c r="BR71" s="10"/>
-    </row>
-    <row r="72" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ71" s="10"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="10"/>
+    </row>
+    <row r="72" spans="1:71" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -5917,8 +6010,8 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="13"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5958,7 +6051,7 @@
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
-      <c r="BA72" s="10"/>
+      <c r="BA72" s="1"/>
       <c r="BB72" s="10"/>
       <c r="BC72" s="10"/>
       <c r="BD72" s="10"/>
@@ -5974,10 +6067,11 @@
       <c r="BN72" s="10"/>
       <c r="BO72" s="10"/>
       <c r="BP72" s="10"/>
-      <c r="BQ72" s="1"/>
-      <c r="BR72" s="10"/>
-    </row>
-    <row r="73" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ72" s="10"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="10"/>
+    </row>
+    <row r="73" spans="1:71" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -5989,8 +6083,8 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="13"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -6030,7 +6124,7 @@
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
-      <c r="BA73" s="10"/>
+      <c r="BA73" s="1"/>
       <c r="BB73" s="10"/>
       <c r="BC73" s="10"/>
       <c r="BD73" s="10"/>
@@ -6046,10 +6140,11 @@
       <c r="BN73" s="10"/>
       <c r="BO73" s="10"/>
       <c r="BP73" s="10"/>
-      <c r="BQ73" s="1"/>
-      <c r="BR73" s="10"/>
-    </row>
-    <row r="74" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ73" s="10"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="10"/>
+    </row>
+    <row r="74" spans="1:71" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -6061,8 +6156,8 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="13"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -6102,7 +6197,7 @@
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
-      <c r="BA74" s="10"/>
+      <c r="BA74" s="1"/>
       <c r="BB74" s="10"/>
       <c r="BC74" s="10"/>
       <c r="BD74" s="10"/>
@@ -6118,10 +6213,11 @@
       <c r="BN74" s="10"/>
       <c r="BO74" s="10"/>
       <c r="BP74" s="10"/>
-      <c r="BQ74" s="1"/>
-      <c r="BR74" s="10"/>
-    </row>
-    <row r="75" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ74" s="10"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="10"/>
+    </row>
+    <row r="75" spans="1:71" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -6133,8 +6229,8 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="13"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -6174,7 +6270,7 @@
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
-      <c r="BA75" s="10"/>
+      <c r="BA75" s="1"/>
       <c r="BB75" s="10"/>
       <c r="BC75" s="10"/>
       <c r="BD75" s="10"/>
@@ -6190,10 +6286,11 @@
       <c r="BN75" s="10"/>
       <c r="BO75" s="10"/>
       <c r="BP75" s="10"/>
-      <c r="BQ75" s="1"/>
-      <c r="BR75" s="10"/>
-    </row>
-    <row r="76" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ75" s="10"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="10"/>
+    </row>
+    <row r="76" spans="1:71" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -6205,8 +6302,8 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="13"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -6246,7 +6343,7 @@
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
-      <c r="BA76" s="10"/>
+      <c r="BA76" s="1"/>
       <c r="BB76" s="10"/>
       <c r="BC76" s="10"/>
       <c r="BD76" s="10"/>
@@ -6262,10 +6359,11 @@
       <c r="BN76" s="10"/>
       <c r="BO76" s="10"/>
       <c r="BP76" s="10"/>
-      <c r="BQ76" s="1"/>
-      <c r="BR76" s="10"/>
-    </row>
-    <row r="77" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ76" s="10"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="10"/>
+    </row>
+    <row r="77" spans="1:71" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -6277,8 +6375,8 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="13"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -6318,7 +6416,7 @@
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
-      <c r="BA77" s="10"/>
+      <c r="BA77" s="1"/>
       <c r="BB77" s="10"/>
       <c r="BC77" s="10"/>
       <c r="BD77" s="10"/>
@@ -6334,10 +6432,11 @@
       <c r="BN77" s="10"/>
       <c r="BO77" s="10"/>
       <c r="BP77" s="10"/>
-      <c r="BQ77" s="1"/>
-      <c r="BR77" s="10"/>
-    </row>
-    <row r="78" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ77" s="10"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="10"/>
+    </row>
+    <row r="78" spans="1:71" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -6349,8 +6448,8 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="13"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -6390,7 +6489,7 @@
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
-      <c r="BA78" s="10"/>
+      <c r="BA78" s="1"/>
       <c r="BB78" s="10"/>
       <c r="BC78" s="10"/>
       <c r="BD78" s="10"/>
@@ -6406,10 +6505,11 @@
       <c r="BN78" s="10"/>
       <c r="BO78" s="10"/>
       <c r="BP78" s="10"/>
-      <c r="BQ78" s="1"/>
-      <c r="BR78" s="10"/>
-    </row>
-    <row r="79" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ78" s="10"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="10"/>
+    </row>
+    <row r="79" spans="1:71" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -6421,8 +6521,8 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="13"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -6462,7 +6562,7 @@
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
-      <c r="BA79" s="10"/>
+      <c r="BA79" s="1"/>
       <c r="BB79" s="10"/>
       <c r="BC79" s="10"/>
       <c r="BD79" s="10"/>
@@ -6478,10 +6578,11 @@
       <c r="BN79" s="10"/>
       <c r="BO79" s="10"/>
       <c r="BP79" s="10"/>
-      <c r="BQ79" s="1"/>
-      <c r="BR79" s="10"/>
-    </row>
-    <row r="80" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ79" s="10"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="10"/>
+    </row>
+    <row r="80" spans="1:71" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -6493,8 +6594,8 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="13"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -6534,7 +6635,7 @@
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
-      <c r="BA80" s="10"/>
+      <c r="BA80" s="1"/>
       <c r="BB80" s="10"/>
       <c r="BC80" s="10"/>
       <c r="BD80" s="10"/>
@@ -6550,10 +6651,11 @@
       <c r="BN80" s="10"/>
       <c r="BO80" s="10"/>
       <c r="BP80" s="10"/>
-      <c r="BQ80" s="1"/>
-      <c r="BR80" s="10"/>
-    </row>
-    <row r="81" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ80" s="10"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="10"/>
+    </row>
+    <row r="81" spans="1:71" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -6565,8 +6667,8 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="13"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -6606,7 +6708,7 @@
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
-      <c r="BA81" s="10"/>
+      <c r="BA81" s="1"/>
       <c r="BB81" s="10"/>
       <c r="BC81" s="10"/>
       <c r="BD81" s="10"/>
@@ -6622,10 +6724,11 @@
       <c r="BN81" s="10"/>
       <c r="BO81" s="10"/>
       <c r="BP81" s="10"/>
-      <c r="BQ81" s="1"/>
-      <c r="BR81" s="10"/>
-    </row>
-    <row r="82" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ81" s="10"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="10"/>
+    </row>
+    <row r="82" spans="1:71" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -6637,8 +6740,8 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="13"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -6678,7 +6781,7 @@
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
-      <c r="BA82" s="10"/>
+      <c r="BA82" s="1"/>
       <c r="BB82" s="10"/>
       <c r="BC82" s="10"/>
       <c r="BD82" s="10"/>
@@ -6694,10 +6797,11 @@
       <c r="BN82" s="10"/>
       <c r="BO82" s="10"/>
       <c r="BP82" s="10"/>
-      <c r="BQ82" s="1"/>
-      <c r="BR82" s="10"/>
-    </row>
-    <row r="83" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ82" s="10"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="10"/>
+    </row>
+    <row r="83" spans="1:71" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -6709,8 +6813,8 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="13"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -6750,7 +6854,7 @@
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
-      <c r="BA83" s="10"/>
+      <c r="BA83" s="1"/>
       <c r="BB83" s="10"/>
       <c r="BC83" s="10"/>
       <c r="BD83" s="10"/>
@@ -6766,10 +6870,11 @@
       <c r="BN83" s="10"/>
       <c r="BO83" s="10"/>
       <c r="BP83" s="10"/>
-      <c r="BQ83" s="1"/>
-      <c r="BR83" s="10"/>
-    </row>
-    <row r="84" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ83" s="10"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="10"/>
+    </row>
+    <row r="84" spans="1:71" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -6781,8 +6886,8 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="13"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -6822,7 +6927,7 @@
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
-      <c r="BA84" s="10"/>
+      <c r="BA84" s="1"/>
       <c r="BB84" s="10"/>
       <c r="BC84" s="10"/>
       <c r="BD84" s="10"/>
@@ -6838,10 +6943,11 @@
       <c r="BN84" s="10"/>
       <c r="BO84" s="10"/>
       <c r="BP84" s="10"/>
-      <c r="BQ84" s="1"/>
-      <c r="BR84" s="10"/>
-    </row>
-    <row r="85" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ84" s="10"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="10"/>
+    </row>
+    <row r="85" spans="1:71" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -6853,8 +6959,8 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="13"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -6894,7 +7000,7 @@
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
-      <c r="BA85" s="10"/>
+      <c r="BA85" s="1"/>
       <c r="BB85" s="10"/>
       <c r="BC85" s="10"/>
       <c r="BD85" s="10"/>
@@ -6910,10 +7016,11 @@
       <c r="BN85" s="10"/>
       <c r="BO85" s="10"/>
       <c r="BP85" s="10"/>
-      <c r="BQ85" s="1"/>
-      <c r="BR85" s="10"/>
-    </row>
-    <row r="86" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ85" s="10"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="10"/>
+    </row>
+    <row r="86" spans="1:71" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -6925,8 +7032,8 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="13"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -6966,7 +7073,7 @@
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
-      <c r="BA86" s="10"/>
+      <c r="BA86" s="1"/>
       <c r="BB86" s="10"/>
       <c r="BC86" s="10"/>
       <c r="BD86" s="10"/>
@@ -6982,10 +7089,11 @@
       <c r="BN86" s="10"/>
       <c r="BO86" s="10"/>
       <c r="BP86" s="10"/>
-      <c r="BQ86" s="1"/>
-      <c r="BR86" s="10"/>
-    </row>
-    <row r="87" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ86" s="10"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="10"/>
+    </row>
+    <row r="87" spans="1:71" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -6997,8 +7105,8 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="13"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -7038,7 +7146,7 @@
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
-      <c r="BA87" s="10"/>
+      <c r="BA87" s="1"/>
       <c r="BB87" s="10"/>
       <c r="BC87" s="10"/>
       <c r="BD87" s="10"/>
@@ -7054,10 +7162,11 @@
       <c r="BN87" s="10"/>
       <c r="BO87" s="10"/>
       <c r="BP87" s="10"/>
-      <c r="BQ87" s="1"/>
-      <c r="BR87" s="10"/>
-    </row>
-    <row r="88" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ87" s="10"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="10"/>
+    </row>
+    <row r="88" spans="1:71" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -7069,8 +7178,8 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="13"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -7110,7 +7219,7 @@
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
-      <c r="BA88" s="10"/>
+      <c r="BA88" s="1"/>
       <c r="BB88" s="10"/>
       <c r="BC88" s="10"/>
       <c r="BD88" s="10"/>
@@ -7126,10 +7235,11 @@
       <c r="BN88" s="10"/>
       <c r="BO88" s="10"/>
       <c r="BP88" s="10"/>
-      <c r="BQ88" s="1"/>
-      <c r="BR88" s="10"/>
-    </row>
-    <row r="89" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ88" s="10"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="10"/>
+    </row>
+    <row r="89" spans="1:71" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -7141,8 +7251,8 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="13"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -7182,7 +7292,7 @@
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
-      <c r="BA89" s="10"/>
+      <c r="BA89" s="1"/>
       <c r="BB89" s="10"/>
       <c r="BC89" s="10"/>
       <c r="BD89" s="10"/>
@@ -7198,10 +7308,11 @@
       <c r="BN89" s="10"/>
       <c r="BO89" s="10"/>
       <c r="BP89" s="10"/>
-      <c r="BQ89" s="1"/>
-      <c r="BR89" s="10"/>
-    </row>
-    <row r="90" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ89" s="10"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="10"/>
+    </row>
+    <row r="90" spans="1:71" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -7213,8 +7324,8 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="13"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -7254,7 +7365,7 @@
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
-      <c r="BA90" s="10"/>
+      <c r="BA90" s="1"/>
       <c r="BB90" s="10"/>
       <c r="BC90" s="10"/>
       <c r="BD90" s="10"/>
@@ -7270,10 +7381,11 @@
       <c r="BN90" s="10"/>
       <c r="BO90" s="10"/>
       <c r="BP90" s="10"/>
-      <c r="BQ90" s="1"/>
-      <c r="BR90" s="10"/>
-    </row>
-    <row r="91" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ90" s="10"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="10"/>
+    </row>
+    <row r="91" spans="1:71" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -7285,8 +7397,8 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="13"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -7326,7 +7438,7 @@
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
-      <c r="BA91" s="10"/>
+      <c r="BA91" s="1"/>
       <c r="BB91" s="10"/>
       <c r="BC91" s="10"/>
       <c r="BD91" s="10"/>
@@ -7342,10 +7454,11 @@
       <c r="BN91" s="10"/>
       <c r="BO91" s="10"/>
       <c r="BP91" s="10"/>
-      <c r="BQ91" s="1"/>
-      <c r="BR91" s="10"/>
-    </row>
-    <row r="92" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ91" s="10"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="10"/>
+    </row>
+    <row r="92" spans="1:71" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -7357,8 +7470,8 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="13"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -7398,7 +7511,7 @@
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
-      <c r="BA92" s="10"/>
+      <c r="BA92" s="1"/>
       <c r="BB92" s="10"/>
       <c r="BC92" s="10"/>
       <c r="BD92" s="10"/>
@@ -7414,10 +7527,11 @@
       <c r="BN92" s="10"/>
       <c r="BO92" s="10"/>
       <c r="BP92" s="10"/>
-      <c r="BQ92" s="1"/>
-      <c r="BR92" s="10"/>
-    </row>
-    <row r="93" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ92" s="10"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="10"/>
+    </row>
+    <row r="93" spans="1:71" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -7429,8 +7543,8 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="13"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -7470,7 +7584,7 @@
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
-      <c r="BA93" s="10"/>
+      <c r="BA93" s="1"/>
       <c r="BB93" s="10"/>
       <c r="BC93" s="10"/>
       <c r="BD93" s="10"/>
@@ -7486,10 +7600,11 @@
       <c r="BN93" s="10"/>
       <c r="BO93" s="10"/>
       <c r="BP93" s="10"/>
-      <c r="BQ93" s="1"/>
-      <c r="BR93" s="10"/>
-    </row>
-    <row r="94" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ93" s="10"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="10"/>
+    </row>
+    <row r="94" spans="1:71" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -7501,8 +7616,8 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="13"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -7542,7 +7657,7 @@
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
-      <c r="BA94" s="10"/>
+      <c r="BA94" s="1"/>
       <c r="BB94" s="10"/>
       <c r="BC94" s="10"/>
       <c r="BD94" s="10"/>
@@ -7558,10 +7673,11 @@
       <c r="BN94" s="10"/>
       <c r="BO94" s="10"/>
       <c r="BP94" s="10"/>
-      <c r="BQ94" s="1"/>
-      <c r="BR94" s="10"/>
-    </row>
-    <row r="95" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ94" s="10"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="10"/>
+    </row>
+    <row r="95" spans="1:71" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -7573,8 +7689,8 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="13"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7614,7 +7730,7 @@
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
-      <c r="BA95" s="10"/>
+      <c r="BA95" s="1"/>
       <c r="BB95" s="10"/>
       <c r="BC95" s="10"/>
       <c r="BD95" s="10"/>
@@ -7630,10 +7746,11 @@
       <c r="BN95" s="10"/>
       <c r="BO95" s="10"/>
       <c r="BP95" s="10"/>
-      <c r="BQ95" s="1"/>
-      <c r="BR95" s="10"/>
-    </row>
-    <row r="96" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ95" s="10"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="10"/>
+    </row>
+    <row r="96" spans="1:71" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -7645,8 +7762,8 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="13"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7686,7 +7803,7 @@
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
-      <c r="BA96" s="10"/>
+      <c r="BA96" s="1"/>
       <c r="BB96" s="10"/>
       <c r="BC96" s="10"/>
       <c r="BD96" s="10"/>
@@ -7702,10 +7819,11 @@
       <c r="BN96" s="10"/>
       <c r="BO96" s="10"/>
       <c r="BP96" s="10"/>
-      <c r="BQ96" s="1"/>
-      <c r="BR96" s="10"/>
-    </row>
-    <row r="97" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ96" s="10"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="10"/>
+    </row>
+    <row r="97" spans="1:71" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -7717,8 +7835,8 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="13"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7758,7 +7876,7 @@
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
       <c r="AZ97" s="1"/>
-      <c r="BA97" s="10"/>
+      <c r="BA97" s="1"/>
       <c r="BB97" s="10"/>
       <c r="BC97" s="10"/>
       <c r="BD97" s="10"/>
@@ -7774,10 +7892,11 @@
       <c r="BN97" s="10"/>
       <c r="BO97" s="10"/>
       <c r="BP97" s="10"/>
-      <c r="BQ97" s="1"/>
-      <c r="BR97" s="10"/>
-    </row>
-    <row r="98" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ97" s="10"/>
+      <c r="BR97" s="1"/>
+      <c r="BS97" s="10"/>
+    </row>
+    <row r="98" spans="1:71" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -7789,8 +7908,8 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="13"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7830,7 +7949,7 @@
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
       <c r="AZ98" s="1"/>
-      <c r="BA98" s="10"/>
+      <c r="BA98" s="1"/>
       <c r="BB98" s="10"/>
       <c r="BC98" s="10"/>
       <c r="BD98" s="10"/>
@@ -7846,10 +7965,11 @@
       <c r="BN98" s="10"/>
       <c r="BO98" s="10"/>
       <c r="BP98" s="10"/>
-      <c r="BQ98" s="1"/>
-      <c r="BR98" s="10"/>
-    </row>
-    <row r="99" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ98" s="10"/>
+      <c r="BR98" s="1"/>
+      <c r="BS98" s="10"/>
+    </row>
+    <row r="99" spans="1:71" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -7861,8 +7981,8 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="13"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7902,7 +8022,7 @@
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
-      <c r="BA99" s="10"/>
+      <c r="BA99" s="1"/>
       <c r="BB99" s="10"/>
       <c r="BC99" s="10"/>
       <c r="BD99" s="10"/>
@@ -7918,10 +8038,11 @@
       <c r="BN99" s="10"/>
       <c r="BO99" s="10"/>
       <c r="BP99" s="10"/>
-      <c r="BQ99" s="1"/>
-      <c r="BR99" s="10"/>
-    </row>
-    <row r="100" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ99" s="10"/>
+      <c r="BR99" s="1"/>
+      <c r="BS99" s="10"/>
+    </row>
+    <row r="100" spans="1:71" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -7933,8 +8054,8 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="13"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7974,7 +8095,7 @@
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
-      <c r="BA100" s="10"/>
+      <c r="BA100" s="1"/>
       <c r="BB100" s="10"/>
       <c r="BC100" s="10"/>
       <c r="BD100" s="10"/>
@@ -7990,10 +8111,11 @@
       <c r="BN100" s="10"/>
       <c r="BO100" s="10"/>
       <c r="BP100" s="10"/>
-      <c r="BQ100" s="1"/>
-      <c r="BR100" s="10"/>
-    </row>
-    <row r="101" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ100" s="10"/>
+      <c r="BR100" s="1"/>
+      <c r="BS100" s="10"/>
+    </row>
+    <row r="101" spans="1:71" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -8005,8 +8127,8 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="13"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -8046,7 +8168,7 @@
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
-      <c r="BA101" s="10"/>
+      <c r="BA101" s="1"/>
       <c r="BB101" s="10"/>
       <c r="BC101" s="10"/>
       <c r="BD101" s="10"/>
@@ -8062,10 +8184,11 @@
       <c r="BN101" s="10"/>
       <c r="BO101" s="10"/>
       <c r="BP101" s="10"/>
-      <c r="BQ101" s="1"/>
-      <c r="BR101" s="10"/>
-    </row>
-    <row r="102" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ101" s="10"/>
+      <c r="BR101" s="1"/>
+      <c r="BS101" s="10"/>
+    </row>
+    <row r="102" spans="1:71" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -8077,8 +8200,8 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="13"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -8118,7 +8241,7 @@
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
-      <c r="BA102" s="10"/>
+      <c r="BA102" s="1"/>
       <c r="BB102" s="10"/>
       <c r="BC102" s="10"/>
       <c r="BD102" s="10"/>
@@ -8134,37 +8257,38 @@
       <c r="BN102" s="10"/>
       <c r="BO102" s="10"/>
       <c r="BP102" s="10"/>
-      <c r="BQ102" s="1"/>
-      <c r="BR102" s="10"/>
-    </row>
-    <row r="103" spans="1:70" ht="12.75" customHeight="1">
+      <c r="BQ102" s="10"/>
+      <c r="BR102" s="1"/>
+      <c r="BS102" s="10"/>
+    </row>
+    <row r="103" spans="1:71" ht="12.75" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:70" ht="12.75" customHeight="1">
+    <row r="104" spans="1:71" ht="12.75" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:70" ht="12.75" customHeight="1">
+    <row r="105" spans="1:71" ht="12.75" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:70" ht="12.75" customHeight="1">
+    <row r="106" spans="1:71" ht="12.75" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:70" ht="12.75" customHeight="1">
+    <row r="107" spans="1:71" ht="12.75" customHeight="1">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:70" ht="12.75" customHeight="1">
+    <row r="108" spans="1:71" ht="12.75" customHeight="1">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:70" ht="12.75" customHeight="1">
+    <row r="109" spans="1:71" ht="12.75" customHeight="1">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:70" ht="12.75" customHeight="1">
+    <row r="110" spans="1:71" ht="12.75" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:70" ht="12.75" customHeight="1">
+    <row r="111" spans="1:71" ht="12.75" customHeight="1">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:70" ht="12.75" customHeight="1">
+    <row r="112" spans="1:71" ht="12.75" customHeight="1">
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">

--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0691D66-D12C-4794-9C79-F9BD40BAF7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE8E114-42F1-480F-A9AC-38F96672E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>damage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>섭보스</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +585,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -591,7 +595,7 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
@@ -830,7 +834,7 @@
     </row>
     <row r="3" spans="1:71" ht="16.5">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -1472,16 +1476,35 @@
       <c r="BR9" s="1"/>
       <c r="BS9" s="10"/>
     </row>
-    <row r="10" spans="1:71" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+    <row r="10" spans="1:71" ht="16.5">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>13000008</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>

--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE8E114-42F1-480F-A9AC-38F96672E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E3762-C7DB-4BAB-B4A7-9995DFE2F9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="4635" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
@@ -936,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>0.7</v>
@@ -1028,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>0.7</v>
@@ -1120,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
         <v>0.7</v>
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
@@ -1304,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
         <v>0.9</v>

--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E3762-C7DB-4BAB-B4A7-9995DFE2F9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE0376-FAE2-4F7A-AEF7-9F9F3B5F827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6210" yWindow="4635" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>섭보스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object/Monster/EnemyC.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object/Monster/EnemyD.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object/Monster/EnemyE.prefab</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +597,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1043,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1135,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1227,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE0376-FAE2-4F7A-AEF7-9F9F3B5F827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D91EA8-276E-45B7-8BA1-7110C7481B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="4635" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="4425" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,134 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>박훈</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{033E505F-A046-400D-A041-ED1135113EBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>박훈</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몹</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BC1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -206,6 +330,10 @@
     <t>Object/Monster/EnemyE.prefab</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>monster_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,6 +424,34 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -591,78 +747,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS1000"/>
+  <dimension ref="A1:BT1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="92.140625" style="14" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="17" width="21.42578125" customWidth="1"/>
-    <col min="18" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="21.42578125" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" customWidth="1"/>
-    <col min="33" max="33" width="20.5703125" customWidth="1"/>
-    <col min="34" max="34" width="21.42578125" customWidth="1"/>
-    <col min="35" max="35" width="20.5703125" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" customWidth="1"/>
-    <col min="37" max="37" width="20.5703125" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" customWidth="1"/>
-    <col min="39" max="39" width="20.5703125" customWidth="1"/>
-    <col min="40" max="40" width="21.42578125" customWidth="1"/>
-    <col min="41" max="41" width="20.5703125" customWidth="1"/>
-    <col min="42" max="42" width="21.42578125" customWidth="1"/>
-    <col min="43" max="43" width="19.7109375" customWidth="1"/>
-    <col min="44" max="44" width="20.42578125" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" customWidth="1"/>
-    <col min="46" max="46" width="20.42578125" customWidth="1"/>
-    <col min="47" max="47" width="19.7109375" customWidth="1"/>
-    <col min="48" max="48" width="20.42578125" customWidth="1"/>
-    <col min="49" max="49" width="19.7109375" customWidth="1"/>
-    <col min="50" max="50" width="20.42578125" customWidth="1"/>
-    <col min="51" max="51" width="19.7109375" customWidth="1"/>
-    <col min="52" max="53" width="20.42578125" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" customWidth="1"/>
-    <col min="56" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="12.5703125" customWidth="1"/>
-    <col min="58" max="58" width="13" customWidth="1"/>
-    <col min="59" max="59" width="12.5703125" customWidth="1"/>
-    <col min="60" max="60" width="13" customWidth="1"/>
-    <col min="61" max="61" width="12.5703125" customWidth="1"/>
-    <col min="62" max="62" width="17.42578125" customWidth="1"/>
-    <col min="63" max="63" width="18.140625" customWidth="1"/>
-    <col min="64" max="64" width="17.42578125" customWidth="1"/>
-    <col min="65" max="65" width="18.140625" customWidth="1"/>
-    <col min="66" max="66" width="17.42578125" customWidth="1"/>
-    <col min="67" max="67" width="18.140625" customWidth="1"/>
-    <col min="68" max="68" width="17.42578125" customWidth="1"/>
-    <col min="69" max="69" width="18.140625" customWidth="1"/>
-    <col min="70" max="70" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.85546875" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="92.140625" style="14" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="18" width="21.42578125" customWidth="1"/>
+    <col min="19" max="21" width="8.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="21.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" customWidth="1"/>
+    <col min="34" max="34" width="20.5703125" customWidth="1"/>
+    <col min="35" max="35" width="21.42578125" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" customWidth="1"/>
+    <col min="37" max="37" width="21.42578125" customWidth="1"/>
+    <col min="38" max="38" width="20.5703125" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" customWidth="1"/>
+    <col min="40" max="40" width="20.5703125" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" customWidth="1"/>
+    <col min="42" max="42" width="20.5703125" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" customWidth="1"/>
+    <col min="44" max="44" width="19.7109375" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" customWidth="1"/>
+    <col min="47" max="47" width="20.42578125" customWidth="1"/>
+    <col min="48" max="48" width="19.7109375" customWidth="1"/>
+    <col min="49" max="49" width="20.42578125" customWidth="1"/>
+    <col min="50" max="50" width="19.7109375" customWidth="1"/>
+    <col min="51" max="51" width="20.42578125" customWidth="1"/>
+    <col min="52" max="52" width="19.7109375" customWidth="1"/>
+    <col min="53" max="54" width="20.42578125" customWidth="1"/>
+    <col min="55" max="55" width="13" customWidth="1"/>
+    <col min="56" max="56" width="12.5703125" customWidth="1"/>
+    <col min="57" max="57" width="13" customWidth="1"/>
+    <col min="58" max="58" width="12.5703125" customWidth="1"/>
+    <col min="59" max="59" width="13" customWidth="1"/>
+    <col min="60" max="60" width="12.5703125" customWidth="1"/>
+    <col min="61" max="61" width="13" customWidth="1"/>
+    <col min="62" max="62" width="12.5703125" customWidth="1"/>
+    <col min="63" max="63" width="17.42578125" customWidth="1"/>
+    <col min="64" max="64" width="18.140625" customWidth="1"/>
+    <col min="65" max="65" width="17.42578125" customWidth="1"/>
+    <col min="66" max="66" width="18.140625" customWidth="1"/>
+    <col min="67" max="67" width="17.42578125" customWidth="1"/>
+    <col min="68" max="68" width="18.140625" customWidth="1"/>
+    <col min="69" max="69" width="17.42578125" customWidth="1"/>
+    <col min="70" max="70" width="18.140625" customWidth="1"/>
+    <col min="71" max="71" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="12.75" customHeight="1">
+    <row r="1" spans="1:72" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,24 +829,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -712,7 +870,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="3"/>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -734,7 +892,7 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
-      <c r="BB1" s="4"/>
+      <c r="BB1" s="3"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
@@ -750,10 +908,11 @@
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="4"/>
-    </row>
-    <row r="2" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="4"/>
+    </row>
+    <row r="2" spans="1:72" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,21 +926,23 @@
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -825,7 +986,7 @@
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
       <c r="BA2" s="6"/>
-      <c r="BB2" s="7"/>
+      <c r="BB2" s="6"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
       <c r="BE2" s="7"/>
@@ -841,10 +1002,11 @@
       <c r="BO2" s="7"/>
       <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="7"/>
-    </row>
-    <row r="3" spans="1:71" ht="16.5">
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="7"/>
+    </row>
+    <row r="3" spans="1:72" ht="16.5">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
         <v>1</v>
@@ -855,29 +1017,31 @@
       <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
       <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -917,7 +1081,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
-      <c r="BB3" s="10"/>
+      <c r="BB3" s="1"/>
       <c r="BC3" s="10"/>
       <c r="BD3" s="10"/>
       <c r="BE3" s="10"/>
@@ -933,10 +1097,11 @@
       <c r="BO3" s="10"/>
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="10"/>
-    </row>
-    <row r="4" spans="1:71" ht="16.5">
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="10"/>
+    </row>
+    <row r="4" spans="1:72" ht="16.5">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -947,29 +1112,31 @@
       <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.7</v>
-      </c>
       <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1009,7 +1176,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="10"/>
+      <c r="BB4" s="1"/>
       <c r="BC4" s="10"/>
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
@@ -1025,10 +1192,11 @@
       <c r="BO4" s="10"/>
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="10"/>
-    </row>
-    <row r="5" spans="1:71" ht="16.5">
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="10"/>
+    </row>
+    <row r="5" spans="1:72" ht="16.5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1039,29 +1207,31 @@
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>50</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.7</v>
-      </c>
       <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1101,7 +1271,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="10"/>
+      <c r="BB5" s="1"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
       <c r="BE5" s="10"/>
@@ -1117,10 +1287,11 @@
       <c r="BO5" s="10"/>
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="10"/>
-    </row>
-    <row r="6" spans="1:71" ht="16.5">
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="10"/>
+    </row>
+    <row r="6" spans="1:72" ht="16.5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1131,29 +1302,31 @@
       <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>70</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.7</v>
-      </c>
       <c r="F6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1193,7 +1366,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
-      <c r="BB6" s="10"/>
+      <c r="BB6" s="1"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
@@ -1209,10 +1382,11 @@
       <c r="BO6" s="10"/>
       <c r="BP6" s="10"/>
       <c r="BQ6" s="10"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="10"/>
-    </row>
-    <row r="7" spans="1:71" ht="16.5">
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="10"/>
+    </row>
+    <row r="7" spans="1:72" ht="16.5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1223,29 +1397,31 @@
       <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.8</v>
-      </c>
       <c r="F7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1285,7 +1461,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
-      <c r="BB7" s="10"/>
+      <c r="BB7" s="1"/>
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
       <c r="BE7" s="10"/>
@@ -1301,10 +1477,11 @@
       <c r="BO7" s="10"/>
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
-      <c r="BR7" s="1"/>
-      <c r="BS7" s="10"/>
-    </row>
-    <row r="8" spans="1:71" ht="16.5">
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="10"/>
+    </row>
+    <row r="8" spans="1:72" ht="16.5">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1315,29 +1492,31 @@
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>130</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.9</v>
-      </c>
       <c r="F8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1377,7 +1556,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
-      <c r="BB8" s="10"/>
+      <c r="BB8" s="1"/>
       <c r="BC8" s="10"/>
       <c r="BD8" s="10"/>
       <c r="BE8" s="10"/>
@@ -1393,10 +1572,11 @@
       <c r="BO8" s="10"/>
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="10"/>
-    </row>
-    <row r="9" spans="1:71" ht="16.5">
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="10"/>
+    </row>
+    <row r="9" spans="1:72" ht="16.5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,29 +1587,31 @@
       <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>150</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.9</v>
-      </c>
       <c r="F9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1469,7 +1651,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
-      <c r="BB9" s="10"/>
+      <c r="BB9" s="1"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
@@ -1485,10 +1667,11 @@
       <c r="BO9" s="10"/>
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="10"/>
-    </row>
-    <row r="10" spans="1:71" ht="16.5">
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="10"/>
+    </row>
+    <row r="10" spans="1:72" ht="16.5">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1499,29 +1682,31 @@
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>500</v>
       </c>
-      <c r="E10" s="1">
-        <v>1.2</v>
-      </c>
       <c r="F10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1561,7 +1746,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
-      <c r="BB10" s="10"/>
+      <c r="BB10" s="1"/>
       <c r="BC10" s="10"/>
       <c r="BD10" s="10"/>
       <c r="BE10" s="10"/>
@@ -1577,14 +1762,15 @@
       <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="10"/>
-    </row>
-    <row r="11" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR10" s="10"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="10"/>
+    </row>
+    <row r="11" spans="1:72" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1593,8 +1779,8 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1634,7 +1820,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
-      <c r="BB11" s="10"/>
+      <c r="BB11" s="1"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
@@ -1650,14 +1836,15 @@
       <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="10"/>
-    </row>
-    <row r="12" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="10"/>
+    </row>
+    <row r="12" spans="1:72" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1666,8 +1853,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1707,7 +1894,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
-      <c r="BB12" s="10"/>
+      <c r="BB12" s="1"/>
       <c r="BC12" s="10"/>
       <c r="BD12" s="10"/>
       <c r="BE12" s="10"/>
@@ -1723,14 +1910,15 @@
       <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="10"/>
-    </row>
-    <row r="13" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="10"/>
+    </row>
+    <row r="13" spans="1:72" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1739,8 +1927,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1780,7 +1968,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
-      <c r="BB13" s="10"/>
+      <c r="BB13" s="1"/>
       <c r="BC13" s="10"/>
       <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
@@ -1796,14 +1984,15 @@
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="10"/>
-    </row>
-    <row r="14" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="10"/>
+    </row>
+    <row r="14" spans="1:72" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1812,8 +2001,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1853,7 +2042,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
-      <c r="BB14" s="10"/>
+      <c r="BB14" s="1"/>
       <c r="BC14" s="10"/>
       <c r="BD14" s="10"/>
       <c r="BE14" s="10"/>
@@ -1869,14 +2058,15 @@
       <c r="BO14" s="10"/>
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="10"/>
-    </row>
-    <row r="15" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="10"/>
+    </row>
+    <row r="15" spans="1:72" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1885,8 +2075,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1926,7 +2116,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
-      <c r="BB15" s="10"/>
+      <c r="BB15" s="1"/>
       <c r="BC15" s="10"/>
       <c r="BD15" s="10"/>
       <c r="BE15" s="10"/>
@@ -1942,14 +2132,15 @@
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="10"/>
-    </row>
-    <row r="16" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="10"/>
+    </row>
+    <row r="16" spans="1:72" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1958,8 +2149,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1999,7 +2190,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
-      <c r="BB16" s="10"/>
+      <c r="BB16" s="1"/>
       <c r="BC16" s="10"/>
       <c r="BD16" s="10"/>
       <c r="BE16" s="10"/>
@@ -2015,14 +2206,15 @@
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="10"/>
-    </row>
-    <row r="17" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="10"/>
+    </row>
+    <row r="17" spans="1:72" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2031,8 +2223,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2072,7 +2264,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
-      <c r="BB17" s="10"/>
+      <c r="BB17" s="1"/>
       <c r="BC17" s="10"/>
       <c r="BD17" s="10"/>
       <c r="BE17" s="10"/>
@@ -2088,14 +2280,15 @@
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
       <c r="BQ17" s="10"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="10"/>
-    </row>
-    <row r="18" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="10"/>
+    </row>
+    <row r="18" spans="1:72" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2104,8 +2297,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2145,7 +2338,7 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
-      <c r="BB18" s="10"/>
+      <c r="BB18" s="1"/>
       <c r="BC18" s="10"/>
       <c r="BD18" s="10"/>
       <c r="BE18" s="10"/>
@@ -2161,14 +2354,15 @@
       <c r="BO18" s="10"/>
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
-      <c r="BR18" s="1"/>
-      <c r="BS18" s="10"/>
-    </row>
-    <row r="19" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="10"/>
+    </row>
+    <row r="19" spans="1:72" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2177,8 +2371,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2218,7 +2412,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="10"/>
+      <c r="BB19" s="1"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
       <c r="BE19" s="10"/>
@@ -2234,14 +2428,15 @@
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="10"/>
-    </row>
-    <row r="20" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="10"/>
+    </row>
+    <row r="20" spans="1:72" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2250,8 +2445,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2291,7 +2486,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
-      <c r="BB20" s="10"/>
+      <c r="BB20" s="1"/>
       <c r="BC20" s="10"/>
       <c r="BD20" s="10"/>
       <c r="BE20" s="10"/>
@@ -2307,14 +2502,15 @@
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="10"/>
-    </row>
-    <row r="21" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR20" s="10"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="10"/>
+    </row>
+    <row r="21" spans="1:72" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2323,8 +2519,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2364,7 +2560,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
-      <c r="BB21" s="10"/>
+      <c r="BB21" s="1"/>
       <c r="BC21" s="10"/>
       <c r="BD21" s="10"/>
       <c r="BE21" s="10"/>
@@ -2380,14 +2576,15 @@
       <c r="BO21" s="10"/>
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
-      <c r="BR21" s="1"/>
-      <c r="BS21" s="10"/>
-    </row>
-    <row r="22" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR21" s="10"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="10"/>
+    </row>
+    <row r="22" spans="1:72" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2396,8 +2593,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2437,7 +2634,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
-      <c r="BB22" s="10"/>
+      <c r="BB22" s="1"/>
       <c r="BC22" s="10"/>
       <c r="BD22" s="10"/>
       <c r="BE22" s="10"/>
@@ -2453,14 +2650,15 @@
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="10"/>
-    </row>
-    <row r="23" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="10"/>
+    </row>
+    <row r="23" spans="1:72" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2469,8 +2667,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2510,7 +2708,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
-      <c r="BB23" s="10"/>
+      <c r="BB23" s="1"/>
       <c r="BC23" s="10"/>
       <c r="BD23" s="10"/>
       <c r="BE23" s="10"/>
@@ -2526,14 +2724,15 @@
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="10"/>
-    </row>
-    <row r="24" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="10"/>
+    </row>
+    <row r="24" spans="1:72" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2542,8 +2741,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2583,7 +2782,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
-      <c r="BB24" s="10"/>
+      <c r="BB24" s="1"/>
       <c r="BC24" s="10"/>
       <c r="BD24" s="10"/>
       <c r="BE24" s="10"/>
@@ -2599,14 +2798,15 @@
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="10"/>
-    </row>
-    <row r="25" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="10"/>
+    </row>
+    <row r="25" spans="1:72" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2615,8 +2815,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2656,7 +2856,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
-      <c r="BB25" s="10"/>
+      <c r="BB25" s="1"/>
       <c r="BC25" s="10"/>
       <c r="BD25" s="10"/>
       <c r="BE25" s="10"/>
@@ -2672,14 +2872,15 @@
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="10"/>
-    </row>
-    <row r="26" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="10"/>
+    </row>
+    <row r="26" spans="1:72" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2688,8 +2889,8 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="13"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2729,7 +2930,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="10"/>
+      <c r="BB26" s="1"/>
       <c r="BC26" s="10"/>
       <c r="BD26" s="10"/>
       <c r="BE26" s="10"/>
@@ -2745,14 +2946,15 @@
       <c r="BO26" s="10"/>
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
-      <c r="BR26" s="1"/>
-      <c r="BS26" s="10"/>
-    </row>
-    <row r="27" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="10"/>
+    </row>
+    <row r="27" spans="1:72" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2761,8 +2963,8 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="13"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2802,7 +3004,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
-      <c r="BB27" s="10"/>
+      <c r="BB27" s="1"/>
       <c r="BC27" s="10"/>
       <c r="BD27" s="10"/>
       <c r="BE27" s="10"/>
@@ -2818,14 +3020,15 @@
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="10"/>
-    </row>
-    <row r="28" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="10"/>
+    </row>
+    <row r="28" spans="1:72" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2834,8 +3037,8 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2875,7 +3078,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
-      <c r="BB28" s="10"/>
+      <c r="BB28" s="1"/>
       <c r="BC28" s="10"/>
       <c r="BD28" s="10"/>
       <c r="BE28" s="10"/>
@@ -2891,14 +3094,15 @@
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
-      <c r="BR28" s="1"/>
-      <c r="BS28" s="10"/>
-    </row>
-    <row r="29" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR28" s="10"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="10"/>
+    </row>
+    <row r="29" spans="1:72" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2907,8 +3111,8 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2948,7 +3152,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
-      <c r="BB29" s="10"/>
+      <c r="BB29" s="1"/>
       <c r="BC29" s="10"/>
       <c r="BD29" s="10"/>
       <c r="BE29" s="10"/>
@@ -2964,14 +3168,15 @@
       <c r="BO29" s="10"/>
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
-      <c r="BR29" s="1"/>
-      <c r="BS29" s="10"/>
-    </row>
-    <row r="30" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR29" s="10"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="10"/>
+    </row>
+    <row r="30" spans="1:72" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2980,8 +3185,8 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3021,7 +3226,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
-      <c r="BB30" s="10"/>
+      <c r="BB30" s="1"/>
       <c r="BC30" s="10"/>
       <c r="BD30" s="10"/>
       <c r="BE30" s="10"/>
@@ -3037,14 +3242,15 @@
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="10"/>
-    </row>
-    <row r="31" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR30" s="10"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="10"/>
+    </row>
+    <row r="31" spans="1:72" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3053,8 +3259,8 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3094,7 +3300,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
-      <c r="BB31" s="10"/>
+      <c r="BB31" s="1"/>
       <c r="BC31" s="10"/>
       <c r="BD31" s="10"/>
       <c r="BE31" s="10"/>
@@ -3110,14 +3316,15 @@
       <c r="BO31" s="10"/>
       <c r="BP31" s="10"/>
       <c r="BQ31" s="10"/>
-      <c r="BR31" s="1"/>
-      <c r="BS31" s="10"/>
-    </row>
-    <row r="32" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR31" s="10"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="10"/>
+    </row>
+    <row r="32" spans="1:72" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3126,8 +3333,8 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3167,7 +3374,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
-      <c r="BB32" s="10"/>
+      <c r="BB32" s="1"/>
       <c r="BC32" s="10"/>
       <c r="BD32" s="10"/>
       <c r="BE32" s="10"/>
@@ -3183,14 +3390,15 @@
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
-      <c r="BR32" s="1"/>
-      <c r="BS32" s="10"/>
-    </row>
-    <row r="33" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR32" s="10"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="10"/>
+    </row>
+    <row r="33" spans="1:72" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3199,8 +3407,8 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3240,7 +3448,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
-      <c r="BB33" s="10"/>
+      <c r="BB33" s="1"/>
       <c r="BC33" s="10"/>
       <c r="BD33" s="10"/>
       <c r="BE33" s="10"/>
@@ -3256,14 +3464,15 @@
       <c r="BO33" s="10"/>
       <c r="BP33" s="10"/>
       <c r="BQ33" s="10"/>
-      <c r="BR33" s="1"/>
-      <c r="BS33" s="10"/>
-    </row>
-    <row r="34" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="10"/>
+    </row>
+    <row r="34" spans="1:72" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3272,8 +3481,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="13"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3313,7 +3522,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
-      <c r="BB34" s="10"/>
+      <c r="BB34" s="1"/>
       <c r="BC34" s="10"/>
       <c r="BD34" s="10"/>
       <c r="BE34" s="10"/>
@@ -3329,14 +3538,15 @@
       <c r="BO34" s="10"/>
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
-      <c r="BR34" s="1"/>
-      <c r="BS34" s="10"/>
-    </row>
-    <row r="35" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="10"/>
+    </row>
+    <row r="35" spans="1:72" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3345,8 +3555,8 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="13"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3386,7 +3596,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
-      <c r="BB35" s="10"/>
+      <c r="BB35" s="1"/>
       <c r="BC35" s="10"/>
       <c r="BD35" s="10"/>
       <c r="BE35" s="10"/>
@@ -3402,14 +3612,15 @@
       <c r="BO35" s="10"/>
       <c r="BP35" s="10"/>
       <c r="BQ35" s="10"/>
-      <c r="BR35" s="1"/>
-      <c r="BS35" s="10"/>
-    </row>
-    <row r="36" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR35" s="10"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="10"/>
+    </row>
+    <row r="36" spans="1:72" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3418,8 +3629,8 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="13"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3459,7 +3670,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
-      <c r="BB36" s="10"/>
+      <c r="BB36" s="1"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
@@ -3475,14 +3686,15 @@
       <c r="BO36" s="10"/>
       <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="10"/>
-    </row>
-    <row r="37" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR36" s="10"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="10"/>
+    </row>
+    <row r="37" spans="1:72" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3491,8 +3703,8 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3532,7 +3744,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
-      <c r="BB37" s="10"/>
+      <c r="BB37" s="1"/>
       <c r="BC37" s="10"/>
       <c r="BD37" s="10"/>
       <c r="BE37" s="10"/>
@@ -3548,14 +3760,15 @@
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="10"/>
-    </row>
-    <row r="38" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR37" s="10"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="10"/>
+    </row>
+    <row r="38" spans="1:72" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3564,8 +3777,8 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="13"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3605,7 +3818,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
-      <c r="BB38" s="10"/>
+      <c r="BB38" s="1"/>
       <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
       <c r="BE38" s="10"/>
@@ -3621,14 +3834,15 @@
       <c r="BO38" s="10"/>
       <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="10"/>
-    </row>
-    <row r="39" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR38" s="10"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="10"/>
+    </row>
+    <row r="39" spans="1:72" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3637,8 +3851,8 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="13"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3678,7 +3892,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
-      <c r="BB39" s="10"/>
+      <c r="BB39" s="1"/>
       <c r="BC39" s="10"/>
       <c r="BD39" s="10"/>
       <c r="BE39" s="10"/>
@@ -3694,14 +3908,15 @@
       <c r="BO39" s="10"/>
       <c r="BP39" s="10"/>
       <c r="BQ39" s="10"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="10"/>
-    </row>
-    <row r="40" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR39" s="10"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="10"/>
+    </row>
+    <row r="40" spans="1:72" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3710,8 +3925,8 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="13"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3751,7 +3966,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
-      <c r="BB40" s="10"/>
+      <c r="BB40" s="1"/>
       <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
       <c r="BE40" s="10"/>
@@ -3767,14 +3982,15 @@
       <c r="BO40" s="10"/>
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
-      <c r="BR40" s="1"/>
-      <c r="BS40" s="10"/>
-    </row>
-    <row r="41" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR40" s="10"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="10"/>
+    </row>
+    <row r="41" spans="1:72" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3783,8 +3999,8 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="13"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3824,7 +4040,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
-      <c r="BB41" s="10"/>
+      <c r="BB41" s="1"/>
       <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
       <c r="BE41" s="10"/>
@@ -3840,14 +4056,15 @@
       <c r="BO41" s="10"/>
       <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="10"/>
-    </row>
-    <row r="42" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR41" s="10"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="10"/>
+    </row>
+    <row r="42" spans="1:72" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3856,8 +4073,8 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="13"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3897,7 +4114,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
-      <c r="BB42" s="10"/>
+      <c r="BB42" s="1"/>
       <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
       <c r="BE42" s="10"/>
@@ -3913,14 +4130,15 @@
       <c r="BO42" s="10"/>
       <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
-      <c r="BR42" s="1"/>
-      <c r="BS42" s="10"/>
-    </row>
-    <row r="43" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR42" s="10"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="10"/>
+    </row>
+    <row r="43" spans="1:72" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3929,8 +4147,8 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="13"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -3970,7 +4188,7 @@
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
-      <c r="BB43" s="10"/>
+      <c r="BB43" s="1"/>
       <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
@@ -3986,14 +4204,15 @@
       <c r="BO43" s="10"/>
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
-      <c r="BR43" s="1"/>
-      <c r="BS43" s="10"/>
-    </row>
-    <row r="44" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR43" s="10"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="10"/>
+    </row>
+    <row r="44" spans="1:72" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4002,8 +4221,8 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="13"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -4043,7 +4262,7 @@
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
-      <c r="BB44" s="10"/>
+      <c r="BB44" s="1"/>
       <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
       <c r="BE44" s="10"/>
@@ -4059,14 +4278,15 @@
       <c r="BO44" s="10"/>
       <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
-      <c r="BR44" s="1"/>
-      <c r="BS44" s="10"/>
-    </row>
-    <row r="45" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR44" s="10"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="10"/>
+    </row>
+    <row r="45" spans="1:72" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -4075,8 +4295,8 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="13"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -4116,7 +4336,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
-      <c r="BB45" s="10"/>
+      <c r="BB45" s="1"/>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
       <c r="BE45" s="10"/>
@@ -4132,14 +4352,15 @@
       <c r="BO45" s="10"/>
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
-      <c r="BR45" s="1"/>
-      <c r="BS45" s="10"/>
-    </row>
-    <row r="46" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR45" s="10"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="10"/>
+    </row>
+    <row r="46" spans="1:72" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4148,8 +4369,8 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -4189,7 +4410,7 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
-      <c r="BB46" s="10"/>
+      <c r="BB46" s="1"/>
       <c r="BC46" s="10"/>
       <c r="BD46" s="10"/>
       <c r="BE46" s="10"/>
@@ -4205,14 +4426,15 @@
       <c r="BO46" s="10"/>
       <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
-      <c r="BR46" s="1"/>
-      <c r="BS46" s="10"/>
-    </row>
-    <row r="47" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR46" s="10"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="10"/>
+    </row>
+    <row r="47" spans="1:72" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -4221,8 +4443,8 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="13"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -4262,7 +4484,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
-      <c r="BB47" s="10"/>
+      <c r="BB47" s="1"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
       <c r="BE47" s="10"/>
@@ -4278,14 +4500,15 @@
       <c r="BO47" s="10"/>
       <c r="BP47" s="10"/>
       <c r="BQ47" s="10"/>
-      <c r="BR47" s="1"/>
-      <c r="BS47" s="10"/>
-    </row>
-    <row r="48" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR47" s="10"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="10"/>
+    </row>
+    <row r="48" spans="1:72" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4294,8 +4517,8 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="13"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -4335,7 +4558,7 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
-      <c r="BB48" s="10"/>
+      <c r="BB48" s="1"/>
       <c r="BC48" s="10"/>
       <c r="BD48" s="10"/>
       <c r="BE48" s="10"/>
@@ -4351,14 +4574,15 @@
       <c r="BO48" s="10"/>
       <c r="BP48" s="10"/>
       <c r="BQ48" s="10"/>
-      <c r="BR48" s="1"/>
-      <c r="BS48" s="10"/>
-    </row>
-    <row r="49" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR48" s="10"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="10"/>
+    </row>
+    <row r="49" spans="1:72" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4367,8 +4591,8 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -4408,7 +4632,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
-      <c r="BB49" s="10"/>
+      <c r="BB49" s="1"/>
       <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
       <c r="BE49" s="10"/>
@@ -4424,14 +4648,15 @@
       <c r="BO49" s="10"/>
       <c r="BP49" s="10"/>
       <c r="BQ49" s="10"/>
-      <c r="BR49" s="1"/>
-      <c r="BS49" s="10"/>
-    </row>
-    <row r="50" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR49" s="10"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="10"/>
+    </row>
+    <row r="50" spans="1:72" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4440,8 +4665,8 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="13"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -4481,7 +4706,7 @@
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
-      <c r="BB50" s="10"/>
+      <c r="BB50" s="1"/>
       <c r="BC50" s="10"/>
       <c r="BD50" s="10"/>
       <c r="BE50" s="10"/>
@@ -4497,14 +4722,15 @@
       <c r="BO50" s="10"/>
       <c r="BP50" s="10"/>
       <c r="BQ50" s="10"/>
-      <c r="BR50" s="1"/>
-      <c r="BS50" s="10"/>
-    </row>
-    <row r="51" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR50" s="10"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="10"/>
+    </row>
+    <row r="51" spans="1:72" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -4513,8 +4739,8 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="13"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -4554,7 +4780,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
-      <c r="BB51" s="10"/>
+      <c r="BB51" s="1"/>
       <c r="BC51" s="10"/>
       <c r="BD51" s="10"/>
       <c r="BE51" s="10"/>
@@ -4570,14 +4796,15 @@
       <c r="BO51" s="10"/>
       <c r="BP51" s="10"/>
       <c r="BQ51" s="10"/>
-      <c r="BR51" s="1"/>
-      <c r="BS51" s="10"/>
-    </row>
-    <row r="52" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR51" s="10"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="10"/>
+    </row>
+    <row r="52" spans="1:72" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -4586,8 +4813,8 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="13"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -4627,7 +4854,7 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
-      <c r="BB52" s="10"/>
+      <c r="BB52" s="1"/>
       <c r="BC52" s="10"/>
       <c r="BD52" s="10"/>
       <c r="BE52" s="10"/>
@@ -4643,14 +4870,15 @@
       <c r="BO52" s="10"/>
       <c r="BP52" s="10"/>
       <c r="BQ52" s="10"/>
-      <c r="BR52" s="1"/>
-      <c r="BS52" s="10"/>
-    </row>
-    <row r="53" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR52" s="10"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="10"/>
+    </row>
+    <row r="53" spans="1:72" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -4659,8 +4887,8 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="13"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -4700,7 +4928,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
-      <c r="BB53" s="10"/>
+      <c r="BB53" s="1"/>
       <c r="BC53" s="10"/>
       <c r="BD53" s="10"/>
       <c r="BE53" s="10"/>
@@ -4716,14 +4944,15 @@
       <c r="BO53" s="10"/>
       <c r="BP53" s="10"/>
       <c r="BQ53" s="10"/>
-      <c r="BR53" s="1"/>
-      <c r="BS53" s="10"/>
-    </row>
-    <row r="54" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR53" s="10"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="10"/>
+    </row>
+    <row r="54" spans="1:72" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4732,8 +4961,8 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="13"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -4773,7 +5002,7 @@
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
-      <c r="BB54" s="10"/>
+      <c r="BB54" s="1"/>
       <c r="BC54" s="10"/>
       <c r="BD54" s="10"/>
       <c r="BE54" s="10"/>
@@ -4789,14 +5018,15 @@
       <c r="BO54" s="10"/>
       <c r="BP54" s="10"/>
       <c r="BQ54" s="10"/>
-      <c r="BR54" s="1"/>
-      <c r="BS54" s="10"/>
-    </row>
-    <row r="55" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR54" s="10"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="10"/>
+    </row>
+    <row r="55" spans="1:72" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -4805,8 +5035,8 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="13"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -4846,7 +5076,7 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
-      <c r="BB55" s="10"/>
+      <c r="BB55" s="1"/>
       <c r="BC55" s="10"/>
       <c r="BD55" s="10"/>
       <c r="BE55" s="10"/>
@@ -4862,14 +5092,15 @@
       <c r="BO55" s="10"/>
       <c r="BP55" s="10"/>
       <c r="BQ55" s="10"/>
-      <c r="BR55" s="1"/>
-      <c r="BS55" s="10"/>
-    </row>
-    <row r="56" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR55" s="10"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="10"/>
+    </row>
+    <row r="56" spans="1:72" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -4878,8 +5109,8 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="13"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -4919,7 +5150,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
-      <c r="BB56" s="10"/>
+      <c r="BB56" s="1"/>
       <c r="BC56" s="10"/>
       <c r="BD56" s="10"/>
       <c r="BE56" s="10"/>
@@ -4935,14 +5166,15 @@
       <c r="BO56" s="10"/>
       <c r="BP56" s="10"/>
       <c r="BQ56" s="10"/>
-      <c r="BR56" s="1"/>
-      <c r="BS56" s="10"/>
-    </row>
-    <row r="57" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR56" s="10"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="10"/>
+    </row>
+    <row r="57" spans="1:72" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -4951,8 +5183,8 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="13"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -4992,7 +5224,7 @@
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
-      <c r="BB57" s="10"/>
+      <c r="BB57" s="1"/>
       <c r="BC57" s="10"/>
       <c r="BD57" s="10"/>
       <c r="BE57" s="10"/>
@@ -5008,14 +5240,15 @@
       <c r="BO57" s="10"/>
       <c r="BP57" s="10"/>
       <c r="BQ57" s="10"/>
-      <c r="BR57" s="1"/>
-      <c r="BS57" s="10"/>
-    </row>
-    <row r="58" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR57" s="10"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="10"/>
+    </row>
+    <row r="58" spans="1:72" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -5024,8 +5257,8 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="13"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -5065,7 +5298,7 @@
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
-      <c r="BB58" s="10"/>
+      <c r="BB58" s="1"/>
       <c r="BC58" s="10"/>
       <c r="BD58" s="10"/>
       <c r="BE58" s="10"/>
@@ -5081,14 +5314,15 @@
       <c r="BO58" s="10"/>
       <c r="BP58" s="10"/>
       <c r="BQ58" s="10"/>
-      <c r="BR58" s="1"/>
-      <c r="BS58" s="10"/>
-    </row>
-    <row r="59" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR58" s="10"/>
+      <c r="BS58" s="1"/>
+      <c r="BT58" s="10"/>
+    </row>
+    <row r="59" spans="1:72" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -5097,8 +5331,8 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="13"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -5138,7 +5372,7 @@
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
-      <c r="BB59" s="10"/>
+      <c r="BB59" s="1"/>
       <c r="BC59" s="10"/>
       <c r="BD59" s="10"/>
       <c r="BE59" s="10"/>
@@ -5154,14 +5388,15 @@
       <c r="BO59" s="10"/>
       <c r="BP59" s="10"/>
       <c r="BQ59" s="10"/>
-      <c r="BR59" s="1"/>
-      <c r="BS59" s="10"/>
-    </row>
-    <row r="60" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR59" s="10"/>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="10"/>
+    </row>
+    <row r="60" spans="1:72" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -5170,8 +5405,8 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="13"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -5211,7 +5446,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
-      <c r="BB60" s="10"/>
+      <c r="BB60" s="1"/>
       <c r="BC60" s="10"/>
       <c r="BD60" s="10"/>
       <c r="BE60" s="10"/>
@@ -5227,14 +5462,15 @@
       <c r="BO60" s="10"/>
       <c r="BP60" s="10"/>
       <c r="BQ60" s="10"/>
-      <c r="BR60" s="1"/>
-      <c r="BS60" s="10"/>
-    </row>
-    <row r="61" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR60" s="10"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="10"/>
+    </row>
+    <row r="61" spans="1:72" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -5243,8 +5479,8 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="13"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -5284,7 +5520,7 @@
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
-      <c r="BB61" s="10"/>
+      <c r="BB61" s="1"/>
       <c r="BC61" s="10"/>
       <c r="BD61" s="10"/>
       <c r="BE61" s="10"/>
@@ -5300,14 +5536,15 @@
       <c r="BO61" s="10"/>
       <c r="BP61" s="10"/>
       <c r="BQ61" s="10"/>
-      <c r="BR61" s="1"/>
-      <c r="BS61" s="10"/>
-    </row>
-    <row r="62" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR61" s="10"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="10"/>
+    </row>
+    <row r="62" spans="1:72" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -5316,8 +5553,8 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="13"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -5357,7 +5594,7 @@
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
-      <c r="BB62" s="10"/>
+      <c r="BB62" s="1"/>
       <c r="BC62" s="10"/>
       <c r="BD62" s="10"/>
       <c r="BE62" s="10"/>
@@ -5373,14 +5610,15 @@
       <c r="BO62" s="10"/>
       <c r="BP62" s="10"/>
       <c r="BQ62" s="10"/>
-      <c r="BR62" s="1"/>
-      <c r="BS62" s="10"/>
-    </row>
-    <row r="63" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR62" s="10"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="10"/>
+    </row>
+    <row r="63" spans="1:72" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -5389,8 +5627,8 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="13"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -5430,7 +5668,7 @@
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
-      <c r="BB63" s="10"/>
+      <c r="BB63" s="1"/>
       <c r="BC63" s="10"/>
       <c r="BD63" s="10"/>
       <c r="BE63" s="10"/>
@@ -5446,14 +5684,15 @@
       <c r="BO63" s="10"/>
       <c r="BP63" s="10"/>
       <c r="BQ63" s="10"/>
-      <c r="BR63" s="1"/>
-      <c r="BS63" s="10"/>
-    </row>
-    <row r="64" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR63" s="10"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="10"/>
+    </row>
+    <row r="64" spans="1:72" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -5462,8 +5701,8 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="13"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -5503,7 +5742,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
-      <c r="BB64" s="10"/>
+      <c r="BB64" s="1"/>
       <c r="BC64" s="10"/>
       <c r="BD64" s="10"/>
       <c r="BE64" s="10"/>
@@ -5519,14 +5758,15 @@
       <c r="BO64" s="10"/>
       <c r="BP64" s="10"/>
       <c r="BQ64" s="10"/>
-      <c r="BR64" s="1"/>
-      <c r="BS64" s="10"/>
-    </row>
-    <row r="65" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR64" s="10"/>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="10"/>
+    </row>
+    <row r="65" spans="1:72" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -5535,8 +5775,8 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="13"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -5576,7 +5816,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
-      <c r="BB65" s="10"/>
+      <c r="BB65" s="1"/>
       <c r="BC65" s="10"/>
       <c r="BD65" s="10"/>
       <c r="BE65" s="10"/>
@@ -5592,14 +5832,15 @@
       <c r="BO65" s="10"/>
       <c r="BP65" s="10"/>
       <c r="BQ65" s="10"/>
-      <c r="BR65" s="1"/>
-      <c r="BS65" s="10"/>
-    </row>
-    <row r="66" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR65" s="10"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="10"/>
+    </row>
+    <row r="66" spans="1:72" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -5608,8 +5849,8 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="13"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -5649,7 +5890,7 @@
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
-      <c r="BB66" s="10"/>
+      <c r="BB66" s="1"/>
       <c r="BC66" s="10"/>
       <c r="BD66" s="10"/>
       <c r="BE66" s="10"/>
@@ -5665,14 +5906,15 @@
       <c r="BO66" s="10"/>
       <c r="BP66" s="10"/>
       <c r="BQ66" s="10"/>
-      <c r="BR66" s="1"/>
-      <c r="BS66" s="10"/>
-    </row>
-    <row r="67" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR66" s="10"/>
+      <c r="BS66" s="1"/>
+      <c r="BT66" s="10"/>
+    </row>
+    <row r="67" spans="1:72" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="9"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -5681,8 +5923,8 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="13"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -5722,7 +5964,7 @@
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
-      <c r="BB67" s="10"/>
+      <c r="BB67" s="1"/>
       <c r="BC67" s="10"/>
       <c r="BD67" s="10"/>
       <c r="BE67" s="10"/>
@@ -5738,14 +5980,15 @@
       <c r="BO67" s="10"/>
       <c r="BP67" s="10"/>
       <c r="BQ67" s="10"/>
-      <c r="BR67" s="1"/>
-      <c r="BS67" s="10"/>
-    </row>
-    <row r="68" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR67" s="10"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="10"/>
+    </row>
+    <row r="68" spans="1:72" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -5754,8 +5997,8 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="13"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -5795,7 +6038,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
-      <c r="BB68" s="10"/>
+      <c r="BB68" s="1"/>
       <c r="BC68" s="10"/>
       <c r="BD68" s="10"/>
       <c r="BE68" s="10"/>
@@ -5811,14 +6054,15 @@
       <c r="BO68" s="10"/>
       <c r="BP68" s="10"/>
       <c r="BQ68" s="10"/>
-      <c r="BR68" s="1"/>
-      <c r="BS68" s="10"/>
-    </row>
-    <row r="69" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR68" s="10"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="10"/>
+    </row>
+    <row r="69" spans="1:72" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -5827,8 +6071,8 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="13"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -5868,7 +6112,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
-      <c r="BB69" s="10"/>
+      <c r="BB69" s="1"/>
       <c r="BC69" s="10"/>
       <c r="BD69" s="10"/>
       <c r="BE69" s="10"/>
@@ -5884,14 +6128,15 @@
       <c r="BO69" s="10"/>
       <c r="BP69" s="10"/>
       <c r="BQ69" s="10"/>
-      <c r="BR69" s="1"/>
-      <c r="BS69" s="10"/>
-    </row>
-    <row r="70" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR69" s="10"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="10"/>
+    </row>
+    <row r="70" spans="1:72" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -5900,8 +6145,8 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="13"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -5941,7 +6186,7 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
-      <c r="BB70" s="10"/>
+      <c r="BB70" s="1"/>
       <c r="BC70" s="10"/>
       <c r="BD70" s="10"/>
       <c r="BE70" s="10"/>
@@ -5957,14 +6202,15 @@
       <c r="BO70" s="10"/>
       <c r="BP70" s="10"/>
       <c r="BQ70" s="10"/>
-      <c r="BR70" s="1"/>
-      <c r="BS70" s="10"/>
-    </row>
-    <row r="71" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR70" s="10"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="10"/>
+    </row>
+    <row r="71" spans="1:72" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -5973,8 +6219,8 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="13"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -6014,7 +6260,7 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
-      <c r="BB71" s="10"/>
+      <c r="BB71" s="1"/>
       <c r="BC71" s="10"/>
       <c r="BD71" s="10"/>
       <c r="BE71" s="10"/>
@@ -6030,14 +6276,15 @@
       <c r="BO71" s="10"/>
       <c r="BP71" s="10"/>
       <c r="BQ71" s="10"/>
-      <c r="BR71" s="1"/>
-      <c r="BS71" s="10"/>
-    </row>
-    <row r="72" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR71" s="10"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="10"/>
+    </row>
+    <row r="72" spans="1:72" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -6046,8 +6293,8 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="13"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -6087,7 +6334,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
-      <c r="BB72" s="10"/>
+      <c r="BB72" s="1"/>
       <c r="BC72" s="10"/>
       <c r="BD72" s="10"/>
       <c r="BE72" s="10"/>
@@ -6103,14 +6350,15 @@
       <c r="BO72" s="10"/>
       <c r="BP72" s="10"/>
       <c r="BQ72" s="10"/>
-      <c r="BR72" s="1"/>
-      <c r="BS72" s="10"/>
-    </row>
-    <row r="73" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR72" s="10"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="10"/>
+    </row>
+    <row r="73" spans="1:72" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -6119,8 +6367,8 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="13"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -6160,7 +6408,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
-      <c r="BB73" s="10"/>
+      <c r="BB73" s="1"/>
       <c r="BC73" s="10"/>
       <c r="BD73" s="10"/>
       <c r="BE73" s="10"/>
@@ -6176,14 +6424,15 @@
       <c r="BO73" s="10"/>
       <c r="BP73" s="10"/>
       <c r="BQ73" s="10"/>
-      <c r="BR73" s="1"/>
-      <c r="BS73" s="10"/>
-    </row>
-    <row r="74" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR73" s="10"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="10"/>
+    </row>
+    <row r="74" spans="1:72" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -6192,8 +6441,8 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="13"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -6233,7 +6482,7 @@
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
-      <c r="BB74" s="10"/>
+      <c r="BB74" s="1"/>
       <c r="BC74" s="10"/>
       <c r="BD74" s="10"/>
       <c r="BE74" s="10"/>
@@ -6249,14 +6498,15 @@
       <c r="BO74" s="10"/>
       <c r="BP74" s="10"/>
       <c r="BQ74" s="10"/>
-      <c r="BR74" s="1"/>
-      <c r="BS74" s="10"/>
-    </row>
-    <row r="75" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR74" s="10"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="10"/>
+    </row>
+    <row r="75" spans="1:72" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -6265,8 +6515,8 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="13"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -6306,7 +6556,7 @@
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
-      <c r="BB75" s="10"/>
+      <c r="BB75" s="1"/>
       <c r="BC75" s="10"/>
       <c r="BD75" s="10"/>
       <c r="BE75" s="10"/>
@@ -6322,14 +6572,15 @@
       <c r="BO75" s="10"/>
       <c r="BP75" s="10"/>
       <c r="BQ75" s="10"/>
-      <c r="BR75" s="1"/>
-      <c r="BS75" s="10"/>
-    </row>
-    <row r="76" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR75" s="10"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="10"/>
+    </row>
+    <row r="76" spans="1:72" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -6338,8 +6589,8 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="13"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -6379,7 +6630,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
-      <c r="BB76" s="10"/>
+      <c r="BB76" s="1"/>
       <c r="BC76" s="10"/>
       <c r="BD76" s="10"/>
       <c r="BE76" s="10"/>
@@ -6395,14 +6646,15 @@
       <c r="BO76" s="10"/>
       <c r="BP76" s="10"/>
       <c r="BQ76" s="10"/>
-      <c r="BR76" s="1"/>
-      <c r="BS76" s="10"/>
-    </row>
-    <row r="77" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR76" s="10"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="10"/>
+    </row>
+    <row r="77" spans="1:72" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -6411,8 +6663,8 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="13"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -6452,7 +6704,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
-      <c r="BB77" s="10"/>
+      <c r="BB77" s="1"/>
       <c r="BC77" s="10"/>
       <c r="BD77" s="10"/>
       <c r="BE77" s="10"/>
@@ -6468,14 +6720,15 @@
       <c r="BO77" s="10"/>
       <c r="BP77" s="10"/>
       <c r="BQ77" s="10"/>
-      <c r="BR77" s="1"/>
-      <c r="BS77" s="10"/>
-    </row>
-    <row r="78" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR77" s="10"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="10"/>
+    </row>
+    <row r="78" spans="1:72" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -6484,8 +6737,8 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="13"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -6525,7 +6778,7 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
-      <c r="BB78" s="10"/>
+      <c r="BB78" s="1"/>
       <c r="BC78" s="10"/>
       <c r="BD78" s="10"/>
       <c r="BE78" s="10"/>
@@ -6541,14 +6794,15 @@
       <c r="BO78" s="10"/>
       <c r="BP78" s="10"/>
       <c r="BQ78" s="10"/>
-      <c r="BR78" s="1"/>
-      <c r="BS78" s="10"/>
-    </row>
-    <row r="79" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR78" s="10"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="10"/>
+    </row>
+    <row r="79" spans="1:72" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -6557,8 +6811,8 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="13"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -6598,7 +6852,7 @@
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
-      <c r="BB79" s="10"/>
+      <c r="BB79" s="1"/>
       <c r="BC79" s="10"/>
       <c r="BD79" s="10"/>
       <c r="BE79" s="10"/>
@@ -6614,14 +6868,15 @@
       <c r="BO79" s="10"/>
       <c r="BP79" s="10"/>
       <c r="BQ79" s="10"/>
-      <c r="BR79" s="1"/>
-      <c r="BS79" s="10"/>
-    </row>
-    <row r="80" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR79" s="10"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="10"/>
+    </row>
+    <row r="80" spans="1:72" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -6630,8 +6885,8 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="13"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -6671,7 +6926,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
-      <c r="BB80" s="10"/>
+      <c r="BB80" s="1"/>
       <c r="BC80" s="10"/>
       <c r="BD80" s="10"/>
       <c r="BE80" s="10"/>
@@ -6687,14 +6942,15 @@
       <c r="BO80" s="10"/>
       <c r="BP80" s="10"/>
       <c r="BQ80" s="10"/>
-      <c r="BR80" s="1"/>
-      <c r="BS80" s="10"/>
-    </row>
-    <row r="81" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR80" s="10"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="10"/>
+    </row>
+    <row r="81" spans="1:72" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -6703,8 +6959,8 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="13"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -6744,7 +7000,7 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
-      <c r="BB81" s="10"/>
+      <c r="BB81" s="1"/>
       <c r="BC81" s="10"/>
       <c r="BD81" s="10"/>
       <c r="BE81" s="10"/>
@@ -6760,14 +7016,15 @@
       <c r="BO81" s="10"/>
       <c r="BP81" s="10"/>
       <c r="BQ81" s="10"/>
-      <c r="BR81" s="1"/>
-      <c r="BS81" s="10"/>
-    </row>
-    <row r="82" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR81" s="10"/>
+      <c r="BS81" s="1"/>
+      <c r="BT81" s="10"/>
+    </row>
+    <row r="82" spans="1:72" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -6776,8 +7033,8 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="13"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -6817,7 +7074,7 @@
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
-      <c r="BB82" s="10"/>
+      <c r="BB82" s="1"/>
       <c r="BC82" s="10"/>
       <c r="BD82" s="10"/>
       <c r="BE82" s="10"/>
@@ -6833,14 +7090,15 @@
       <c r="BO82" s="10"/>
       <c r="BP82" s="10"/>
       <c r="BQ82" s="10"/>
-      <c r="BR82" s="1"/>
-      <c r="BS82" s="10"/>
-    </row>
-    <row r="83" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR82" s="10"/>
+      <c r="BS82" s="1"/>
+      <c r="BT82" s="10"/>
+    </row>
+    <row r="83" spans="1:72" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -6849,8 +7107,8 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="13"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -6890,7 +7148,7 @@
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
       <c r="BA83" s="1"/>
-      <c r="BB83" s="10"/>
+      <c r="BB83" s="1"/>
       <c r="BC83" s="10"/>
       <c r="BD83" s="10"/>
       <c r="BE83" s="10"/>
@@ -6906,14 +7164,15 @@
       <c r="BO83" s="10"/>
       <c r="BP83" s="10"/>
       <c r="BQ83" s="10"/>
-      <c r="BR83" s="1"/>
-      <c r="BS83" s="10"/>
-    </row>
-    <row r="84" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR83" s="10"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="10"/>
+    </row>
+    <row r="84" spans="1:72" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -6922,8 +7181,8 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="13"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -6963,7 +7222,7 @@
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
-      <c r="BB84" s="10"/>
+      <c r="BB84" s="1"/>
       <c r="BC84" s="10"/>
       <c r="BD84" s="10"/>
       <c r="BE84" s="10"/>
@@ -6979,14 +7238,15 @@
       <c r="BO84" s="10"/>
       <c r="BP84" s="10"/>
       <c r="BQ84" s="10"/>
-      <c r="BR84" s="1"/>
-      <c r="BS84" s="10"/>
-    </row>
-    <row r="85" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR84" s="10"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="10"/>
+    </row>
+    <row r="85" spans="1:72" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -6995,8 +7255,8 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="13"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -7036,7 +7296,7 @@
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
-      <c r="BB85" s="10"/>
+      <c r="BB85" s="1"/>
       <c r="BC85" s="10"/>
       <c r="BD85" s="10"/>
       <c r="BE85" s="10"/>
@@ -7052,14 +7312,15 @@
       <c r="BO85" s="10"/>
       <c r="BP85" s="10"/>
       <c r="BQ85" s="10"/>
-      <c r="BR85" s="1"/>
-      <c r="BS85" s="10"/>
-    </row>
-    <row r="86" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR85" s="10"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="10"/>
+    </row>
+    <row r="86" spans="1:72" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -7068,8 +7329,8 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="13"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -7109,7 +7370,7 @@
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
-      <c r="BB86" s="10"/>
+      <c r="BB86" s="1"/>
       <c r="BC86" s="10"/>
       <c r="BD86" s="10"/>
       <c r="BE86" s="10"/>
@@ -7125,14 +7386,15 @@
       <c r="BO86" s="10"/>
       <c r="BP86" s="10"/>
       <c r="BQ86" s="10"/>
-      <c r="BR86" s="1"/>
-      <c r="BS86" s="10"/>
-    </row>
-    <row r="87" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR86" s="10"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="10"/>
+    </row>
+    <row r="87" spans="1:72" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -7141,8 +7403,8 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="13"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -7182,7 +7444,7 @@
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
-      <c r="BB87" s="10"/>
+      <c r="BB87" s="1"/>
       <c r="BC87" s="10"/>
       <c r="BD87" s="10"/>
       <c r="BE87" s="10"/>
@@ -7198,14 +7460,15 @@
       <c r="BO87" s="10"/>
       <c r="BP87" s="10"/>
       <c r="BQ87" s="10"/>
-      <c r="BR87" s="1"/>
-      <c r="BS87" s="10"/>
-    </row>
-    <row r="88" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR87" s="10"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="10"/>
+    </row>
+    <row r="88" spans="1:72" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -7214,8 +7477,8 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="13"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -7255,7 +7518,7 @@
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
-      <c r="BB88" s="10"/>
+      <c r="BB88" s="1"/>
       <c r="BC88" s="10"/>
       <c r="BD88" s="10"/>
       <c r="BE88" s="10"/>
@@ -7271,14 +7534,15 @@
       <c r="BO88" s="10"/>
       <c r="BP88" s="10"/>
       <c r="BQ88" s="10"/>
-      <c r="BR88" s="1"/>
-      <c r="BS88" s="10"/>
-    </row>
-    <row r="89" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR88" s="10"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="10"/>
+    </row>
+    <row r="89" spans="1:72" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -7287,8 +7551,8 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="13"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -7328,7 +7592,7 @@
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
-      <c r="BB89" s="10"/>
+      <c r="BB89" s="1"/>
       <c r="BC89" s="10"/>
       <c r="BD89" s="10"/>
       <c r="BE89" s="10"/>
@@ -7344,14 +7608,15 @@
       <c r="BO89" s="10"/>
       <c r="BP89" s="10"/>
       <c r="BQ89" s="10"/>
-      <c r="BR89" s="1"/>
-      <c r="BS89" s="10"/>
-    </row>
-    <row r="90" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR89" s="10"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="10"/>
+    </row>
+    <row r="90" spans="1:72" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -7360,8 +7625,8 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="13"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -7401,7 +7666,7 @@
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
-      <c r="BB90" s="10"/>
+      <c r="BB90" s="1"/>
       <c r="BC90" s="10"/>
       <c r="BD90" s="10"/>
       <c r="BE90" s="10"/>
@@ -7417,14 +7682,15 @@
       <c r="BO90" s="10"/>
       <c r="BP90" s="10"/>
       <c r="BQ90" s="10"/>
-      <c r="BR90" s="1"/>
-      <c r="BS90" s="10"/>
-    </row>
-    <row r="91" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR90" s="10"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="10"/>
+    </row>
+    <row r="91" spans="1:72" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -7433,8 +7699,8 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="13"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -7474,7 +7740,7 @@
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
-      <c r="BB91" s="10"/>
+      <c r="BB91" s="1"/>
       <c r="BC91" s="10"/>
       <c r="BD91" s="10"/>
       <c r="BE91" s="10"/>
@@ -7490,14 +7756,15 @@
       <c r="BO91" s="10"/>
       <c r="BP91" s="10"/>
       <c r="BQ91" s="10"/>
-      <c r="BR91" s="1"/>
-      <c r="BS91" s="10"/>
-    </row>
-    <row r="92" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR91" s="10"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="10"/>
+    </row>
+    <row r="92" spans="1:72" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -7506,8 +7773,8 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="13"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -7547,7 +7814,7 @@
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
-      <c r="BB92" s="10"/>
+      <c r="BB92" s="1"/>
       <c r="BC92" s="10"/>
       <c r="BD92" s="10"/>
       <c r="BE92" s="10"/>
@@ -7563,14 +7830,15 @@
       <c r="BO92" s="10"/>
       <c r="BP92" s="10"/>
       <c r="BQ92" s="10"/>
-      <c r="BR92" s="1"/>
-      <c r="BS92" s="10"/>
-    </row>
-    <row r="93" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR92" s="10"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="10"/>
+    </row>
+    <row r="93" spans="1:72" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -7579,8 +7847,8 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="13"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -7620,7 +7888,7 @@
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
-      <c r="BB93" s="10"/>
+      <c r="BB93" s="1"/>
       <c r="BC93" s="10"/>
       <c r="BD93" s="10"/>
       <c r="BE93" s="10"/>
@@ -7636,14 +7904,15 @@
       <c r="BO93" s="10"/>
       <c r="BP93" s="10"/>
       <c r="BQ93" s="10"/>
-      <c r="BR93" s="1"/>
-      <c r="BS93" s="10"/>
-    </row>
-    <row r="94" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR93" s="10"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="10"/>
+    </row>
+    <row r="94" spans="1:72" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -7652,8 +7921,8 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="13"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -7693,7 +7962,7 @@
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
-      <c r="BB94" s="10"/>
+      <c r="BB94" s="1"/>
       <c r="BC94" s="10"/>
       <c r="BD94" s="10"/>
       <c r="BE94" s="10"/>
@@ -7709,14 +7978,15 @@
       <c r="BO94" s="10"/>
       <c r="BP94" s="10"/>
       <c r="BQ94" s="10"/>
-      <c r="BR94" s="1"/>
-      <c r="BS94" s="10"/>
-    </row>
-    <row r="95" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR94" s="10"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="10"/>
+    </row>
+    <row r="95" spans="1:72" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -7725,8 +7995,8 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="13"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -7766,7 +8036,7 @@
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
-      <c r="BB95" s="10"/>
+      <c r="BB95" s="1"/>
       <c r="BC95" s="10"/>
       <c r="BD95" s="10"/>
       <c r="BE95" s="10"/>
@@ -7782,14 +8052,15 @@
       <c r="BO95" s="10"/>
       <c r="BP95" s="10"/>
       <c r="BQ95" s="10"/>
-      <c r="BR95" s="1"/>
-      <c r="BS95" s="10"/>
-    </row>
-    <row r="96" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR95" s="10"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="10"/>
+    </row>
+    <row r="96" spans="1:72" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -7798,8 +8069,8 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="13"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -7839,7 +8110,7 @@
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1"/>
-      <c r="BB96" s="10"/>
+      <c r="BB96" s="1"/>
       <c r="BC96" s="10"/>
       <c r="BD96" s="10"/>
       <c r="BE96" s="10"/>
@@ -7855,14 +8126,15 @@
       <c r="BO96" s="10"/>
       <c r="BP96" s="10"/>
       <c r="BQ96" s="10"/>
-      <c r="BR96" s="1"/>
-      <c r="BS96" s="10"/>
-    </row>
-    <row r="97" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR96" s="10"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="10"/>
+    </row>
+    <row r="97" spans="1:72" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -7871,8 +8143,8 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="13"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -7912,7 +8184,7 @@
       <c r="AY97" s="1"/>
       <c r="AZ97" s="1"/>
       <c r="BA97" s="1"/>
-      <c r="BB97" s="10"/>
+      <c r="BB97" s="1"/>
       <c r="BC97" s="10"/>
       <c r="BD97" s="10"/>
       <c r="BE97" s="10"/>
@@ -7928,14 +8200,15 @@
       <c r="BO97" s="10"/>
       <c r="BP97" s="10"/>
       <c r="BQ97" s="10"/>
-      <c r="BR97" s="1"/>
-      <c r="BS97" s="10"/>
-    </row>
-    <row r="98" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR97" s="10"/>
+      <c r="BS97" s="1"/>
+      <c r="BT97" s="10"/>
+    </row>
+    <row r="98" spans="1:72" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -7944,8 +8217,8 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="13"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -7985,7 +8258,7 @@
       <c r="AY98" s="1"/>
       <c r="AZ98" s="1"/>
       <c r="BA98" s="1"/>
-      <c r="BB98" s="10"/>
+      <c r="BB98" s="1"/>
       <c r="BC98" s="10"/>
       <c r="BD98" s="10"/>
       <c r="BE98" s="10"/>
@@ -8001,14 +8274,15 @@
       <c r="BO98" s="10"/>
       <c r="BP98" s="10"/>
       <c r="BQ98" s="10"/>
-      <c r="BR98" s="1"/>
-      <c r="BS98" s="10"/>
-    </row>
-    <row r="99" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR98" s="10"/>
+      <c r="BS98" s="1"/>
+      <c r="BT98" s="10"/>
+    </row>
+    <row r="99" spans="1:72" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -8017,8 +8291,8 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="13"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -8058,7 +8332,7 @@
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
       <c r="BA99" s="1"/>
-      <c r="BB99" s="10"/>
+      <c r="BB99" s="1"/>
       <c r="BC99" s="10"/>
       <c r="BD99" s="10"/>
       <c r="BE99" s="10"/>
@@ -8074,14 +8348,15 @@
       <c r="BO99" s="10"/>
       <c r="BP99" s="10"/>
       <c r="BQ99" s="10"/>
-      <c r="BR99" s="1"/>
-      <c r="BS99" s="10"/>
-    </row>
-    <row r="100" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR99" s="10"/>
+      <c r="BS99" s="1"/>
+      <c r="BT99" s="10"/>
+    </row>
+    <row r="100" spans="1:72" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -8090,8 +8365,8 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="13"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -8131,7 +8406,7 @@
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
       <c r="BA100" s="1"/>
-      <c r="BB100" s="10"/>
+      <c r="BB100" s="1"/>
       <c r="BC100" s="10"/>
       <c r="BD100" s="10"/>
       <c r="BE100" s="10"/>
@@ -8147,14 +8422,15 @@
       <c r="BO100" s="10"/>
       <c r="BP100" s="10"/>
       <c r="BQ100" s="10"/>
-      <c r="BR100" s="1"/>
-      <c r="BS100" s="10"/>
-    </row>
-    <row r="101" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR100" s="10"/>
+      <c r="BS100" s="1"/>
+      <c r="BT100" s="10"/>
+    </row>
+    <row r="101" spans="1:72" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -8163,8 +8439,8 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="13"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -8204,7 +8480,7 @@
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
       <c r="BA101" s="1"/>
-      <c r="BB101" s="10"/>
+      <c r="BB101" s="1"/>
       <c r="BC101" s="10"/>
       <c r="BD101" s="10"/>
       <c r="BE101" s="10"/>
@@ -8220,14 +8496,15 @@
       <c r="BO101" s="10"/>
       <c r="BP101" s="10"/>
       <c r="BQ101" s="10"/>
-      <c r="BR101" s="1"/>
-      <c r="BS101" s="10"/>
-    </row>
-    <row r="102" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR101" s="10"/>
+      <c r="BS101" s="1"/>
+      <c r="BT101" s="10"/>
+    </row>
+    <row r="102" spans="1:72" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -8236,8 +8513,8 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="13"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -8277,7 +8554,7 @@
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
-      <c r="BB102" s="10"/>
+      <c r="BB102" s="1"/>
       <c r="BC102" s="10"/>
       <c r="BD102" s="10"/>
       <c r="BE102" s="10"/>
@@ -8293,37 +8570,38 @@
       <c r="BO102" s="10"/>
       <c r="BP102" s="10"/>
       <c r="BQ102" s="10"/>
-      <c r="BR102" s="1"/>
-      <c r="BS102" s="10"/>
-    </row>
-    <row r="103" spans="1:71" ht="12.75" customHeight="1">
+      <c r="BR102" s="10"/>
+      <c r="BS102" s="1"/>
+      <c r="BT102" s="10"/>
+    </row>
+    <row r="103" spans="1:72" ht="12.75" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:71" ht="12.75" customHeight="1">
+    <row r="104" spans="1:72" ht="12.75" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:71" ht="12.75" customHeight="1">
+    <row r="105" spans="1:72" ht="12.75" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:71" ht="12.75" customHeight="1">
+    <row r="106" spans="1:72" ht="12.75" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:71" ht="12.75" customHeight="1">
+    <row r="107" spans="1:72" ht="12.75" customHeight="1">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:71" ht="12.75" customHeight="1">
+    <row r="108" spans="1:72" ht="12.75" customHeight="1">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:71" ht="12.75" customHeight="1">
+    <row r="109" spans="1:72" ht="12.75" customHeight="1">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:71" ht="12.75" customHeight="1">
+    <row r="110" spans="1:72" ht="12.75" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:71" ht="12.75" customHeight="1">
+    <row r="111" spans="1:72" ht="12.75" customHeight="1">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:71" ht="12.75" customHeight="1">
+    <row r="112" spans="1:72" ht="12.75" customHeight="1">
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">

--- a/Excel/13_object.xlsx
+++ b/Excel/13_object.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D91EA8-276E-45B7-8BA1-7110C7481B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12FEDC-FF6E-4391-8977-1268665D2BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="4425" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="4140" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BF1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -332,6 +332,25 @@
   </si>
   <si>
     <t>monster_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_cooltime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_asset_path</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Ability/AFireBallUnit.prefab</t>
+  </si>
+  <si>
+    <t>attack_speed</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -747,13 +766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT1000"/>
+  <dimension ref="A1:BW1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -762,63 +781,63 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="92.140625" style="14" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="21" width="8.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="21.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" customWidth="1"/>
-    <col min="38" max="38" width="20.5703125" customWidth="1"/>
-    <col min="39" max="39" width="21.42578125" customWidth="1"/>
-    <col min="40" max="40" width="20.5703125" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" customWidth="1"/>
-    <col min="42" max="42" width="20.5703125" customWidth="1"/>
-    <col min="43" max="43" width="21.42578125" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" customWidth="1"/>
-    <col min="47" max="47" width="20.42578125" customWidth="1"/>
-    <col min="48" max="48" width="19.7109375" customWidth="1"/>
-    <col min="49" max="49" width="20.42578125" customWidth="1"/>
-    <col min="50" max="50" width="19.7109375" customWidth="1"/>
-    <col min="51" max="51" width="20.42578125" customWidth="1"/>
-    <col min="52" max="52" width="19.7109375" customWidth="1"/>
-    <col min="53" max="54" width="20.42578125" customWidth="1"/>
-    <col min="55" max="55" width="13" customWidth="1"/>
-    <col min="56" max="56" width="12.5703125" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" customWidth="1"/>
-    <col min="59" max="59" width="13" customWidth="1"/>
-    <col min="60" max="60" width="12.5703125" customWidth="1"/>
-    <col min="61" max="61" width="13" customWidth="1"/>
-    <col min="62" max="62" width="12.5703125" customWidth="1"/>
-    <col min="63" max="63" width="17.42578125" customWidth="1"/>
-    <col min="64" max="64" width="18.140625" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" customWidth="1"/>
-    <col min="67" max="67" width="17.42578125" customWidth="1"/>
-    <col min="68" max="68" width="18.140625" customWidth="1"/>
-    <col min="69" max="69" width="17.42578125" customWidth="1"/>
-    <col min="70" max="70" width="18.140625" customWidth="1"/>
-    <col min="71" max="71" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.85546875" customWidth="1"/>
+    <col min="6" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="92.140625" style="14" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="21" width="21.42578125" customWidth="1"/>
+    <col min="22" max="24" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" customWidth="1"/>
+    <col min="37" max="37" width="20.5703125" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" customWidth="1"/>
+    <col min="41" max="41" width="20.5703125" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" customWidth="1"/>
+    <col min="43" max="43" width="20.5703125" customWidth="1"/>
+    <col min="44" max="44" width="21.42578125" customWidth="1"/>
+    <col min="45" max="45" width="20.5703125" customWidth="1"/>
+    <col min="46" max="46" width="21.42578125" customWidth="1"/>
+    <col min="47" max="47" width="19.7109375" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" customWidth="1"/>
+    <col min="50" max="50" width="20.42578125" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" customWidth="1"/>
+    <col min="52" max="52" width="20.42578125" customWidth="1"/>
+    <col min="53" max="53" width="19.7109375" customWidth="1"/>
+    <col min="54" max="54" width="20.42578125" customWidth="1"/>
+    <col min="55" max="55" width="19.7109375" customWidth="1"/>
+    <col min="56" max="57" width="20.42578125" customWidth="1"/>
+    <col min="58" max="58" width="13" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" customWidth="1"/>
+    <col min="60" max="60" width="13" customWidth="1"/>
+    <col min="61" max="61" width="12.5703125" customWidth="1"/>
+    <col min="62" max="62" width="13" customWidth="1"/>
+    <col min="63" max="63" width="12.5703125" customWidth="1"/>
+    <col min="64" max="64" width="13" customWidth="1"/>
+    <col min="65" max="65" width="12.5703125" customWidth="1"/>
+    <col min="66" max="66" width="17.42578125" customWidth="1"/>
+    <col min="67" max="67" width="18.140625" customWidth="1"/>
+    <col min="68" max="68" width="17.42578125" customWidth="1"/>
+    <col min="69" max="69" width="18.140625" customWidth="1"/>
+    <col min="70" max="70" width="17.42578125" customWidth="1"/>
+    <col min="71" max="71" width="18.140625" customWidth="1"/>
+    <col min="72" max="72" width="17.42578125" customWidth="1"/>
+    <col min="73" max="73" width="18.140625" customWidth="1"/>
+    <col min="74" max="74" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="12.75" customHeight="1">
+    <row r="1" spans="1:75" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,18 +860,26 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -871,9 +898,9 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
@@ -893,9 +920,9 @@
       <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
@@ -909,10 +936,13 @@
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
       <c r="BR1" s="4"/>
-      <c r="BS1" s="1"/>
+      <c r="BS1" s="4"/>
       <c r="BT1" s="4"/>
-    </row>
-    <row r="2" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="4"/>
+    </row>
+    <row r="2" spans="1:75" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -935,18 +965,26 @@
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -987,9 +1025,9 @@
       <c r="AZ2" s="6"/>
       <c r="BA2" s="6"/>
       <c r="BB2" s="6"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
@@ -1003,10 +1041,13 @@
       <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
       <c r="BR2" s="7"/>
-      <c r="BS2" s="6"/>
+      <c r="BS2" s="7"/>
       <c r="BT2" s="7"/>
-    </row>
-    <row r="3" spans="1:72" ht="16.5">
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="7"/>
+    </row>
+    <row r="3" spans="1:75" ht="16.5">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A10" si="0">ROW()-2</f>
         <v>1</v>
@@ -1029,22 +1070,30 @@
       <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="13"/>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="13"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1082,9 +1131,9 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
       <c r="BF3" s="10"/>
       <c r="BG3" s="10"/>
       <c r="BH3" s="10"/>
@@ -1098,10 +1147,13 @@
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
       <c r="BR3" s="10"/>
-      <c r="BS3" s="1"/>
+      <c r="BS3" s="10"/>
       <c r="BT3" s="10"/>
-    </row>
-    <row r="4" spans="1:72" ht="16.5">
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="10"/>
+    </row>
+    <row r="4" spans="1:75" ht="16.5">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1124,22 +1176,30 @@
       <c r="G4" s="1">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1177,9 +1237,9 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
       <c r="BH4" s="10"/>
@@ -1193,10 +1253,13 @@
       <c r="BP4" s="10"/>
       <c r="BQ4" s="10"/>
       <c r="BR4" s="10"/>
-      <c r="BS4" s="1"/>
+      <c r="BS4" s="10"/>
       <c r="BT4" s="10"/>
-    </row>
-    <row r="5" spans="1:72" ht="16.5">
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="10"/>
+    </row>
+    <row r="5" spans="1:75" ht="16.5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1219,22 +1282,30 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1272,9 +1343,9 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
       <c r="BF5" s="10"/>
       <c r="BG5" s="10"/>
       <c r="BH5" s="10"/>
@@ -1288,10 +1359,13 @@
       <c r="BP5" s="10"/>
       <c r="BQ5" s="10"/>
       <c r="BR5" s="10"/>
-      <c r="BS5" s="1"/>
+      <c r="BS5" s="10"/>
       <c r="BT5" s="10"/>
-    </row>
-    <row r="6" spans="1:72" ht="16.5">
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="10"/>
+    </row>
+    <row r="6" spans="1:75" ht="16.5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1314,22 +1388,30 @@
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1367,9 +1449,9 @@
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
       <c r="BF6" s="10"/>
       <c r="BG6" s="10"/>
       <c r="BH6" s="10"/>
@@ -1383,10 +1465,13 @@
       <c r="BP6" s="10"/>
       <c r="BQ6" s="10"/>
       <c r="BR6" s="10"/>
-      <c r="BS6" s="1"/>
+      <c r="BS6" s="10"/>
       <c r="BT6" s="10"/>
-    </row>
-    <row r="7" spans="1:72" ht="16.5">
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="10"/>
+    </row>
+    <row r="7" spans="1:75" ht="16.5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1409,22 +1494,30 @@
       <c r="G7" s="1">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1462,9 +1555,9 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
@@ -1478,10 +1571,13 @@
       <c r="BP7" s="10"/>
       <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
-      <c r="BS7" s="1"/>
+      <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
-    </row>
-    <row r="8" spans="1:72" ht="16.5">
+      <c r="BU7" s="10"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="10"/>
+    </row>
+    <row r="8" spans="1:75" ht="16.5">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1504,22 +1600,30 @@
       <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1557,9 +1661,9 @@
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="10"/>
       <c r="BH8" s="10"/>
@@ -1573,10 +1677,13 @@
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10"/>
       <c r="BR8" s="10"/>
-      <c r="BS8" s="1"/>
+      <c r="BS8" s="10"/>
       <c r="BT8" s="10"/>
-    </row>
-    <row r="9" spans="1:72" ht="16.5">
+      <c r="BU8" s="10"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="10"/>
+    </row>
+    <row r="9" spans="1:75" ht="16.5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1599,22 +1706,30 @@
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1652,9 +1767,9 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
       <c r="BF9" s="10"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
@@ -1668,10 +1783,13 @@
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10"/>
       <c r="BR9" s="10"/>
-      <c r="BS9" s="1"/>
+      <c r="BS9" s="10"/>
       <c r="BT9" s="10"/>
-    </row>
-    <row r="10" spans="1:72" ht="16.5">
+      <c r="BU9" s="10"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="10"/>
+    </row>
+    <row r="10" spans="1:75" ht="16.5">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1694,22 +1812,30 @@
       <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1747,9 +1873,9 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="10"/>
       <c r="BH10" s="10"/>
@@ -1763,10 +1889,13 @@
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10"/>
       <c r="BR10" s="10"/>
-      <c r="BS10" s="1"/>
+      <c r="BS10" s="10"/>
       <c r="BT10" s="10"/>
-    </row>
-    <row r="11" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU10" s="10"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="10"/>
+    </row>
+    <row r="11" spans="1:75" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1780,10 +1909,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1821,9 +1950,9 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
       <c r="BH11" s="10"/>
@@ -1837,10 +1966,13 @@
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10"/>
       <c r="BR11" s="10"/>
-      <c r="BS11" s="1"/>
+      <c r="BS11" s="10"/>
       <c r="BT11" s="10"/>
-    </row>
-    <row r="12" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="10"/>
+    </row>
+    <row r="12" spans="1:75" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1854,10 +1986,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="13"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1895,9 +2027,9 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
@@ -1911,10 +2043,13 @@
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10"/>
       <c r="BR12" s="10"/>
-      <c r="BS12" s="1"/>
+      <c r="BS12" s="10"/>
       <c r="BT12" s="10"/>
-    </row>
-    <row r="13" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU12" s="10"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="10"/>
+    </row>
+    <row r="13" spans="1:75" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1928,10 +2063,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1969,9 +2104,9 @@
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="10"/>
@@ -1985,10 +2120,13 @@
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
-      <c r="BS13" s="1"/>
+      <c r="BS13" s="10"/>
       <c r="BT13" s="10"/>
-    </row>
-    <row r="14" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU13" s="10"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="10"/>
+    </row>
+    <row r="14" spans="1:75" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -2002,10 +2140,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2043,9 +2181,9 @@
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
       <c r="BH14" s="10"/>
@@ -2059,10 +2197,13 @@
       <c r="BP14" s="10"/>
       <c r="BQ14" s="10"/>
       <c r="BR14" s="10"/>
-      <c r="BS14" s="1"/>
+      <c r="BS14" s="10"/>
       <c r="BT14" s="10"/>
-    </row>
-    <row r="15" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU14" s="10"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="10"/>
+    </row>
+    <row r="15" spans="1:75" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -2076,10 +2217,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2117,9 +2258,9 @@
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
       <c r="BH15" s="10"/>
@@ -2133,10 +2274,13 @@
       <c r="BP15" s="10"/>
       <c r="BQ15" s="10"/>
       <c r="BR15" s="10"/>
-      <c r="BS15" s="1"/>
+      <c r="BS15" s="10"/>
       <c r="BT15" s="10"/>
-    </row>
-    <row r="16" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU15" s="10"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="10"/>
+    </row>
+    <row r="16" spans="1:75" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -2150,10 +2294,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="13"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2191,9 +2335,9 @@
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
       <c r="BF16" s="10"/>
       <c r="BG16" s="10"/>
       <c r="BH16" s="10"/>
@@ -2207,10 +2351,13 @@
       <c r="BP16" s="10"/>
       <c r="BQ16" s="10"/>
       <c r="BR16" s="10"/>
-      <c r="BS16" s="1"/>
+      <c r="BS16" s="10"/>
       <c r="BT16" s="10"/>
-    </row>
-    <row r="17" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU16" s="10"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="10"/>
+    </row>
+    <row r="17" spans="1:75" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -2224,10 +2371,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="13"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2265,9 +2412,9 @@
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
       <c r="BF17" s="10"/>
       <c r="BG17" s="10"/>
       <c r="BH17" s="10"/>
@@ -2281,10 +2428,13 @@
       <c r="BP17" s="10"/>
       <c r="BQ17" s="10"/>
       <c r="BR17" s="10"/>
-      <c r="BS17" s="1"/>
+      <c r="BS17" s="10"/>
       <c r="BT17" s="10"/>
-    </row>
-    <row r="18" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="10"/>
+    </row>
+    <row r="18" spans="1:75" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -2298,10 +2448,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="13"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2339,9 +2489,9 @@
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
       <c r="BF18" s="10"/>
       <c r="BG18" s="10"/>
       <c r="BH18" s="10"/>
@@ -2355,10 +2505,13 @@
       <c r="BP18" s="10"/>
       <c r="BQ18" s="10"/>
       <c r="BR18" s="10"/>
-      <c r="BS18" s="1"/>
+      <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
-    </row>
-    <row r="19" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU18" s="10"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="10"/>
+    </row>
+    <row r="19" spans="1:75" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -2372,10 +2525,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2413,9 +2566,9 @@
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
       <c r="BH19" s="10"/>
@@ -2429,10 +2582,13 @@
       <c r="BP19" s="10"/>
       <c r="BQ19" s="10"/>
       <c r="BR19" s="10"/>
-      <c r="BS19" s="1"/>
+      <c r="BS19" s="10"/>
       <c r="BT19" s="10"/>
-    </row>
-    <row r="20" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU19" s="10"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="10"/>
+    </row>
+    <row r="20" spans="1:75" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -2446,10 +2602,10 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="13"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="13"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2487,9 +2643,9 @@
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
       <c r="BF20" s="10"/>
       <c r="BG20" s="10"/>
       <c r="BH20" s="10"/>
@@ -2503,10 +2659,13 @@
       <c r="BP20" s="10"/>
       <c r="BQ20" s="10"/>
       <c r="BR20" s="10"/>
-      <c r="BS20" s="1"/>
+      <c r="BS20" s="10"/>
       <c r="BT20" s="10"/>
-    </row>
-    <row r="21" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU20" s="10"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="10"/>
+    </row>
+    <row r="21" spans="1:75" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2520,10 +2679,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2561,9 +2720,9 @@
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
       <c r="BF21" s="10"/>
       <c r="BG21" s="10"/>
       <c r="BH21" s="10"/>
@@ -2577,10 +2736,13 @@
       <c r="BP21" s="10"/>
       <c r="BQ21" s="10"/>
       <c r="BR21" s="10"/>
-      <c r="BS21" s="1"/>
+      <c r="BS21" s="10"/>
       <c r="BT21" s="10"/>
-    </row>
-    <row r="22" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU21" s="10"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="10"/>
+    </row>
+    <row r="22" spans="1:75" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -2594,10 +2756,10 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="13"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2635,9 +2797,9 @@
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
       <c r="BF22" s="10"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
@@ -2651,10 +2813,13 @@
       <c r="BP22" s="10"/>
       <c r="BQ22" s="10"/>
       <c r="BR22" s="10"/>
-      <c r="BS22" s="1"/>
+      <c r="BS22" s="10"/>
       <c r="BT22" s="10"/>
-    </row>
-    <row r="23" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU22" s="10"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="10"/>
+    </row>
+    <row r="23" spans="1:75" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2668,10 +2833,10 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="13"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2709,9 +2874,9 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
       <c r="BF23" s="10"/>
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
@@ -2725,10 +2890,13 @@
       <c r="BP23" s="10"/>
       <c r="BQ23" s="10"/>
       <c r="BR23" s="10"/>
-      <c r="BS23" s="1"/>
+      <c r="BS23" s="10"/>
       <c r="BT23" s="10"/>
-    </row>
-    <row r="24" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="10"/>
+    </row>
+    <row r="24" spans="1:75" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2742,10 +2910,10 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="13"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2783,9 +2951,9 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
       <c r="BF24" s="10"/>
       <c r="BG24" s="10"/>
       <c r="BH24" s="10"/>
@@ -2799,10 +2967,13 @@
       <c r="BP24" s="10"/>
       <c r="BQ24" s="10"/>
       <c r="BR24" s="10"/>
-      <c r="BS24" s="1"/>
+      <c r="BS24" s="10"/>
       <c r="BT24" s="10"/>
-    </row>
-    <row r="25" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="10"/>
+    </row>
+    <row r="25" spans="1:75" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -2816,10 +2987,10 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -2857,9 +3028,9 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
       <c r="BF25" s="10"/>
       <c r="BG25" s="10"/>
       <c r="BH25" s="10"/>
@@ -2873,10 +3044,13 @@
       <c r="BP25" s="10"/>
       <c r="BQ25" s="10"/>
       <c r="BR25" s="10"/>
-      <c r="BS25" s="1"/>
+      <c r="BS25" s="10"/>
       <c r="BT25" s="10"/>
-    </row>
-    <row r="26" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU25" s="10"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="10"/>
+    </row>
+    <row r="26" spans="1:75" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -2890,10 +3064,10 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="13"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2931,9 +3105,9 @@
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
       <c r="BF26" s="10"/>
       <c r="BG26" s="10"/>
       <c r="BH26" s="10"/>
@@ -2947,10 +3121,13 @@
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
       <c r="BR26" s="10"/>
-      <c r="BS26" s="1"/>
+      <c r="BS26" s="10"/>
       <c r="BT26" s="10"/>
-    </row>
-    <row r="27" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="10"/>
+    </row>
+    <row r="27" spans="1:75" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -2964,10 +3141,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3005,9 +3182,9 @@
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
       <c r="BF27" s="10"/>
       <c r="BG27" s="10"/>
       <c r="BH27" s="10"/>
@@ -3021,10 +3198,13 @@
       <c r="BP27" s="10"/>
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
-      <c r="BS27" s="1"/>
+      <c r="BS27" s="10"/>
       <c r="BT27" s="10"/>
-    </row>
-    <row r="28" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU27" s="10"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="10"/>
+    </row>
+    <row r="28" spans="1:75" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -3038,10 +3218,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="Q28" s="13"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3079,9 +3259,9 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
       <c r="BF28" s="10"/>
       <c r="BG28" s="10"/>
       <c r="BH28" s="10"/>
@@ -3095,10 +3275,13 @@
       <c r="BP28" s="10"/>
       <c r="BQ28" s="10"/>
       <c r="BR28" s="10"/>
-      <c r="BS28" s="1"/>
+      <c r="BS28" s="10"/>
       <c r="BT28" s="10"/>
-    </row>
-    <row r="29" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU28" s="10"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="10"/>
+    </row>
+    <row r="29" spans="1:75" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -3112,10 +3295,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="13"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="13"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3153,9 +3336,9 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
       <c r="BF29" s="10"/>
       <c r="BG29" s="10"/>
       <c r="BH29" s="10"/>
@@ -3169,10 +3352,13 @@
       <c r="BP29" s="10"/>
       <c r="BQ29" s="10"/>
       <c r="BR29" s="10"/>
-      <c r="BS29" s="1"/>
+      <c r="BS29" s="10"/>
       <c r="BT29" s="10"/>
-    </row>
-    <row r="30" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU29" s="10"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="10"/>
+    </row>
+    <row r="30" spans="1:75" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -3186,10 +3372,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="13"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -3227,9 +3413,9 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
-      <c r="BC30" s="10"/>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="10"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
       <c r="BF30" s="10"/>
       <c r="BG30" s="10"/>
       <c r="BH30" s="10"/>
@@ -3243,10 +3429,13 @@
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
       <c r="BR30" s="10"/>
-      <c r="BS30" s="1"/>
+      <c r="BS30" s="10"/>
       <c r="BT30" s="10"/>
-    </row>
-    <row r="31" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU30" s="10"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="10"/>
+    </row>
+    <row r="31" spans="1:75" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -3260,10 +3449,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="13"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="13"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3301,9 +3490,9 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
-      <c r="BC31" s="10"/>
-      <c r="BD31" s="10"/>
-      <c r="BE31" s="10"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
       <c r="BF31" s="10"/>
       <c r="BG31" s="10"/>
       <c r="BH31" s="10"/>
@@ -3317,10 +3506,13 @@
       <c r="BP31" s="10"/>
       <c r="BQ31" s="10"/>
       <c r="BR31" s="10"/>
-      <c r="BS31" s="1"/>
+      <c r="BS31" s="10"/>
       <c r="BT31" s="10"/>
-    </row>
-    <row r="32" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU31" s="10"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="10"/>
+    </row>
+    <row r="32" spans="1:75" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -3334,10 +3526,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3375,9 +3567,9 @@
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
-      <c r="BC32" s="10"/>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="10"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
       <c r="BF32" s="10"/>
       <c r="BG32" s="10"/>
       <c r="BH32" s="10"/>
@@ -3391,10 +3583,13 @@
       <c r="BP32" s="10"/>
       <c r="BQ32" s="10"/>
       <c r="BR32" s="10"/>
-      <c r="BS32" s="1"/>
+      <c r="BS32" s="10"/>
       <c r="BT32" s="10"/>
-    </row>
-    <row r="33" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU32" s="10"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="10"/>
+    </row>
+    <row r="33" spans="1:75" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -3408,10 +3603,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="13"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3449,9 +3644,9 @@
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
       <c r="BF33" s="10"/>
       <c r="BG33" s="10"/>
       <c r="BH33" s="10"/>
@@ -3465,10 +3660,13 @@
       <c r="BP33" s="10"/>
       <c r="BQ33" s="10"/>
       <c r="BR33" s="10"/>
-      <c r="BS33" s="1"/>
+      <c r="BS33" s="10"/>
       <c r="BT33" s="10"/>
-    </row>
-    <row r="34" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU33" s="10"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="10"/>
+    </row>
+    <row r="34" spans="1:75" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -3482,10 +3680,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="13"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3523,9 +3721,9 @@
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
       <c r="BF34" s="10"/>
       <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
@@ -3539,10 +3737,13 @@
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
       <c r="BR34" s="10"/>
-      <c r="BS34" s="1"/>
+      <c r="BS34" s="10"/>
       <c r="BT34" s="10"/>
-    </row>
-    <row r="35" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="10"/>
+    </row>
+    <row r="35" spans="1:75" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -3556,10 +3757,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="13"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3597,9 +3798,9 @@
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
-      <c r="BC35" s="10"/>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
       <c r="BF35" s="10"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
@@ -3613,10 +3814,13 @@
       <c r="BP35" s="10"/>
       <c r="BQ35" s="10"/>
       <c r="BR35" s="10"/>
-      <c r="BS35" s="1"/>
+      <c r="BS35" s="10"/>
       <c r="BT35" s="10"/>
-    </row>
-    <row r="36" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU35" s="10"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="10"/>
+    </row>
+    <row r="36" spans="1:75" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -3630,10 +3834,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="13"/>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3671,9 +3875,9 @@
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
-      <c r="BC36" s="10"/>
-      <c r="BD36" s="10"/>
-      <c r="BE36" s="10"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
       <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
@@ -3687,10 +3891,13 @@
       <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
-      <c r="BS36" s="1"/>
+      <c r="BS36" s="10"/>
       <c r="BT36" s="10"/>
-    </row>
-    <row r="37" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU36" s="10"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="10"/>
+    </row>
+    <row r="37" spans="1:75" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -3704,10 +3911,10 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="13"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3745,9 +3952,9 @@
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
-      <c r="BC37" s="10"/>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="10"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
       <c r="BF37" s="10"/>
       <c r="BG37" s="10"/>
       <c r="BH37" s="10"/>
@@ -3761,10 +3968,13 @@
       <c r="BP37" s="10"/>
       <c r="BQ37" s="10"/>
       <c r="BR37" s="10"/>
-      <c r="BS37" s="1"/>
+      <c r="BS37" s="10"/>
       <c r="BT37" s="10"/>
-    </row>
-    <row r="38" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU37" s="10"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="10"/>
+    </row>
+    <row r="38" spans="1:75" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -3778,10 +3988,10 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="13"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -3819,9 +4029,9 @@
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
       <c r="BF38" s="10"/>
       <c r="BG38" s="10"/>
       <c r="BH38" s="10"/>
@@ -3835,10 +4045,13 @@
       <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
       <c r="BR38" s="10"/>
-      <c r="BS38" s="1"/>
+      <c r="BS38" s="10"/>
       <c r="BT38" s="10"/>
-    </row>
-    <row r="39" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU38" s="10"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="10"/>
+    </row>
+    <row r="39" spans="1:75" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -3852,10 +4065,10 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="13"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3893,9 +4106,9 @@
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="10"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
       <c r="BF39" s="10"/>
       <c r="BG39" s="10"/>
       <c r="BH39" s="10"/>
@@ -3909,10 +4122,13 @@
       <c r="BP39" s="10"/>
       <c r="BQ39" s="10"/>
       <c r="BR39" s="10"/>
-      <c r="BS39" s="1"/>
+      <c r="BS39" s="10"/>
       <c r="BT39" s="10"/>
-    </row>
-    <row r="40" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU39" s="10"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="10"/>
+    </row>
+    <row r="40" spans="1:75" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -3926,10 +4142,10 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="13"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3967,9 +4183,9 @@
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
       <c r="BF40" s="10"/>
       <c r="BG40" s="10"/>
       <c r="BH40" s="10"/>
@@ -3983,10 +4199,13 @@
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
       <c r="BR40" s="10"/>
-      <c r="BS40" s="1"/>
+      <c r="BS40" s="10"/>
       <c r="BT40" s="10"/>
-    </row>
-    <row r="41" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU40" s="10"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="10"/>
+    </row>
+    <row r="41" spans="1:75" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -4000,10 +4219,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="13"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -4041,9 +4260,9 @@
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
       <c r="BF41" s="10"/>
       <c r="BG41" s="10"/>
       <c r="BH41" s="10"/>
@@ -4057,10 +4276,13 @@
       <c r="BP41" s="10"/>
       <c r="BQ41" s="10"/>
       <c r="BR41" s="10"/>
-      <c r="BS41" s="1"/>
+      <c r="BS41" s="10"/>
       <c r="BT41" s="10"/>
-    </row>
-    <row r="42" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU41" s="10"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="10"/>
+    </row>
+    <row r="42" spans="1:75" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -4074,10 +4296,10 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="13"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="13"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -4115,9 +4337,9 @@
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="10"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
       <c r="BF42" s="10"/>
       <c r="BG42" s="10"/>
       <c r="BH42" s="10"/>
@@ -4131,10 +4353,13 @@
       <c r="BP42" s="10"/>
       <c r="BQ42" s="10"/>
       <c r="BR42" s="10"/>
-      <c r="BS42" s="1"/>
+      <c r="BS42" s="10"/>
       <c r="BT42" s="10"/>
-    </row>
-    <row r="43" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU42" s="10"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="10"/>
+    </row>
+    <row r="43" spans="1:75" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -4148,10 +4373,10 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="13"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="13"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -4189,9 +4414,9 @@
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="10"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
       <c r="BF43" s="10"/>
       <c r="BG43" s="10"/>
       <c r="BH43" s="10"/>
@@ -4205,10 +4430,13 @@
       <c r="BP43" s="10"/>
       <c r="BQ43" s="10"/>
       <c r="BR43" s="10"/>
-      <c r="BS43" s="1"/>
+      <c r="BS43" s="10"/>
       <c r="BT43" s="10"/>
-    </row>
-    <row r="44" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU43" s="10"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="10"/>
+    </row>
+    <row r="44" spans="1:75" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -4222,10 +4450,10 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="13"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="13"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -4263,9 +4491,9 @@
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
-      <c r="BE44" s="10"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
       <c r="BF44" s="10"/>
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
@@ -4279,10 +4507,13 @@
       <c r="BP44" s="10"/>
       <c r="BQ44" s="10"/>
       <c r="BR44" s="10"/>
-      <c r="BS44" s="1"/>
+      <c r="BS44" s="10"/>
       <c r="BT44" s="10"/>
-    </row>
-    <row r="45" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU44" s="10"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="10"/>
+    </row>
+    <row r="45" spans="1:75" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -4296,10 +4527,10 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="13"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="Q45" s="13"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -4337,9 +4568,9 @@
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
-      <c r="BC45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="10"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
       <c r="BF45" s="10"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
@@ -4353,10 +4584,13 @@
       <c r="BP45" s="10"/>
       <c r="BQ45" s="10"/>
       <c r="BR45" s="10"/>
-      <c r="BS45" s="1"/>
+      <c r="BS45" s="10"/>
       <c r="BT45" s="10"/>
-    </row>
-    <row r="46" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU45" s="10"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="10"/>
+    </row>
+    <row r="46" spans="1:75" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -4370,10 +4604,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="13"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="13"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4411,9 +4645,9 @@
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
-      <c r="BC46" s="10"/>
-      <c r="BD46" s="10"/>
-      <c r="BE46" s="10"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
       <c r="BF46" s="10"/>
       <c r="BG46" s="10"/>
       <c r="BH46" s="10"/>
@@ -4427,10 +4661,13 @@
       <c r="BP46" s="10"/>
       <c r="BQ46" s="10"/>
       <c r="BR46" s="10"/>
-      <c r="BS46" s="1"/>
+      <c r="BS46" s="10"/>
       <c r="BT46" s="10"/>
-    </row>
-    <row r="47" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU46" s="10"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="10"/>
+    </row>
+    <row r="47" spans="1:75" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -4444,10 +4681,10 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="13"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="13"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4485,9 +4722,9 @@
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
-      <c r="BC47" s="10"/>
-      <c r="BD47" s="10"/>
-      <c r="BE47" s="10"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
       <c r="BF47" s="10"/>
       <c r="BG47" s="10"/>
       <c r="BH47" s="10"/>
@@ -4501,10 +4738,13 @@
       <c r="BP47" s="10"/>
       <c r="BQ47" s="10"/>
       <c r="BR47" s="10"/>
-      <c r="BS47" s="1"/>
+      <c r="BS47" s="10"/>
       <c r="BT47" s="10"/>
-    </row>
-    <row r="48" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU47" s="10"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="10"/>
+    </row>
+    <row r="48" spans="1:75" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -4518,10 +4758,10 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="13"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="Q48" s="13"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4559,9 +4799,9 @@
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
       <c r="BF48" s="10"/>
       <c r="BG48" s="10"/>
       <c r="BH48" s="10"/>
@@ -4575,10 +4815,13 @@
       <c r="BP48" s="10"/>
       <c r="BQ48" s="10"/>
       <c r="BR48" s="10"/>
-      <c r="BS48" s="1"/>
+      <c r="BS48" s="10"/>
       <c r="BT48" s="10"/>
-    </row>
-    <row r="49" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU48" s="10"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="10"/>
+    </row>
+    <row r="49" spans="1:75" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -4592,10 +4835,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="13"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="Q49" s="13"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -4633,9 +4876,9 @@
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
       <c r="BF49" s="10"/>
       <c r="BG49" s="10"/>
       <c r="BH49" s="10"/>
@@ -4649,10 +4892,13 @@
       <c r="BP49" s="10"/>
       <c r="BQ49" s="10"/>
       <c r="BR49" s="10"/>
-      <c r="BS49" s="1"/>
+      <c r="BS49" s="10"/>
       <c r="BT49" s="10"/>
-    </row>
-    <row r="50" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU49" s="10"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="10"/>
+    </row>
+    <row r="50" spans="1:75" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4666,10 +4912,10 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="13"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="13"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -4707,9 +4953,9 @@
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="10"/>
-      <c r="BE50" s="10"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
       <c r="BF50" s="10"/>
       <c r="BG50" s="10"/>
       <c r="BH50" s="10"/>
@@ -4723,10 +4969,13 @@
       <c r="BP50" s="10"/>
       <c r="BQ50" s="10"/>
       <c r="BR50" s="10"/>
-      <c r="BS50" s="1"/>
+      <c r="BS50" s="10"/>
       <c r="BT50" s="10"/>
-    </row>
-    <row r="51" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU50" s="10"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="10"/>
+    </row>
+    <row r="51" spans="1:75" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4740,10 +4989,10 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="13"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="Q51" s="13"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -4781,9 +5030,9 @@
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
-      <c r="BC51" s="10"/>
-      <c r="BD51" s="10"/>
-      <c r="BE51" s="10"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
       <c r="BF51" s="10"/>
       <c r="BG51" s="10"/>
       <c r="BH51" s="10"/>
@@ -4797,10 +5046,13 @@
       <c r="BP51" s="10"/>
       <c r="BQ51" s="10"/>
       <c r="BR51" s="10"/>
-      <c r="BS51" s="1"/>
+      <c r="BS51" s="10"/>
       <c r="BT51" s="10"/>
-    </row>
-    <row r="52" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU51" s="10"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="10"/>
+    </row>
+    <row r="52" spans="1:75" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4814,10 +5066,10 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="13"/>
+      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="Q52" s="13"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -4855,9 +5107,9 @@
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
-      <c r="BC52" s="10"/>
-      <c r="BD52" s="10"/>
-      <c r="BE52" s="10"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
       <c r="BF52" s="10"/>
       <c r="BG52" s="10"/>
       <c r="BH52" s="10"/>
@@ -4871,10 +5123,13 @@
       <c r="BP52" s="10"/>
       <c r="BQ52" s="10"/>
       <c r="BR52" s="10"/>
-      <c r="BS52" s="1"/>
+      <c r="BS52" s="10"/>
       <c r="BT52" s="10"/>
-    </row>
-    <row r="53" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU52" s="10"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="10"/>
+    </row>
+    <row r="53" spans="1:75" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -4888,10 +5143,10 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="13"/>
+      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="Q53" s="13"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4929,9 +5184,9 @@
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
-      <c r="BC53" s="10"/>
-      <c r="BD53" s="10"/>
-      <c r="BE53" s="10"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
       <c r="BF53" s="10"/>
       <c r="BG53" s="10"/>
       <c r="BH53" s="10"/>
@@ -4945,10 +5200,13 @@
       <c r="BP53" s="10"/>
       <c r="BQ53" s="10"/>
       <c r="BR53" s="10"/>
-      <c r="BS53" s="1"/>
+      <c r="BS53" s="10"/>
       <c r="BT53" s="10"/>
-    </row>
-    <row r="54" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU53" s="10"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="10"/>
+    </row>
+    <row r="54" spans="1:75" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -4962,10 +5220,10 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="13"/>
+      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="13"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -5003,9 +5261,9 @@
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
-      <c r="BC54" s="10"/>
-      <c r="BD54" s="10"/>
-      <c r="BE54" s="10"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
       <c r="BF54" s="10"/>
       <c r="BG54" s="10"/>
       <c r="BH54" s="10"/>
@@ -5019,10 +5277,13 @@
       <c r="BP54" s="10"/>
       <c r="BQ54" s="10"/>
       <c r="BR54" s="10"/>
-      <c r="BS54" s="1"/>
+      <c r="BS54" s="10"/>
       <c r="BT54" s="10"/>
-    </row>
-    <row r="55" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU54" s="10"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="10"/>
+    </row>
+    <row r="55" spans="1:75" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -5036,10 +5297,10 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="13"/>
+      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="Q55" s="13"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -5077,9 +5338,9 @@
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
-      <c r="BC55" s="10"/>
-      <c r="BD55" s="10"/>
-      <c r="BE55" s="10"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
       <c r="BF55" s="10"/>
       <c r="BG55" s="10"/>
       <c r="BH55" s="10"/>
@@ -5093,10 +5354,13 @@
       <c r="BP55" s="10"/>
       <c r="BQ55" s="10"/>
       <c r="BR55" s="10"/>
-      <c r="BS55" s="1"/>
+      <c r="BS55" s="10"/>
       <c r="BT55" s="10"/>
-    </row>
-    <row r="56" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU55" s="10"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="10"/>
+    </row>
+    <row r="56" spans="1:75" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -5110,10 +5374,10 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="13"/>
+      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="Q56" s="13"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -5151,9 +5415,9 @@
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
-      <c r="BC56" s="10"/>
-      <c r="BD56" s="10"/>
-      <c r="BE56" s="10"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
       <c r="BF56" s="10"/>
       <c r="BG56" s="10"/>
       <c r="BH56" s="10"/>
@@ -5167,10 +5431,13 @@
       <c r="BP56" s="10"/>
       <c r="BQ56" s="10"/>
       <c r="BR56" s="10"/>
-      <c r="BS56" s="1"/>
+      <c r="BS56" s="10"/>
       <c r="BT56" s="10"/>
-    </row>
-    <row r="57" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU56" s="10"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="10"/>
+    </row>
+    <row r="57" spans="1:75" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -5184,10 +5451,10 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="13"/>
+      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="Q57" s="13"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -5225,9 +5492,9 @@
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
-      <c r="BC57" s="10"/>
-      <c r="BD57" s="10"/>
-      <c r="BE57" s="10"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
       <c r="BF57" s="10"/>
       <c r="BG57" s="10"/>
       <c r="BH57" s="10"/>
@@ -5241,10 +5508,13 @@
       <c r="BP57" s="10"/>
       <c r="BQ57" s="10"/>
       <c r="BR57" s="10"/>
-      <c r="BS57" s="1"/>
+      <c r="BS57" s="10"/>
       <c r="BT57" s="10"/>
-    </row>
-    <row r="58" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU57" s="10"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="10"/>
+    </row>
+    <row r="58" spans="1:75" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -5258,10 +5528,10 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="13"/>
+      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="Q58" s="13"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -5299,9 +5569,9 @@
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
-      <c r="BC58" s="10"/>
-      <c r="BD58" s="10"/>
-      <c r="BE58" s="10"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
       <c r="BF58" s="10"/>
       <c r="BG58" s="10"/>
       <c r="BH58" s="10"/>
@@ -5315,10 +5585,13 @@
       <c r="BP58" s="10"/>
       <c r="BQ58" s="10"/>
       <c r="BR58" s="10"/>
-      <c r="BS58" s="1"/>
+      <c r="BS58" s="10"/>
       <c r="BT58" s="10"/>
-    </row>
-    <row r="59" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU58" s="10"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="10"/>
+    </row>
+    <row r="59" spans="1:75" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -5332,10 +5605,10 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="13"/>
+      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="Q59" s="13"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -5373,9 +5646,9 @@
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
-      <c r="BC59" s="10"/>
-      <c r="BD59" s="10"/>
-      <c r="BE59" s="10"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
       <c r="BF59" s="10"/>
       <c r="BG59" s="10"/>
       <c r="BH59" s="10"/>
@@ -5389,10 +5662,13 @@
       <c r="BP59" s="10"/>
       <c r="BQ59" s="10"/>
       <c r="BR59" s="10"/>
-      <c r="BS59" s="1"/>
+      <c r="BS59" s="10"/>
       <c r="BT59" s="10"/>
-    </row>
-    <row r="60" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU59" s="10"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="10"/>
+    </row>
+    <row r="60" spans="1:75" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -5406,10 +5682,10 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="13"/>
+      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="Q60" s="13"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
@@ -5447,9 +5723,9 @@
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
-      <c r="BC60" s="10"/>
-      <c r="BD60" s="10"/>
-      <c r="BE60" s="10"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
       <c r="BF60" s="10"/>
       <c r="BG60" s="10"/>
       <c r="BH60" s="10"/>
@@ -5463,10 +5739,13 @@
       <c r="BP60" s="10"/>
       <c r="BQ60" s="10"/>
       <c r="BR60" s="10"/>
-      <c r="BS60" s="1"/>
+      <c r="BS60" s="10"/>
       <c r="BT60" s="10"/>
-    </row>
-    <row r="61" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU60" s="10"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="10"/>
+    </row>
+    <row r="61" spans="1:75" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -5480,10 +5759,10 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="13"/>
+      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="Q61" s="13"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
@@ -5521,9 +5800,9 @@
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
-      <c r="BC61" s="10"/>
-      <c r="BD61" s="10"/>
-      <c r="BE61" s="10"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
       <c r="BF61" s="10"/>
       <c r="BG61" s="10"/>
       <c r="BH61" s="10"/>
@@ -5537,10 +5816,13 @@
       <c r="BP61" s="10"/>
       <c r="BQ61" s="10"/>
       <c r="BR61" s="10"/>
-      <c r="BS61" s="1"/>
+      <c r="BS61" s="10"/>
       <c r="BT61" s="10"/>
-    </row>
-    <row r="62" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU61" s="10"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="10"/>
+    </row>
+    <row r="62" spans="1:75" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -5554,10 +5836,10 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="13"/>
+      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="Q62" s="13"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
@@ -5595,9 +5877,9 @@
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
-      <c r="BC62" s="10"/>
-      <c r="BD62" s="10"/>
-      <c r="BE62" s="10"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
       <c r="BF62" s="10"/>
       <c r="BG62" s="10"/>
       <c r="BH62" s="10"/>
@@ -5611,10 +5893,13 @@
       <c r="BP62" s="10"/>
       <c r="BQ62" s="10"/>
       <c r="BR62" s="10"/>
-      <c r="BS62" s="1"/>
+      <c r="BS62" s="10"/>
       <c r="BT62" s="10"/>
-    </row>
-    <row r="63" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU62" s="10"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="10"/>
+    </row>
+    <row r="63" spans="1:75" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -5628,10 +5913,10 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="13"/>
+      <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="Q63" s="13"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -5669,9 +5954,9 @@
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
-      <c r="BC63" s="10"/>
-      <c r="BD63" s="10"/>
-      <c r="BE63" s="10"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
       <c r="BF63" s="10"/>
       <c r="BG63" s="10"/>
       <c r="BH63" s="10"/>
@@ -5685,10 +5970,13 @@
       <c r="BP63" s="10"/>
       <c r="BQ63" s="10"/>
       <c r="BR63" s="10"/>
-      <c r="BS63" s="1"/>
+      <c r="BS63" s="10"/>
       <c r="BT63" s="10"/>
-    </row>
-    <row r="64" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU63" s="10"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="10"/>
+    </row>
+    <row r="64" spans="1:75" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -5702,10 +5990,10 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="13"/>
+      <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="Q64" s="13"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -5743,9 +6031,9 @@
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
-      <c r="BC64" s="10"/>
-      <c r="BD64" s="10"/>
-      <c r="BE64" s="10"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
       <c r="BF64" s="10"/>
       <c r="BG64" s="10"/>
       <c r="BH64" s="10"/>
@@ -5759,10 +6047,13 @@
       <c r="BP64" s="10"/>
       <c r="BQ64" s="10"/>
       <c r="BR64" s="10"/>
-      <c r="BS64" s="1"/>
+      <c r="BS64" s="10"/>
       <c r="BT64" s="10"/>
-    </row>
-    <row r="65" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU64" s="10"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="10"/>
+    </row>
+    <row r="65" spans="1:75" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -5776,10 +6067,10 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="13"/>
+      <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="Q65" s="13"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
@@ -5817,9 +6108,9 @@
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
-      <c r="BC65" s="10"/>
-      <c r="BD65" s="10"/>
-      <c r="BE65" s="10"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
       <c r="BF65" s="10"/>
       <c r="BG65" s="10"/>
       <c r="BH65" s="10"/>
@@ -5833,10 +6124,13 @@
       <c r="BP65" s="10"/>
       <c r="BQ65" s="10"/>
       <c r="BR65" s="10"/>
-      <c r="BS65" s="1"/>
+      <c r="BS65" s="10"/>
       <c r="BT65" s="10"/>
-    </row>
-    <row r="66" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU65" s="10"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="10"/>
+    </row>
+    <row r="66" spans="1:75" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5850,10 +6144,10 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="13"/>
+      <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="Q66" s="13"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
@@ -5891,9 +6185,9 @@
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
-      <c r="BC66" s="10"/>
-      <c r="BD66" s="10"/>
-      <c r="BE66" s="10"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
       <c r="BF66" s="10"/>
       <c r="BG66" s="10"/>
       <c r="BH66" s="10"/>
@@ -5907,10 +6201,13 @@
       <c r="BP66" s="10"/>
       <c r="BQ66" s="10"/>
       <c r="BR66" s="10"/>
-      <c r="BS66" s="1"/>
+      <c r="BS66" s="10"/>
       <c r="BT66" s="10"/>
-    </row>
-    <row r="67" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU66" s="10"/>
+      <c r="BV66" s="1"/>
+      <c r="BW66" s="10"/>
+    </row>
+    <row r="67" spans="1:75" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -5924,10 +6221,10 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="13"/>
+      <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="Q67" s="13"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
@@ -5965,9 +6262,9 @@
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
-      <c r="BC67" s="10"/>
-      <c r="BD67" s="10"/>
-      <c r="BE67" s="10"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
       <c r="BF67" s="10"/>
       <c r="BG67" s="10"/>
       <c r="BH67" s="10"/>
@@ -5981,10 +6278,13 @@
       <c r="BP67" s="10"/>
       <c r="BQ67" s="10"/>
       <c r="BR67" s="10"/>
-      <c r="BS67" s="1"/>
+      <c r="BS67" s="10"/>
       <c r="BT67" s="10"/>
-    </row>
-    <row r="68" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU67" s="10"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="10"/>
+    </row>
+    <row r="68" spans="1:75" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -5998,10 +6298,10 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="13"/>
+      <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="Q68" s="13"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -6039,9 +6339,9 @@
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
-      <c r="BC68" s="10"/>
-      <c r="BD68" s="10"/>
-      <c r="BE68" s="10"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
       <c r="BF68" s="10"/>
       <c r="BG68" s="10"/>
       <c r="BH68" s="10"/>
@@ -6055,10 +6355,13 @@
       <c r="BP68" s="10"/>
       <c r="BQ68" s="10"/>
       <c r="BR68" s="10"/>
-      <c r="BS68" s="1"/>
+      <c r="BS68" s="10"/>
       <c r="BT68" s="10"/>
-    </row>
-    <row r="69" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU68" s="10"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="10"/>
+    </row>
+    <row r="69" spans="1:75" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -6072,10 +6375,10 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="13"/>
+      <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="Q69" s="13"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -6113,9 +6416,9 @@
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
-      <c r="BC69" s="10"/>
-      <c r="BD69" s="10"/>
-      <c r="BE69" s="10"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
       <c r="BF69" s="10"/>
       <c r="BG69" s="10"/>
       <c r="BH69" s="10"/>
@@ -6129,10 +6432,13 @@
       <c r="BP69" s="10"/>
       <c r="BQ69" s="10"/>
       <c r="BR69" s="10"/>
-      <c r="BS69" s="1"/>
+      <c r="BS69" s="10"/>
       <c r="BT69" s="10"/>
-    </row>
-    <row r="70" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU69" s="10"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="10"/>
+    </row>
+    <row r="70" spans="1:75" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -6146,10 +6452,10 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="13"/>
+      <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="Q70" s="13"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -6187,9 +6493,9 @@
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
-      <c r="BC70" s="10"/>
-      <c r="BD70" s="10"/>
-      <c r="BE70" s="10"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
       <c r="BF70" s="10"/>
       <c r="BG70" s="10"/>
       <c r="BH70" s="10"/>
@@ -6203,10 +6509,13 @@
       <c r="BP70" s="10"/>
       <c r="BQ70" s="10"/>
       <c r="BR70" s="10"/>
-      <c r="BS70" s="1"/>
+      <c r="BS70" s="10"/>
       <c r="BT70" s="10"/>
-    </row>
-    <row r="71" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU70" s="10"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="10"/>
+    </row>
+    <row r="71" spans="1:75" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -6220,10 +6529,10 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="13"/>
+      <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="13"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -6261,9 +6570,9 @@
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
-      <c r="BC71" s="10"/>
-      <c r="BD71" s="10"/>
-      <c r="BE71" s="10"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
       <c r="BF71" s="10"/>
       <c r="BG71" s="10"/>
       <c r="BH71" s="10"/>
@@ -6277,10 +6586,13 @@
       <c r="BP71" s="10"/>
       <c r="BQ71" s="10"/>
       <c r="BR71" s="10"/>
-      <c r="BS71" s="1"/>
+      <c r="BS71" s="10"/>
       <c r="BT71" s="10"/>
-    </row>
-    <row r="72" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU71" s="10"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="10"/>
+    </row>
+    <row r="72" spans="1:75" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -6294,10 +6606,10 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="13"/>
+      <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="13"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -6335,9 +6647,9 @@
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
-      <c r="BC72" s="10"/>
-      <c r="BD72" s="10"/>
-      <c r="BE72" s="10"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
       <c r="BF72" s="10"/>
       <c r="BG72" s="10"/>
       <c r="BH72" s="10"/>
@@ -6351,10 +6663,13 @@
       <c r="BP72" s="10"/>
       <c r="BQ72" s="10"/>
       <c r="BR72" s="10"/>
-      <c r="BS72" s="1"/>
+      <c r="BS72" s="10"/>
       <c r="BT72" s="10"/>
-    </row>
-    <row r="73" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU72" s="10"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="10"/>
+    </row>
+    <row r="73" spans="1:75" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -6368,10 +6683,10 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="13"/>
+      <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="Q73" s="13"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -6409,9 +6724,9 @@
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
-      <c r="BC73" s="10"/>
-      <c r="BD73" s="10"/>
-      <c r="BE73" s="10"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
       <c r="BF73" s="10"/>
       <c r="BG73" s="10"/>
       <c r="BH73" s="10"/>
@@ -6425,10 +6740,13 @@
       <c r="BP73" s="10"/>
       <c r="BQ73" s="10"/>
       <c r="BR73" s="10"/>
-      <c r="BS73" s="1"/>
+      <c r="BS73" s="10"/>
       <c r="BT73" s="10"/>
-    </row>
-    <row r="74" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU73" s="10"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="10"/>
+    </row>
+    <row r="74" spans="1:75" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -6442,10 +6760,10 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="13"/>
+      <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="Q74" s="13"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -6483,9 +6801,9 @@
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
-      <c r="BC74" s="10"/>
-      <c r="BD74" s="10"/>
-      <c r="BE74" s="10"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
       <c r="BF74" s="10"/>
       <c r="BG74" s="10"/>
       <c r="BH74" s="10"/>
@@ -6499,10 +6817,13 @@
       <c r="BP74" s="10"/>
       <c r="BQ74" s="10"/>
       <c r="BR74" s="10"/>
-      <c r="BS74" s="1"/>
+      <c r="BS74" s="10"/>
       <c r="BT74" s="10"/>
-    </row>
-    <row r="75" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU74" s="10"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="10"/>
+    </row>
+    <row r="75" spans="1:75" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -6516,10 +6837,10 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="13"/>
+      <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="Q75" s="13"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -6557,9 +6878,9 @@
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
-      <c r="BC75" s="10"/>
-      <c r="BD75" s="10"/>
-      <c r="BE75" s="10"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
       <c r="BF75" s="10"/>
       <c r="BG75" s="10"/>
       <c r="BH75" s="10"/>
@@ -6573,10 +6894,13 @@
       <c r="BP75" s="10"/>
       <c r="BQ75" s="10"/>
       <c r="BR75" s="10"/>
-      <c r="BS75" s="1"/>
+      <c r="BS75" s="10"/>
       <c r="BT75" s="10"/>
-    </row>
-    <row r="76" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU75" s="10"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="10"/>
+    </row>
+    <row r="76" spans="1:75" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -6590,10 +6914,10 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="13"/>
+      <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="Q76" s="13"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -6631,9 +6955,9 @@
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
-      <c r="BC76" s="10"/>
-      <c r="BD76" s="10"/>
-      <c r="BE76" s="10"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
       <c r="BF76" s="10"/>
       <c r="BG76" s="10"/>
       <c r="BH76" s="10"/>
@@ -6647,10 +6971,13 @@
       <c r="BP76" s="10"/>
       <c r="BQ76" s="10"/>
       <c r="BR76" s="10"/>
-      <c r="BS76" s="1"/>
+      <c r="BS76" s="10"/>
       <c r="BT76" s="10"/>
-    </row>
-    <row r="77" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU76" s="10"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="10"/>
+    </row>
+    <row r="77" spans="1:75" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -6664,10 +6991,10 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="13"/>
+      <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="Q77" s="13"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -6705,9 +7032,9 @@
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
-      <c r="BC77" s="10"/>
-      <c r="BD77" s="10"/>
-      <c r="BE77" s="10"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
       <c r="BF77" s="10"/>
       <c r="BG77" s="10"/>
       <c r="BH77" s="10"/>
@@ -6721,10 +7048,13 @@
       <c r="BP77" s="10"/>
       <c r="BQ77" s="10"/>
       <c r="BR77" s="10"/>
-      <c r="BS77" s="1"/>
+      <c r="BS77" s="10"/>
       <c r="BT77" s="10"/>
-    </row>
-    <row r="78" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU77" s="10"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="10"/>
+    </row>
+    <row r="78" spans="1:75" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -6738,10 +7068,10 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="13"/>
+      <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="Q78" s="13"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -6779,9 +7109,9 @@
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
-      <c r="BC78" s="10"/>
-      <c r="BD78" s="10"/>
-      <c r="BE78" s="10"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
       <c r="BF78" s="10"/>
       <c r="BG78" s="10"/>
       <c r="BH78" s="10"/>
@@ -6795,10 +7125,13 @@
       <c r="BP78" s="10"/>
       <c r="BQ78" s="10"/>
       <c r="BR78" s="10"/>
-      <c r="BS78" s="1"/>
+      <c r="BS78" s="10"/>
       <c r="BT78" s="10"/>
-    </row>
-    <row r="79" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU78" s="10"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="10"/>
+    </row>
+    <row r="79" spans="1:75" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -6812,10 +7145,10 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="13"/>
+      <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="Q79" s="13"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -6853,9 +7186,9 @@
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
-      <c r="BC79" s="10"/>
-      <c r="BD79" s="10"/>
-      <c r="BE79" s="10"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
       <c r="BF79" s="10"/>
       <c r="BG79" s="10"/>
       <c r="BH79" s="10"/>
@@ -6869,10 +7202,13 @@
       <c r="BP79" s="10"/>
       <c r="BQ79" s="10"/>
       <c r="BR79" s="10"/>
-      <c r="BS79" s="1"/>
+      <c r="BS79" s="10"/>
       <c r="BT79" s="10"/>
-    </row>
-    <row r="80" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU79" s="10"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="10"/>
+    </row>
+    <row r="80" spans="1:75" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -6886,10 +7222,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="13"/>
+      <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="Q80" s="13"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -6927,9 +7263,9 @@
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
-      <c r="BC80" s="10"/>
-      <c r="BD80" s="10"/>
-      <c r="BE80" s="10"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
       <c r="BF80" s="10"/>
       <c r="BG80" s="10"/>
       <c r="BH80" s="10"/>
@@ -6943,10 +7279,13 @@
       <c r="BP80" s="10"/>
       <c r="BQ80" s="10"/>
       <c r="BR80" s="10"/>
-      <c r="BS80" s="1"/>
+      <c r="BS80" s="10"/>
       <c r="BT80" s="10"/>
-    </row>
-    <row r="81" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU80" s="10"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="10"/>
+    </row>
+    <row r="81" spans="1:75" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -6960,10 +7299,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="13"/>
+      <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="Q81" s="13"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -7001,9 +7340,9 @@
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
-      <c r="BC81" s="10"/>
-      <c r="BD81" s="10"/>
-      <c r="BE81" s="10"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
       <c r="BF81" s="10"/>
       <c r="BG81" s="10"/>
       <c r="BH81" s="10"/>
@@ -7017,10 +7356,13 @@
       <c r="BP81" s="10"/>
       <c r="BQ81" s="10"/>
       <c r="BR81" s="10"/>
-      <c r="BS81" s="1"/>
+      <c r="BS81" s="10"/>
       <c r="BT81" s="10"/>
-    </row>
-    <row r="82" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU81" s="10"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="10"/>
+    </row>
+    <row r="82" spans="1:75" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -7034,10 +7376,10 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="13"/>
+      <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="Q82" s="13"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -7075,9 +7417,9 @@
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
-      <c r="BC82" s="10"/>
-      <c r="BD82" s="10"/>
-      <c r="BE82" s="10"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
       <c r="BF82" s="10"/>
       <c r="BG82" s="10"/>
       <c r="BH82" s="10"/>
@@ -7091,10 +7433,13 @@
       <c r="BP82" s="10"/>
       <c r="BQ82" s="10"/>
       <c r="BR82" s="10"/>
-      <c r="BS82" s="1"/>
+      <c r="BS82" s="10"/>
       <c r="BT82" s="10"/>
-    </row>
-    <row r="83" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU82" s="10"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="10"/>
+    </row>
+    <row r="83" spans="1:75" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -7108,10 +7453,10 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="13"/>
+      <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="Q83" s="13"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -7149,9 +7494,9 @@
       <c r="AZ83" s="1"/>
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
-      <c r="BC83" s="10"/>
-      <c r="BD83" s="10"/>
-      <c r="BE83" s="10"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
       <c r="BF83" s="10"/>
       <c r="BG83" s="10"/>
       <c r="BH83" s="10"/>
@@ -7165,10 +7510,13 @@
       <c r="BP83" s="10"/>
       <c r="BQ83" s="10"/>
       <c r="BR83" s="10"/>
-      <c r="BS83" s="1"/>
+      <c r="BS83" s="10"/>
       <c r="BT83" s="10"/>
-    </row>
-    <row r="84" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU83" s="10"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="10"/>
+    </row>
+    <row r="84" spans="1:75" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -7182,10 +7530,10 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="13"/>
+      <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="Q84" s="13"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -7223,9 +7571,9 @@
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
-      <c r="BC84" s="10"/>
-      <c r="BD84" s="10"/>
-      <c r="BE84" s="10"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
       <c r="BF84" s="10"/>
       <c r="BG84" s="10"/>
       <c r="BH84" s="10"/>
@@ -7239,10 +7587,13 @@
       <c r="BP84" s="10"/>
       <c r="BQ84" s="10"/>
       <c r="BR84" s="10"/>
-      <c r="BS84" s="1"/>
+      <c r="BS84" s="10"/>
       <c r="BT84" s="10"/>
-    </row>
-    <row r="85" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU84" s="10"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="10"/>
+    </row>
+    <row r="85" spans="1:75" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -7256,10 +7607,10 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="13"/>
+      <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="Q85" s="13"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -7297,9 +7648,9 @@
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
-      <c r="BC85" s="10"/>
-      <c r="BD85" s="10"/>
-      <c r="BE85" s="10"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
       <c r="BF85" s="10"/>
       <c r="BG85" s="10"/>
       <c r="BH85" s="10"/>
@@ -7313,10 +7664,13 @@
       <c r="BP85" s="10"/>
       <c r="BQ85" s="10"/>
       <c r="BR85" s="10"/>
-      <c r="BS85" s="1"/>
+      <c r="BS85" s="10"/>
       <c r="BT85" s="10"/>
-    </row>
-    <row r="86" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU85" s="10"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="10"/>
+    </row>
+    <row r="86" spans="1:75" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -7330,10 +7684,10 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="13"/>
+      <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="Q86" s="13"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -7371,9 +7725,9 @@
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
-      <c r="BC86" s="10"/>
-      <c r="BD86" s="10"/>
-      <c r="BE86" s="10"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
       <c r="BF86" s="10"/>
       <c r="BG86" s="10"/>
       <c r="BH86" s="10"/>
@@ -7387,10 +7741,13 @@
       <c r="BP86" s="10"/>
       <c r="BQ86" s="10"/>
       <c r="BR86" s="10"/>
-      <c r="BS86" s="1"/>
+      <c r="BS86" s="10"/>
       <c r="BT86" s="10"/>
-    </row>
-    <row r="87" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU86" s="10"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="10"/>
+    </row>
+    <row r="87" spans="1:75" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -7404,10 +7761,10 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="13"/>
+      <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="Q87" s="13"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -7445,9 +7802,9 @@
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
-      <c r="BC87" s="10"/>
-      <c r="BD87" s="10"/>
-      <c r="BE87" s="10"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
       <c r="BF87" s="10"/>
       <c r="BG87" s="10"/>
       <c r="BH87" s="10"/>
@@ -7461,10 +7818,13 @@
       <c r="BP87" s="10"/>
       <c r="BQ87" s="10"/>
       <c r="BR87" s="10"/>
-      <c r="BS87" s="1"/>
+      <c r="BS87" s="10"/>
       <c r="BT87" s="10"/>
-    </row>
-    <row r="88" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU87" s="10"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="10"/>
+    </row>
+    <row r="88" spans="1:75" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -7478,10 +7838,10 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="13"/>
+      <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="Q88" s="13"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -7519,9 +7879,9 @@
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
-      <c r="BC88" s="10"/>
-      <c r="BD88" s="10"/>
-      <c r="BE88" s="10"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
       <c r="BF88" s="10"/>
       <c r="BG88" s="10"/>
       <c r="BH88" s="10"/>
@@ -7535,10 +7895,13 @@
       <c r="BP88" s="10"/>
       <c r="BQ88" s="10"/>
       <c r="BR88" s="10"/>
-      <c r="BS88" s="1"/>
+      <c r="BS88" s="10"/>
       <c r="BT88" s="10"/>
-    </row>
-    <row r="89" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU88" s="10"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="10"/>
+    </row>
+    <row r="89" spans="1:75" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -7552,10 +7915,10 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="13"/>
+      <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="Q89" s="13"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -7593,9 +7956,9 @@
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
-      <c r="BC89" s="10"/>
-      <c r="BD89" s="10"/>
-      <c r="BE89" s="10"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
       <c r="BF89" s="10"/>
       <c r="BG89" s="10"/>
       <c r="BH89" s="10"/>
@@ -7609,10 +7972,13 @@
       <c r="BP89" s="10"/>
       <c r="BQ89" s="10"/>
       <c r="BR89" s="10"/>
-      <c r="BS89" s="1"/>
+      <c r="BS89" s="10"/>
       <c r="BT89" s="10"/>
-    </row>
-    <row r="90" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU89" s="10"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="10"/>
+    </row>
+    <row r="90" spans="1:75" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -7626,10 +7992,10 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="13"/>
+      <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="Q90" s="13"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -7667,9 +8033,9 @@
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
-      <c r="BC90" s="10"/>
-      <c r="BD90" s="10"/>
-      <c r="BE90" s="10"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
       <c r="BF90" s="10"/>
       <c r="BG90" s="10"/>
       <c r="BH90" s="10"/>
@@ -7683,10 +8049,13 @@
       <c r="BP90" s="10"/>
       <c r="BQ90" s="10"/>
       <c r="BR90" s="10"/>
-      <c r="BS90" s="1"/>
+      <c r="BS90" s="10"/>
       <c r="BT90" s="10"/>
-    </row>
-    <row r="91" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU90" s="10"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="10"/>
+    </row>
+    <row r="91" spans="1:75" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -7700,10 +8069,10 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="13"/>
+      <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="Q91" s="13"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -7741,9 +8110,9 @@
       <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
-      <c r="BC91" s="10"/>
-      <c r="BD91" s="10"/>
-      <c r="BE91" s="10"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
       <c r="BF91" s="10"/>
       <c r="BG91" s="10"/>
       <c r="BH91" s="10"/>
@@ -7757,10 +8126,13 @@
       <c r="BP91" s="10"/>
       <c r="BQ91" s="10"/>
       <c r="BR91" s="10"/>
-      <c r="BS91" s="1"/>
+      <c r="BS91" s="10"/>
       <c r="BT91" s="10"/>
-    </row>
-    <row r="92" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU91" s="10"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="10"/>
+    </row>
+    <row r="92" spans="1:75" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -7774,10 +8146,10 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="13"/>
+      <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="Q92" s="13"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -7815,9 +8187,9 @@
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
-      <c r="BC92" s="10"/>
-      <c r="BD92" s="10"/>
-      <c r="BE92" s="10"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10"/>
@@ -7831,10 +8203,13 @@
       <c r="BP92" s="10"/>
       <c r="BQ92" s="10"/>
       <c r="BR92" s="10"/>
-      <c r="BS92" s="1"/>
+      <c r="BS92" s="10"/>
       <c r="BT92" s="10"/>
-    </row>
-    <row r="93" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU92" s="10"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="10"/>
+    </row>
+    <row r="93" spans="1:75" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -7848,10 +8223,10 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="13"/>
+      <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="Q93" s="13"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
@@ -7889,9 +8264,9 @@
       <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
-      <c r="BC93" s="10"/>
-      <c r="BD93" s="10"/>
-      <c r="BE93" s="10"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
       <c r="BF93" s="10"/>
       <c r="BG93" s="10"/>
       <c r="BH93" s="10"/>
@@ -7905,10 +8280,13 @@
       <c r="BP93" s="10"/>
       <c r="BQ93" s="10"/>
       <c r="BR93" s="10"/>
-      <c r="BS93" s="1"/>
+      <c r="BS93" s="10"/>
       <c r="BT93" s="10"/>
-    </row>
-    <row r="94" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU93" s="10"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="10"/>
+    </row>
+    <row r="94" spans="1:75" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -7922,10 +8300,10 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="13"/>
+      <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="Q94" s="13"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -7963,9 +8341,9 @@
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
-      <c r="BC94" s="10"/>
-      <c r="BD94" s="10"/>
-      <c r="BE94" s="10"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
       <c r="BF94" s="10"/>
       <c r="BG94" s="10"/>
       <c r="BH94" s="10"/>
@@ -7979,10 +8357,13 @@
       <c r="BP94" s="10"/>
       <c r="BQ94" s="10"/>
       <c r="BR94" s="10"/>
-      <c r="BS94" s="1"/>
+      <c r="BS94" s="10"/>
       <c r="BT94" s="10"/>
-    </row>
-    <row r="95" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU94" s="10"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="10"/>
+    </row>
+    <row r="95" spans="1:75" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -7996,10 +8377,10 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-      <c r="N95" s="13"/>
+      <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="Q95" s="13"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -8037,9 +8418,9 @@
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
-      <c r="BC95" s="10"/>
-      <c r="BD95" s="10"/>
-      <c r="BE95" s="10"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
       <c r="BF95" s="10"/>
       <c r="BG95" s="10"/>
       <c r="BH95" s="10"/>
@@ -8053,10 +8434,13 @@
       <c r="BP95" s="10"/>
       <c r="BQ95" s="10"/>
       <c r="BR95" s="10"/>
-      <c r="BS95" s="1"/>
+      <c r="BS95" s="10"/>
       <c r="BT95" s="10"/>
-    </row>
-    <row r="96" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU95" s="10"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="10"/>
+    </row>
+    <row r="96" spans="1:75" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -8070,10 +8454,10 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="13"/>
+      <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="Q96" s="13"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -8111,9 +8495,9 @@
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
-      <c r="BC96" s="10"/>
-      <c r="BD96" s="10"/>
-      <c r="BE96" s="10"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
       <c r="BF96" s="10"/>
       <c r="BG96" s="10"/>
       <c r="BH96" s="10"/>
@@ -8127,10 +8511,13 @@
       <c r="BP96" s="10"/>
       <c r="BQ96" s="10"/>
       <c r="BR96" s="10"/>
-      <c r="BS96" s="1"/>
+      <c r="BS96" s="10"/>
       <c r="BT96" s="10"/>
-    </row>
-    <row r="97" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU96" s="10"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="10"/>
+    </row>
+    <row r="97" spans="1:75" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -8144,10 +8531,10 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="13"/>
+      <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+      <c r="Q97" s="13"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -8185,9 +8572,9 @@
       <c r="AZ97" s="1"/>
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
-      <c r="BC97" s="10"/>
-      <c r="BD97" s="10"/>
-      <c r="BE97" s="10"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
       <c r="BF97" s="10"/>
       <c r="BG97" s="10"/>
       <c r="BH97" s="10"/>
@@ -8201,10 +8588,13 @@
       <c r="BP97" s="10"/>
       <c r="BQ97" s="10"/>
       <c r="BR97" s="10"/>
-      <c r="BS97" s="1"/>
+      <c r="BS97" s="10"/>
       <c r="BT97" s="10"/>
-    </row>
-    <row r="98" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU97" s="10"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="10"/>
+    </row>
+    <row r="98" spans="1:75" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -8218,10 +8608,10 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-      <c r="N98" s="13"/>
+      <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
+      <c r="Q98" s="13"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
@@ -8259,9 +8649,9 @@
       <c r="AZ98" s="1"/>
       <c r="BA98" s="1"/>
       <c r="BB98" s="1"/>
-      <c r="BC98" s="10"/>
-      <c r="BD98" s="10"/>
-      <c r="BE98" s="10"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
       <c r="BF98" s="10"/>
       <c r="BG98" s="10"/>
       <c r="BH98" s="10"/>
@@ -8275,10 +8665,13 @@
       <c r="BP98" s="10"/>
       <c r="BQ98" s="10"/>
       <c r="BR98" s="10"/>
-      <c r="BS98" s="1"/>
+      <c r="BS98" s="10"/>
       <c r="BT98" s="10"/>
-    </row>
-    <row r="99" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU98" s="10"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="10"/>
+    </row>
+    <row r="99" spans="1:75" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -8292,10 +8685,10 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="13"/>
+      <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="Q99" s="13"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
@@ -8333,9 +8726,9 @@
       <c r="AZ99" s="1"/>
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
-      <c r="BC99" s="10"/>
-      <c r="BD99" s="10"/>
-      <c r="BE99" s="10"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
       <c r="BF99" s="10"/>
       <c r="BG99" s="10"/>
       <c r="BH99" s="10"/>
@@ -8349,10 +8742,13 @@
       <c r="BP99" s="10"/>
       <c r="BQ99" s="10"/>
       <c r="BR99" s="10"/>
-      <c r="BS99" s="1"/>
+      <c r="BS99" s="10"/>
       <c r="BT99" s="10"/>
-    </row>
-    <row r="100" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU99" s="10"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="10"/>
+    </row>
+    <row r="100" spans="1:75" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -8366,10 +8762,10 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="13"/>
+      <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="Q100" s="13"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
@@ -8407,9 +8803,9 @@
       <c r="AZ100" s="1"/>
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
-      <c r="BC100" s="10"/>
-      <c r="BD100" s="10"/>
-      <c r="BE100" s="10"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="1"/>
       <c r="BF100" s="10"/>
       <c r="BG100" s="10"/>
       <c r="BH100" s="10"/>
@@ -8423,10 +8819,13 @@
       <c r="BP100" s="10"/>
       <c r="BQ100" s="10"/>
       <c r="BR100" s="10"/>
-      <c r="BS100" s="1"/>
+      <c r="BS100" s="10"/>
       <c r="BT100" s="10"/>
-    </row>
-    <row r="101" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU100" s="10"/>
+      <c r="BV100" s="1"/>
+      <c r="BW100" s="10"/>
+    </row>
+    <row r="101" spans="1:75" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -8440,10 +8839,10 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="13"/>
+      <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="Q101" s="13"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
@@ -8481,9 +8880,9 @@
       <c r="AZ101" s="1"/>
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
-      <c r="BC101" s="10"/>
-      <c r="BD101" s="10"/>
-      <c r="BE101" s="10"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="1"/>
+      <c r="BE101" s="1"/>
       <c r="BF101" s="10"/>
       <c r="BG101" s="10"/>
       <c r="BH101" s="10"/>
@@ -8497,10 +8896,13 @@
       <c r="BP101" s="10"/>
       <c r="BQ101" s="10"/>
       <c r="BR101" s="10"/>
-      <c r="BS101" s="1"/>
+      <c r="BS101" s="10"/>
       <c r="BT101" s="10"/>
-    </row>
-    <row r="102" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU101" s="10"/>
+      <c r="BV101" s="1"/>
+      <c r="BW101" s="10"/>
+    </row>
+    <row r="102" spans="1:75" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -8514,10 +8916,10 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="13"/>
+      <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="Q102" s="13"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
@@ -8555,9 +8957,9 @@
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
-      <c r="BC102" s="10"/>
-      <c r="BD102" s="10"/>
-      <c r="BE102" s="10"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="1"/>
+      <c r="BE102" s="1"/>
       <c r="BF102" s="10"/>
       <c r="BG102" s="10"/>
       <c r="BH102" s="10"/>
@@ -8571,37 +8973,40 @@
       <c r="BP102" s="10"/>
       <c r="BQ102" s="10"/>
       <c r="BR102" s="10"/>
-      <c r="BS102" s="1"/>
+      <c r="BS102" s="10"/>
       <c r="BT102" s="10"/>
-    </row>
-    <row r="103" spans="1:72" ht="12.75" customHeight="1">
+      <c r="BU102" s="10"/>
+      <c r="BV102" s="1"/>
+      <c r="BW102" s="10"/>
+    </row>
+    <row r="103" spans="1:75" ht="12.75" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:72" ht="12.75" customHeight="1">
+    <row r="104" spans="1:75" ht="12.75" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:72" ht="12.75" customHeight="1">
+    <row r="105" spans="1:75" ht="12.75" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:72" ht="12.75" customHeight="1">
+    <row r="106" spans="1:75" ht="12.75" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:72" ht="12.75" customHeight="1">
+    <row r="107" spans="1:75" ht="12.75" customHeight="1">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:72" ht="12.75" customHeight="1">
+    <row r="108" spans="1:75" ht="12.75" customHeight="1">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:72" ht="12.75" customHeight="1">
+    <row r="109" spans="1:75" ht="12.75" customHeight="1">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:72" ht="12.75" customHeight="1">
+    <row r="110" spans="1:75" ht="12.75" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:72" ht="12.75" customHeight="1">
+    <row r="111" spans="1:75" ht="12.75" customHeight="1">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:72" ht="12.75" customHeight="1">
+    <row r="112" spans="1:75" ht="12.75" customHeight="1">
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">
